--- a/list/language.xlsx
+++ b/list/language.xlsx
@@ -13,7 +13,7 @@
     <sheet name="go" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">java!$A$1:$I$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">java!$A$1:$I$53</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">python!$A$1:$I$29</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">go!$A$1:$I$27</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="0">java!$A$1:$I$1</definedName>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139">
   <si>
     <t>测试项目</t>
   </si>
@@ -781,22 +781,49 @@
   </si>
   <si>
     <t>jmeter
-3.2</t>
+3.3</t>
   </si>
   <si>
-    <t>能否安装软件包</t>
+    <t>能否安装jmeter</t>
   </si>
   <si>
     <t>jmeter.sh</t>
   </si>
   <si>
-    <t>能否启动jmeter进行测试</t>
+    <t>刘彩丽</t>
   </si>
   <si>
-    <t>能否结束jmeter进程</t>
+    <t>检测jmeter版本是否正确</t>
   </si>
   <si>
-    <t>能否卸载安装包</t>
+    <t>检测jmeter版本的安装源是否为estuary</t>
+  </si>
+  <si>
+    <t>能否安装java、web server及相关jmeter依赖库</t>
+  </si>
+  <si>
+    <t>查看java版本</t>
+  </si>
+  <si>
+    <t>能否启动nginx(web server)服务</t>
+  </si>
+  <si>
+    <t>查看jmeter是否部署成功</t>
+  </si>
+  <si>
+    <t>能否启动jmeter进行简单压力测试</t>
+  </si>
+  <si>
+    <t>检查简单压力测试结果</t>
+  </si>
+  <si>
+    <t>能否停止nigix(web server)服务</t>
+  </si>
+  <si>
+    <t>能否卸载jmeter</t>
+  </si>
+  <si>
+    <t>能否卸载java、web server及相关包</t>
   </si>
   <si>
     <t>python</t>
@@ -832,9 +859,6 @@
   </si>
   <si>
     <t>python.sh</t>
-  </si>
-  <si>
-    <t>刘彩丽</t>
   </si>
   <si>
     <r>
@@ -1847,11 +1871,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;／&quot;d&quot;／&quot;yyyy"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="43">
     <font>
@@ -1989,59 +2013,31 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2058,51 +2054,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -2116,15 +2067,88 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2167,7 +2191,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2179,37 +2227,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2227,19 +2251,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2251,7 +2305,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2263,13 +2323,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2281,25 +2353,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2311,43 +2371,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2533,6 +2557,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -2542,17 +2581,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2587,11 +2631,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2604,173 +2654,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="9" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="31" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2932,9 +2956,6 @@
     <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="4" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2942,6 +2963,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3403,12 +3430,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AMJ45"/>
+  <dimension ref="A1:AMJ53"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F37" sqref="F37"/>
+      <selection pane="bottomLeft" activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -3467,19 +3494,19 @@
       <c r="D2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="57" t="s">
+      <c r="E2" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="58" t="s">
+      <c r="F2" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="59" t="s">
+      <c r="G2" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="60" t="s">
+      <c r="H2" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="61"/>
+      <c r="I2" s="62"/>
       <c r="J2"/>
       <c r="K2"/>
       <c r="L2"/>
@@ -4505,19 +4532,19 @@
         <v>11</v>
       </c>
       <c r="D3" s="13"/>
-      <c r="E3" s="57" t="s">
+      <c r="E3" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="58" t="s">
+      <c r="F3" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="59" t="s">
+      <c r="G3" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="60" t="s">
+      <c r="H3" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="61"/>
+      <c r="I3" s="62"/>
       <c r="J3"/>
       <c r="K3"/>
       <c r="L3"/>
@@ -5543,19 +5570,19 @@
         <v>11</v>
       </c>
       <c r="D4" s="13"/>
-      <c r="E4" s="57" t="s">
+      <c r="E4" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="58" t="s">
+      <c r="F4" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="59" t="s">
+      <c r="G4" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="60" t="s">
+      <c r="H4" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="61"/>
+      <c r="I4" s="62"/>
       <c r="J4"/>
       <c r="K4"/>
       <c r="L4"/>
@@ -6581,19 +6608,19 @@
         <v>11</v>
       </c>
       <c r="D5" s="13"/>
-      <c r="E5" s="57" t="s">
+      <c r="E5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="58" t="s">
+      <c r="F5" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="59" t="s">
+      <c r="G5" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="60" t="s">
+      <c r="H5" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="61"/>
+      <c r="I5" s="62"/>
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5"/>
@@ -7619,19 +7646,19 @@
         <v>11</v>
       </c>
       <c r="D6" s="13"/>
-      <c r="E6" s="57" t="s">
+      <c r="E6" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="58" t="s">
+      <c r="F6" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="59" t="s">
+      <c r="G6" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="60" t="s">
+      <c r="H6" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="61"/>
+      <c r="I6" s="62"/>
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6"/>
@@ -8661,19 +8688,19 @@
       <c r="D7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="57" t="s">
+      <c r="E7" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="58" t="s">
+      <c r="F7" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="59" t="s">
+      <c r="G7" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="60" t="s">
+      <c r="H7" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="61"/>
+      <c r="I7" s="62"/>
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
@@ -9699,19 +9726,19 @@
         <v>11</v>
       </c>
       <c r="D8" s="13"/>
-      <c r="E8" s="57" t="s">
+      <c r="E8" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="58" t="s">
+      <c r="F8" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="59" t="s">
+      <c r="G8" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="60" t="s">
+      <c r="H8" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="61"/>
+      <c r="I8" s="62"/>
       <c r="J8"/>
       <c r="K8"/>
       <c r="L8"/>
@@ -10737,19 +10764,19 @@
         <v>11</v>
       </c>
       <c r="D9" s="13"/>
-      <c r="E9" s="57" t="s">
+      <c r="E9" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="58" t="s">
+      <c r="F9" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="59" t="s">
+      <c r="G9" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="60" t="s">
+      <c r="H9" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="61"/>
+      <c r="I9" s="62"/>
       <c r="J9"/>
       <c r="K9"/>
       <c r="L9"/>
@@ -11775,19 +11802,19 @@
         <v>11</v>
       </c>
       <c r="D10" s="13"/>
-      <c r="E10" s="57" t="s">
+      <c r="E10" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="58" t="s">
+      <c r="F10" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="59" t="s">
+      <c r="G10" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="60" t="s">
+      <c r="H10" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="61"/>
+      <c r="I10" s="62"/>
       <c r="J10"/>
       <c r="K10"/>
       <c r="L10"/>
@@ -12813,19 +12840,19 @@
         <v>11</v>
       </c>
       <c r="D11" s="13"/>
-      <c r="E11" s="57" t="s">
+      <c r="E11" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="58" t="s">
+      <c r="F11" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="59" t="s">
+      <c r="G11" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="60" t="s">
+      <c r="H11" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="61"/>
+      <c r="I11" s="62"/>
       <c r="J11"/>
       <c r="K11"/>
       <c r="L11"/>
@@ -13851,19 +13878,19 @@
         <v>11</v>
       </c>
       <c r="D12" s="13"/>
-      <c r="E12" s="57" t="s">
+      <c r="E12" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="58" t="s">
+      <c r="F12" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="59" t="s">
+      <c r="G12" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="60" t="s">
+      <c r="H12" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="61"/>
+      <c r="I12" s="62"/>
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12"/>
@@ -14889,19 +14916,19 @@
         <v>11</v>
       </c>
       <c r="D13" s="13"/>
-      <c r="E13" s="57" t="s">
+      <c r="E13" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="58" t="s">
+      <c r="F13" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="59" t="s">
+      <c r="G13" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="60" t="s">
+      <c r="H13" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="61"/>
+      <c r="I13" s="62"/>
       <c r="J13"/>
       <c r="K13"/>
       <c r="L13"/>
@@ -15927,19 +15954,19 @@
         <v>11</v>
       </c>
       <c r="D14" s="13"/>
-      <c r="E14" s="57" t="s">
+      <c r="E14" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="58" t="s">
+      <c r="F14" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="59" t="s">
+      <c r="G14" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="60" t="s">
+      <c r="H14" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="I14" s="61"/>
+      <c r="I14" s="62"/>
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14"/>
@@ -16965,19 +16992,19 @@
         <v>11</v>
       </c>
       <c r="D15" s="13"/>
-      <c r="E15" s="57" t="s">
+      <c r="E15" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="58" t="s">
+      <c r="F15" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="59" t="s">
+      <c r="G15" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="60" t="s">
+      <c r="H15" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="I15" s="61"/>
+      <c r="I15" s="62"/>
       <c r="J15"/>
       <c r="K15"/>
       <c r="L15"/>
@@ -18003,19 +18030,19 @@
         <v>11</v>
       </c>
       <c r="D16" s="13"/>
-      <c r="E16" s="57" t="s">
+      <c r="E16" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="58" t="s">
+      <c r="F16" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="59" t="s">
+      <c r="G16" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="60" t="s">
+      <c r="H16" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="61"/>
+      <c r="I16" s="62"/>
       <c r="J16"/>
       <c r="K16"/>
       <c r="L16"/>
@@ -19041,19 +19068,19 @@
         <v>11</v>
       </c>
       <c r="D17" s="13"/>
-      <c r="E17" s="57" t="s">
+      <c r="E17" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="58" t="s">
+      <c r="F17" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="59" t="s">
+      <c r="G17" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="60" t="s">
+      <c r="H17" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="I17" s="61"/>
+      <c r="I17" s="62"/>
       <c r="J17"/>
       <c r="K17"/>
       <c r="L17"/>
@@ -20079,19 +20106,19 @@
         <v>11</v>
       </c>
       <c r="D18" s="13"/>
-      <c r="E18" s="57" t="s">
+      <c r="E18" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="58" t="s">
+      <c r="F18" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="59" t="s">
+      <c r="G18" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="60" t="s">
+      <c r="H18" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="I18" s="61"/>
+      <c r="I18" s="62"/>
       <c r="J18"/>
       <c r="K18"/>
       <c r="L18"/>
@@ -21117,19 +21144,19 @@
         <v>11</v>
       </c>
       <c r="D19" s="13"/>
-      <c r="E19" s="57" t="s">
+      <c r="E19" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="58" t="s">
+      <c r="F19" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="59" t="s">
+      <c r="G19" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="60" t="s">
+      <c r="H19" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="I19" s="61"/>
+      <c r="I19" s="62"/>
       <c r="J19"/>
       <c r="K19"/>
       <c r="L19"/>
@@ -22155,19 +22182,19 @@
         <v>11</v>
       </c>
       <c r="D20" s="13"/>
-      <c r="E20" s="57" t="s">
+      <c r="E20" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="58" t="s">
+      <c r="F20" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="59" t="s">
+      <c r="G20" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="60" t="s">
+      <c r="H20" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="I20" s="61"/>
+      <c r="I20" s="62"/>
       <c r="J20"/>
       <c r="K20"/>
       <c r="L20"/>
@@ -23193,19 +23220,19 @@
         <v>11</v>
       </c>
       <c r="D21" s="13"/>
-      <c r="E21" s="57" t="s">
+      <c r="E21" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="58" t="s">
+      <c r="F21" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="59" t="s">
+      <c r="G21" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="H21" s="60" t="s">
+      <c r="H21" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="I21" s="61"/>
+      <c r="I21" s="62"/>
       <c r="J21"/>
       <c r="K21"/>
       <c r="L21"/>
@@ -24231,19 +24258,19 @@
         <v>11</v>
       </c>
       <c r="D22" s="13"/>
-      <c r="E22" s="57" t="s">
+      <c r="E22" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="58" t="s">
+      <c r="F22" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="59" t="s">
+      <c r="G22" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="H22" s="60" t="s">
+      <c r="H22" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="I22" s="61"/>
+      <c r="I22" s="62"/>
       <c r="J22"/>
       <c r="K22"/>
       <c r="L22"/>
@@ -25269,19 +25296,19 @@
         <v>11</v>
       </c>
       <c r="D23" s="13"/>
-      <c r="E23" s="57" t="s">
+      <c r="E23" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="58" t="s">
+      <c r="F23" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="G23" s="59" t="s">
+      <c r="G23" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="H23" s="60" t="s">
+      <c r="H23" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="I23" s="61"/>
+      <c r="I23" s="62"/>
       <c r="J23"/>
       <c r="K23"/>
       <c r="L23"/>
@@ -26307,19 +26334,19 @@
         <v>11</v>
       </c>
       <c r="D24" s="13"/>
-      <c r="E24" s="57" t="s">
+      <c r="E24" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="58" t="s">
+      <c r="F24" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="G24" s="59" t="s">
+      <c r="G24" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="H24" s="60" t="s">
+      <c r="H24" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="I24" s="61"/>
+      <c r="I24" s="62"/>
       <c r="J24"/>
       <c r="K24"/>
       <c r="L24"/>
@@ -27345,19 +27372,19 @@
         <v>11</v>
       </c>
       <c r="D25" s="13"/>
-      <c r="E25" s="57" t="s">
+      <c r="E25" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="58" t="s">
+      <c r="F25" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="59" t="s">
+      <c r="G25" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="H25" s="60" t="s">
+      <c r="H25" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="I25" s="61"/>
+      <c r="I25" s="62"/>
       <c r="J25"/>
       <c r="K25"/>
       <c r="L25"/>
@@ -28387,19 +28414,19 @@
       <c r="D26" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="E26" s="57" t="s">
+      <c r="E26" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="58" t="s">
+      <c r="F26" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="G26" s="59" t="s">
+      <c r="G26" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="60" t="s">
+      <c r="H26" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="I26" s="62"/>
+      <c r="I26" s="63"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="50"/>
@@ -28410,19 +28437,19 @@
         <v>11</v>
       </c>
       <c r="D27" s="52"/>
-      <c r="E27" s="57" t="s">
+      <c r="E27" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="58" t="s">
+      <c r="F27" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="59" t="s">
+      <c r="G27" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="60" t="s">
+      <c r="H27" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="I27" s="62"/>
+      <c r="I27" s="63"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="50"/>
@@ -28433,19 +28460,19 @@
         <v>11</v>
       </c>
       <c r="D28" s="52"/>
-      <c r="E28" s="57" t="s">
+      <c r="E28" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="58" t="s">
+      <c r="F28" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="G28" s="59" t="s">
+      <c r="G28" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="H28" s="60" t="s">
+      <c r="H28" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="I28" s="62"/>
+      <c r="I28" s="63"/>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="50"/>
@@ -28456,19 +28483,19 @@
         <v>11</v>
       </c>
       <c r="D29" s="52"/>
-      <c r="E29" s="57" t="s">
+      <c r="E29" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="F29" s="58" t="s">
+      <c r="F29" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="G29" s="59" t="s">
+      <c r="G29" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="H29" s="60" t="s">
+      <c r="H29" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="I29" s="62"/>
+      <c r="I29" s="63"/>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="50"/>
@@ -28479,22 +28506,22 @@
         <v>11</v>
       </c>
       <c r="D30" s="52"/>
-      <c r="E30" s="57" t="s">
+      <c r="E30" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="F30" s="58" t="s">
+      <c r="F30" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="G30" s="59" t="s">
+      <c r="G30" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="H30" s="60" t="s">
+      <c r="H30" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="I30" s="62"/>
+      <c r="I30" s="63"/>
     </row>
     <row r="31" customFormat="1" spans="1:9">
-      <c r="A31" s="53" t="s">
+      <c r="A31" s="50" t="s">
         <v>49</v>
       </c>
       <c r="B31" s="51" t="s">
@@ -28503,255 +28530,255 @@
       <c r="C31" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="54" t="s">
+      <c r="D31" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="E31" s="57" t="s">
+      <c r="E31" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="F31" s="58" t="s">
+      <c r="F31" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="G31" s="59" t="s">
+      <c r="G31" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="H31" s="57" t="s">
+      <c r="H31" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="I31" s="62"/>
+      <c r="I31" s="63"/>
     </row>
     <row r="32" customFormat="1" spans="1:9">
-      <c r="A32" s="55"/>
+      <c r="A32" s="54"/>
       <c r="B32" s="51" t="s">
         <v>54</v>
       </c>
       <c r="C32" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="54"/>
-      <c r="E32" s="57" t="s">
+      <c r="D32" s="53"/>
+      <c r="E32" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="F32" s="58" t="s">
+      <c r="F32" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="G32" s="59" t="s">
+      <c r="G32" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="H32" s="57" t="s">
+      <c r="H32" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="I32" s="62"/>
+      <c r="I32" s="63"/>
     </row>
     <row r="33" customFormat="1" spans="1:9">
-      <c r="A33" s="55"/>
+      <c r="A33" s="54"/>
       <c r="B33" s="51" t="s">
         <v>55</v>
       </c>
       <c r="C33" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="54"/>
-      <c r="E33" s="57" t="s">
+      <c r="D33" s="53"/>
+      <c r="E33" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="F33" s="58" t="s">
+      <c r="F33" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="G33" s="59" t="s">
+      <c r="G33" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="H33" s="57" t="s">
+      <c r="H33" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="I33" s="62"/>
+      <c r="I33" s="63"/>
     </row>
     <row r="34" customFormat="1" spans="1:9">
-      <c r="A34" s="55"/>
+      <c r="A34" s="54"/>
       <c r="B34" s="51" t="s">
         <v>56</v>
       </c>
       <c r="C34" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="54"/>
-      <c r="E34" s="57" t="s">
+      <c r="D34" s="53"/>
+      <c r="E34" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="F34" s="58" t="s">
+      <c r="F34" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="G34" s="59" t="s">
+      <c r="G34" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="H34" s="57" t="s">
+      <c r="H34" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="I34" s="62"/>
+      <c r="I34" s="63"/>
     </row>
     <row r="35" customFormat="1" spans="1:9">
-      <c r="A35" s="55"/>
+      <c r="A35" s="54"/>
       <c r="B35" s="51" t="s">
         <v>57</v>
       </c>
       <c r="C35" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="D35" s="54"/>
-      <c r="E35" s="57" t="s">
+      <c r="D35" s="53"/>
+      <c r="E35" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="F35" s="58" t="s">
+      <c r="F35" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="G35" s="59" t="s">
+      <c r="G35" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="H35" s="57" t="s">
+      <c r="H35" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="I35" s="62"/>
+      <c r="I35" s="63"/>
     </row>
     <row r="36" customFormat="1" spans="1:9">
-      <c r="A36" s="55"/>
+      <c r="A36" s="54"/>
       <c r="B36" s="51" t="s">
         <v>58</v>
       </c>
       <c r="C36" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="54"/>
-      <c r="E36" s="57" t="s">
+      <c r="D36" s="53"/>
+      <c r="E36" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="F36" s="58" t="s">
+      <c r="F36" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="G36" s="59" t="s">
+      <c r="G36" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="H36" s="57" t="s">
+      <c r="H36" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="I36" s="62"/>
+      <c r="I36" s="63"/>
     </row>
     <row r="37" customFormat="1" spans="1:9">
-      <c r="A37" s="55"/>
+      <c r="A37" s="54"/>
       <c r="B37" s="51" t="s">
         <v>59</v>
       </c>
       <c r="C37" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="D37" s="54"/>
-      <c r="E37" s="57" t="s">
+      <c r="D37" s="53"/>
+      <c r="E37" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="F37" s="58" t="s">
+      <c r="F37" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="G37" s="59" t="s">
+      <c r="G37" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="H37" s="57" t="s">
+      <c r="H37" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="I37" s="62"/>
+      <c r="I37" s="63"/>
     </row>
     <row r="38" customFormat="1" spans="1:9">
-      <c r="A38" s="55"/>
+      <c r="A38" s="54"/>
       <c r="B38" s="51" t="s">
         <v>60</v>
       </c>
       <c r="C38" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="D38" s="54"/>
-      <c r="E38" s="57" t="s">
+      <c r="D38" s="53"/>
+      <c r="E38" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="F38" s="58" t="s">
+      <c r="F38" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="G38" s="59" t="s">
+      <c r="G38" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="H38" s="57" t="s">
+      <c r="H38" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="I38" s="62"/>
+      <c r="I38" s="63"/>
     </row>
     <row r="39" customFormat="1" spans="1:9">
-      <c r="A39" s="55"/>
+      <c r="A39" s="54"/>
       <c r="B39" s="51" t="s">
         <v>61</v>
       </c>
       <c r="C39" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="D39" s="54"/>
-      <c r="E39" s="57" t="s">
+      <c r="D39" s="53"/>
+      <c r="E39" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="F39" s="58" t="s">
+      <c r="F39" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="G39" s="59" t="s">
+      <c r="G39" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="H39" s="57" t="s">
+      <c r="H39" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="I39" s="62"/>
+      <c r="I39" s="63"/>
     </row>
     <row r="40" customFormat="1" spans="1:9">
-      <c r="A40" s="55"/>
+      <c r="A40" s="54"/>
       <c r="B40" s="51" t="s">
         <v>62</v>
       </c>
       <c r="C40" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="D40" s="54"/>
-      <c r="E40" s="57" t="s">
+      <c r="D40" s="53"/>
+      <c r="E40" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="F40" s="58" t="s">
+      <c r="F40" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="G40" s="59" t="s">
+      <c r="G40" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="H40" s="57" t="s">
+      <c r="H40" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="I40" s="62"/>
+      <c r="I40" s="63"/>
     </row>
     <row r="41" customFormat="1" spans="1:9">
-      <c r="A41" s="56"/>
+      <c r="A41" s="55"/>
       <c r="B41" s="51" t="s">
         <v>63</v>
       </c>
       <c r="C41" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="D41" s="54"/>
-      <c r="E41" s="57" t="s">
+      <c r="D41" s="53"/>
+      <c r="E41" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="F41" s="58" t="s">
+      <c r="F41" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="G41" s="59" t="s">
+      <c r="G41" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="H41" s="57" t="s">
+      <c r="H41" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="I41" s="62"/>
+      <c r="I41" s="63"/>
     </row>
     <row r="42" customFormat="1" spans="1:9">
-      <c r="A42" s="55" t="s">
+      <c r="A42" s="54" t="s">
         <v>64</v>
       </c>
       <c r="B42" s="51" t="s">
@@ -28760,107 +28787,291 @@
       <c r="C42" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="D42" s="54" t="s">
+      <c r="D42" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="E42" s="57" t="s">
+      <c r="E42" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="F42" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="H42" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="F42" s="58" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="H42" s="57" t="s">
-        <v>52</v>
-      </c>
-      <c r="I42" s="62"/>
+      <c r="I42" s="63"/>
     </row>
     <row r="43" customFormat="1" spans="1:9">
-      <c r="A43" s="55"/>
+      <c r="A43" s="54"/>
       <c r="B43" s="51" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C43" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="D43" s="54"/>
-      <c r="E43" s="57" t="s">
+      <c r="D43" s="53"/>
+      <c r="E43" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="F43" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="H43" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="F43" s="58" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="H43" s="57" t="s">
-        <v>52</v>
-      </c>
-      <c r="I43" s="62"/>
+      <c r="I43" s="63"/>
     </row>
     <row r="44" customFormat="1" spans="1:9">
-      <c r="A44" s="55"/>
+      <c r="A44" s="54"/>
       <c r="B44" s="51" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C44" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="D44" s="54"/>
-      <c r="E44" s="57" t="s">
+      <c r="D44" s="53"/>
+      <c r="E44" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="F44" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="H44" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="F44" s="58" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="H44" s="57" t="s">
-        <v>52</v>
-      </c>
-      <c r="I44" s="62"/>
+      <c r="I44" s="63"/>
     </row>
-    <row r="45" s="44" customFormat="1" ht="15" spans="1:9">
-      <c r="A45" s="56"/>
-      <c r="B45" s="51" t="s">
-        <v>69</v>
+    <row r="45" customFormat="1" ht="30" spans="1:9">
+      <c r="A45" s="54"/>
+      <c r="B45" s="56" t="s">
+        <v>70</v>
       </c>
       <c r="C45" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="D45" s="54"/>
-      <c r="E45" s="57" t="s">
+      <c r="D45" s="53"/>
+      <c r="E45" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="F45" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="H45" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="F45" s="58" t="s">
+      <c r="I45" s="63"/>
+    </row>
+    <row r="46" customFormat="1" spans="1:9">
+      <c r="A46" s="54"/>
+      <c r="B46" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="53"/>
+      <c r="E46" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="F46" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="G45" s="59" t="s">
+      <c r="G46" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="H45" s="57" t="s">
+      <c r="H46" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="I45" s="62"/>
+      <c r="I46" s="63"/>
+    </row>
+    <row r="47" customFormat="1" spans="1:9">
+      <c r="A47" s="54"/>
+      <c r="B47" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="53"/>
+      <c r="E47" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="F47" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="H47" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="I47" s="63"/>
+    </row>
+    <row r="48" customFormat="1" spans="1:9">
+      <c r="A48" s="54"/>
+      <c r="B48" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="53"/>
+      <c r="E48" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="F48" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="H48" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="I48" s="63"/>
+    </row>
+    <row r="49" customFormat="1" spans="1:9">
+      <c r="A49" s="54"/>
+      <c r="B49" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="53"/>
+      <c r="E49" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="F49" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="H49" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="I49" s="63"/>
+    </row>
+    <row r="50" customFormat="1" spans="1:9">
+      <c r="A50" s="54"/>
+      <c r="B50" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="53"/>
+      <c r="E50" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="F50" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="G50" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="H50" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="I50" s="63"/>
+    </row>
+    <row r="51" customFormat="1" spans="1:9">
+      <c r="A51" s="57"/>
+      <c r="B51" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="53"/>
+      <c r="E51" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="F51" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="H51" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="I51" s="63"/>
+    </row>
+    <row r="52" customFormat="1" spans="1:9">
+      <c r="A52" s="57"/>
+      <c r="B52" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" s="53"/>
+      <c r="E52" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="F52" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="H52" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="I52" s="63"/>
+    </row>
+    <row r="53" s="44" customFormat="1" ht="15" spans="1:9">
+      <c r="A53" s="55"/>
+      <c r="B53" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" s="53"/>
+      <c r="E53" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="F53" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="G53" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="H53" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="I53" s="63"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I45"/>
+  <autoFilter ref="A1:I53"/>
   <mergeCells count="10">
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A7:A25"/>
     <mergeCell ref="A26:A30"/>
     <mergeCell ref="A31:A41"/>
-    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A42:A53"/>
     <mergeCell ref="D2:D6"/>
     <mergeCell ref="D7:D25"/>
     <mergeCell ref="D26:D30"/>
     <mergeCell ref="D31:D41"/>
-    <mergeCell ref="D42:D45"/>
+    <mergeCell ref="D42:D53"/>
   </mergeCells>
-  <conditionalFormatting sqref="G2:G45">
+  <conditionalFormatting sqref="G2:G53">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
@@ -28869,11 +29080,11 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G25 G26:G30 G31:G40 G41:G45">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G41 G2:G25 G26:G30 G31:G40 G42:G53">
       <formula1>"Pass,Fail"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showErrorMessage="1" sqref="H2:H25 H26:H30"/>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" promptTitle="PLS Select 请选择" sqref="F41 F2:F25 F26:F30 F31:F40 F42:F45">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" promptTitle="PLS Select 请选择" sqref="F41 F2:F25 F26:F30 F31:F40 F42:F53">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
@@ -28881,7 +29092,7 @@
     <hyperlink ref="D2" r:id="rId1" display="openjdk-smoke.sh"/>
     <hyperlink ref="D7" r:id="rId2" display="nodejs.sh"/>
     <hyperlink ref="D26" r:id="rId3" display="findbugs.yaml"/>
-    <hyperlink ref="D42:D45" r:id="rId4" display="jmeter.sh"/>
+    <hyperlink ref="D42:D53" r:id="rId4" display="jmeter.sh"/>
     <hyperlink ref="D31:D41" r:id="rId5" display="javapackages-tools.md"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
@@ -28946,19 +29157,19 @@
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:9">
       <c r="A2" s="34" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F2" s="22" t="s">
         <v>14</v>
@@ -28967,21 +29178,21 @@
         <v>15</v>
       </c>
       <c r="H2" s="39" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I2" s="42"/>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:9">
       <c r="A3" s="34"/>
       <c r="B3" s="36" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="35"/>
       <c r="E3" s="21" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F3" s="22" t="s">
         <v>14</v>
@@ -28990,21 +29201,21 @@
         <v>15</v>
       </c>
       <c r="H3" s="39" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I3" s="42"/>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:9">
       <c r="A4" s="34"/>
       <c r="B4" s="36" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="35"/>
       <c r="E4" s="21" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F4" s="22" t="s">
         <v>14</v>
@@ -29013,21 +29224,21 @@
         <v>15</v>
       </c>
       <c r="H4" s="39" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I4" s="42"/>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:9">
       <c r="A5" s="34"/>
       <c r="B5" s="36" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="35"/>
       <c r="E5" s="21" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F5" s="22" t="s">
         <v>14</v>
@@ -29036,21 +29247,21 @@
         <v>15</v>
       </c>
       <c r="H5" s="39" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I5" s="42"/>
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:9">
       <c r="A6" s="34"/>
       <c r="B6" s="36" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="35"/>
       <c r="E6" s="21" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F6" s="22" t="s">
         <v>14</v>
@@ -29059,21 +29270,21 @@
         <v>15</v>
       </c>
       <c r="H6" s="39" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I6" s="42"/>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:9">
       <c r="A7" s="34"/>
       <c r="B7" s="36" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="35"/>
       <c r="E7" s="21" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F7" s="22" t="s">
         <v>14</v>
@@ -29082,21 +29293,21 @@
         <v>15</v>
       </c>
       <c r="H7" s="39" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I7" s="42"/>
     </row>
     <row r="8" ht="15" customHeight="1" spans="1:9">
       <c r="A8" s="34"/>
       <c r="B8" s="36" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="35"/>
       <c r="E8" s="21" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F8" s="22" t="s">
         <v>14</v>
@@ -29105,21 +29316,21 @@
         <v>15</v>
       </c>
       <c r="H8" s="39" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I8" s="42"/>
     </row>
     <row r="9" ht="15" customHeight="1" spans="1:9">
       <c r="A9" s="34"/>
       <c r="B9" s="36" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="35"/>
       <c r="E9" s="21" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F9" s="22" t="s">
         <v>14</v>
@@ -29128,21 +29339,21 @@
         <v>15</v>
       </c>
       <c r="H9" s="39" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I9" s="42"/>
     </row>
     <row r="10" ht="15" customHeight="1" spans="1:9">
       <c r="A10" s="34"/>
       <c r="B10" s="36" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="35"/>
       <c r="E10" s="21" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F10" s="22" t="s">
         <v>14</v>
@@ -29151,21 +29362,21 @@
         <v>15</v>
       </c>
       <c r="H10" s="39" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I10" s="42"/>
     </row>
     <row r="11" ht="15" customHeight="1" spans="1:9">
       <c r="A11" s="34"/>
       <c r="B11" s="36" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="35"/>
       <c r="E11" s="21" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F11" s="22" t="s">
         <v>14</v>
@@ -29174,21 +29385,21 @@
         <v>15</v>
       </c>
       <c r="H11" s="39" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I11" s="42"/>
     </row>
     <row r="12" ht="15" customHeight="1" spans="1:9">
       <c r="A12" s="34"/>
       <c r="B12" s="36" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="35"/>
       <c r="E12" s="21" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F12" s="22" t="s">
         <v>14</v>
@@ -29197,21 +29408,21 @@
         <v>15</v>
       </c>
       <c r="H12" s="39" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I12" s="42"/>
     </row>
     <row r="13" ht="15" customHeight="1" spans="1:9">
       <c r="A13" s="34"/>
       <c r="B13" s="36" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="35"/>
       <c r="E13" s="21" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F13" s="22" t="s">
         <v>14</v>
@@ -29220,21 +29431,21 @@
         <v>15</v>
       </c>
       <c r="H13" s="39" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I13" s="42"/>
     </row>
     <row r="14" ht="15" customHeight="1" spans="1:9">
       <c r="A14" s="34"/>
       <c r="B14" s="36" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="35"/>
       <c r="E14" s="21" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F14" s="22" t="s">
         <v>14</v>
@@ -29243,21 +29454,21 @@
         <v>15</v>
       </c>
       <c r="H14" s="39" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I14" s="42"/>
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:9">
       <c r="A15" s="34"/>
       <c r="B15" s="36" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="35"/>
       <c r="E15" s="21" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F15" s="22" t="s">
         <v>14</v>
@@ -29266,21 +29477,21 @@
         <v>15</v>
       </c>
       <c r="H15" s="39" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I15" s="42"/>
     </row>
     <row r="16" ht="15" customHeight="1" spans="1:9">
       <c r="A16" s="34"/>
       <c r="B16" s="36" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="35"/>
       <c r="E16" s="21" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F16" s="22" t="s">
         <v>14</v>
@@ -29289,21 +29500,21 @@
         <v>15</v>
       </c>
       <c r="H16" s="39" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I16" s="42"/>
     </row>
     <row r="17" ht="15" customHeight="1" spans="1:9">
       <c r="A17" s="34"/>
       <c r="B17" s="36" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="35"/>
       <c r="E17" s="21" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F17" s="22" t="s">
         <v>14</v>
@@ -29312,21 +29523,21 @@
         <v>15</v>
       </c>
       <c r="H17" s="39" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I17" s="42"/>
     </row>
     <row r="18" ht="15" customHeight="1" spans="1:9">
       <c r="A18" s="34"/>
       <c r="B18" s="36" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D18" s="35"/>
       <c r="E18" s="21" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F18" s="22" t="s">
         <v>14</v>
@@ -29335,21 +29546,21 @@
         <v>15</v>
       </c>
       <c r="H18" s="39" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I18" s="42"/>
     </row>
     <row r="19" ht="15" customHeight="1" spans="1:9">
       <c r="A19" s="34"/>
       <c r="B19" s="36" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="35"/>
       <c r="E19" s="21" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F19" s="22" t="s">
         <v>14</v>
@@ -29358,21 +29569,21 @@
         <v>15</v>
       </c>
       <c r="H19" s="39" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I19" s="42"/>
     </row>
     <row r="20" ht="15" customHeight="1" spans="1:9">
       <c r="A20" s="34"/>
       <c r="B20" s="36" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D20" s="35"/>
       <c r="E20" s="21" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F20" s="22" t="s">
         <v>14</v>
@@ -29381,21 +29592,21 @@
         <v>15</v>
       </c>
       <c r="H20" s="39" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I20" s="42"/>
     </row>
     <row r="21" ht="15" customHeight="1" spans="1:9">
       <c r="A21" s="34"/>
       <c r="B21" s="36" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D21" s="35"/>
       <c r="E21" s="21" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F21" s="22" t="s">
         <v>14</v>
@@ -29404,21 +29615,21 @@
         <v>15</v>
       </c>
       <c r="H21" s="39" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I21" s="42"/>
     </row>
     <row r="22" ht="15" customHeight="1" spans="1:9">
       <c r="A22" s="34"/>
       <c r="B22" s="36" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D22" s="35"/>
       <c r="E22" s="21" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F22" s="22" t="s">
         <v>14</v>
@@ -29427,21 +29638,21 @@
         <v>15</v>
       </c>
       <c r="H22" s="39" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I22" s="42"/>
     </row>
     <row r="23" ht="15" customHeight="1" spans="1:9">
       <c r="A23" s="34"/>
       <c r="B23" s="36" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D23" s="35"/>
       <c r="E23" s="21" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F23" s="22" t="s">
         <v>14</v>
@@ -29450,21 +29661,21 @@
         <v>15</v>
       </c>
       <c r="H23" s="39" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I23" s="42"/>
     </row>
     <row r="24" ht="15" customHeight="1" spans="1:9">
       <c r="A24" s="34"/>
       <c r="B24" s="36" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D24" s="35"/>
       <c r="E24" s="21" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F24" s="22" t="s">
         <v>14</v>
@@ -29473,21 +29684,21 @@
         <v>15</v>
       </c>
       <c r="H24" s="39" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I24" s="42"/>
     </row>
     <row r="25" ht="15" customHeight="1" spans="1:9">
       <c r="A25" s="34"/>
       <c r="B25" s="36" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D25" s="35"/>
       <c r="E25" s="21" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F25" s="22" t="s">
         <v>14</v>
@@ -29496,21 +29707,21 @@
         <v>15</v>
       </c>
       <c r="H25" s="39" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I25" s="42"/>
     </row>
     <row r="26" ht="15" customHeight="1" spans="1:9">
       <c r="A26" s="34"/>
       <c r="B26" s="36" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D26" s="35"/>
       <c r="E26" s="21" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F26" s="22" t="s">
         <v>14</v>
@@ -29519,21 +29730,21 @@
         <v>15</v>
       </c>
       <c r="H26" s="39" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I26" s="42"/>
     </row>
     <row r="27" ht="15" customHeight="1" spans="1:9">
       <c r="A27" s="34"/>
       <c r="B27" s="36" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D27" s="35"/>
       <c r="E27" s="21" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F27" s="22" t="s">
         <v>14</v>
@@ -29542,21 +29753,21 @@
         <v>15</v>
       </c>
       <c r="H27" s="39" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I27" s="42"/>
     </row>
     <row r="28" ht="15" customHeight="1" spans="1:9">
       <c r="A28" s="34"/>
       <c r="B28" s="36" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D28" s="35"/>
       <c r="E28" s="21" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F28" s="22" t="s">
         <v>14</v>
@@ -29565,21 +29776,21 @@
         <v>15</v>
       </c>
       <c r="H28" s="39" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I28" s="42"/>
     </row>
     <row r="29" ht="15" customHeight="1" spans="1:9">
       <c r="A29" s="34"/>
       <c r="B29" s="37" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="C29" s="38" t="s">
         <v>11</v>
       </c>
       <c r="D29" s="35"/>
       <c r="E29" s="40" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F29" s="27" t="s">
         <v>14</v>
@@ -29588,7 +29799,7 @@
         <v>15</v>
       </c>
       <c r="H29" s="41" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I29" s="43"/>
     </row>
@@ -29631,7 +29842,7 @@
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -29679,19 +29890,19 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="15" spans="1:9">
       <c r="A2" s="10" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F2" s="22" t="s">
         <v>14</v>
@@ -29700,21 +29911,21 @@
         <v>15</v>
       </c>
       <c r="H2" s="24" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I2" s="31"/>
     </row>
     <row r="3" s="2" customFormat="1" ht="15" spans="1:9">
       <c r="A3" s="10"/>
       <c r="B3" s="11" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="21" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F3" s="22" t="s">
         <v>14</v>
@@ -29723,21 +29934,21 @@
         <v>15</v>
       </c>
       <c r="H3" s="24" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I3" s="31"/>
     </row>
     <row r="4" s="2" customFormat="1" ht="15" spans="1:9">
       <c r="A4" s="10"/>
       <c r="B4" s="11" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="21" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F4" s="22" t="s">
         <v>14</v>
@@ -29746,21 +29957,21 @@
         <v>15</v>
       </c>
       <c r="H4" s="24" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I4" s="31"/>
     </row>
     <row r="5" s="2" customFormat="1" ht="15" spans="1:9">
       <c r="A5" s="10"/>
       <c r="B5" s="11" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="21" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F5" s="22" t="s">
         <v>14</v>
@@ -29769,21 +29980,21 @@
         <v>15</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I5" s="31"/>
     </row>
     <row r="6" s="2" customFormat="1" ht="15" spans="1:9">
       <c r="A6" s="10"/>
       <c r="B6" s="11" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="21" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F6" s="22" t="s">
         <v>14</v>
@@ -29792,21 +30003,21 @@
         <v>15</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I6" s="31"/>
     </row>
     <row r="7" s="2" customFormat="1" ht="15" spans="1:9">
       <c r="A7" s="10"/>
       <c r="B7" s="11" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="21" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F7" s="22" t="s">
         <v>14</v>
@@ -29815,21 +30026,21 @@
         <v>15</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I7" s="31"/>
     </row>
     <row r="8" s="2" customFormat="1" ht="15" spans="1:9">
       <c r="A8" s="10"/>
       <c r="B8" s="11" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="21" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F8" s="22" t="s">
         <v>14</v>
@@ -29838,21 +30049,21 @@
         <v>15</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I8" s="31"/>
     </row>
     <row r="9" s="2" customFormat="1" ht="15" spans="1:9">
       <c r="A9" s="10"/>
       <c r="B9" s="11" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="21" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F9" s="22" t="s">
         <v>14</v>
@@ -29861,21 +30072,21 @@
         <v>15</v>
       </c>
       <c r="H9" s="24" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I9" s="31"/>
     </row>
     <row r="10" s="2" customFormat="1" ht="15" spans="1:9">
       <c r="A10" s="10"/>
       <c r="B10" s="11" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="21" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F10" s="22" t="s">
         <v>14</v>
@@ -29884,21 +30095,21 @@
         <v>15</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I10" s="31"/>
     </row>
     <row r="11" s="2" customFormat="1" ht="15" spans="1:9">
       <c r="A11" s="10"/>
       <c r="B11" s="11" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="21" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F11" s="22" t="s">
         <v>14</v>
@@ -29907,21 +30118,21 @@
         <v>15</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I11" s="31"/>
     </row>
     <row r="12" s="2" customFormat="1" ht="15" spans="1:9">
       <c r="A12" s="10"/>
       <c r="B12" s="11" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="21" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F12" s="22" t="s">
         <v>14</v>
@@ -29930,21 +30141,21 @@
         <v>15</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I12" s="31"/>
     </row>
     <row r="13" s="2" customFormat="1" ht="15" spans="1:9">
       <c r="A13" s="10"/>
       <c r="B13" s="11" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="21" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F13" s="22" t="s">
         <v>14</v>
@@ -29953,21 +30164,21 @@
         <v>15</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I13" s="31"/>
     </row>
     <row r="14" s="2" customFormat="1" ht="15" spans="1:9">
       <c r="A14" s="10"/>
       <c r="B14" s="11" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="21" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F14" s="22" t="s">
         <v>14</v>
@@ -29976,21 +30187,21 @@
         <v>15</v>
       </c>
       <c r="H14" s="24" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I14" s="31"/>
     </row>
     <row r="15" s="2" customFormat="1" ht="15" spans="1:9">
       <c r="A15" s="10"/>
       <c r="B15" s="11" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="21" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F15" s="22" t="s">
         <v>14</v>
@@ -29999,21 +30210,21 @@
         <v>15</v>
       </c>
       <c r="H15" s="24" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I15" s="31"/>
     </row>
     <row r="16" s="2" customFormat="1" ht="15" spans="1:9">
       <c r="A16" s="10"/>
       <c r="B16" s="11" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="21" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F16" s="22" t="s">
         <v>14</v>
@@ -30022,25 +30233,25 @@
         <v>15</v>
       </c>
       <c r="H16" s="24" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I16" s="31"/>
     </row>
     <row r="17" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:9">
       <c r="A17" s="14" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F17" s="22" t="s">
         <v>14</v>
@@ -30049,21 +30260,21 @@
         <v>15</v>
       </c>
       <c r="H17" s="24" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I17" s="32"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" ht="18.75" spans="1:9">
       <c r="A18" s="14"/>
       <c r="B18" s="18" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="25" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F18" s="22" t="s">
         <v>14</v>
@@ -30072,21 +30283,21 @@
         <v>15</v>
       </c>
       <c r="H18" s="24" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I18" s="32"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" ht="18.75" spans="1:9">
       <c r="A19" s="14"/>
       <c r="B19" s="18" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="25" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F19" s="22" t="s">
         <v>14</v>
@@ -30095,21 +30306,21 @@
         <v>15</v>
       </c>
       <c r="H19" s="24" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I19" s="32"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" ht="18.75" spans="1:9">
       <c r="A20" s="14"/>
       <c r="B20" s="18" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="C20" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="25" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F20" s="22" t="s">
         <v>14</v>
@@ -30118,21 +30329,21 @@
         <v>15</v>
       </c>
       <c r="H20" s="24" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I20" s="32"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" ht="18.75" spans="1:9">
       <c r="A21" s="14"/>
       <c r="B21" s="18" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="25" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F21" s="22" t="s">
         <v>14</v>
@@ -30141,21 +30352,21 @@
         <v>15</v>
       </c>
       <c r="H21" s="24" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I21" s="32"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" ht="18.75" spans="1:9">
       <c r="A22" s="14"/>
       <c r="B22" s="18" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D22" s="17"/>
       <c r="E22" s="25" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F22" s="22" t="s">
         <v>14</v>
@@ -30164,21 +30375,21 @@
         <v>15</v>
       </c>
       <c r="H22" s="24" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I22" s="32"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" ht="18.75" spans="1:9">
       <c r="A23" s="14"/>
       <c r="B23" s="18" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="25" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F23" s="22" t="s">
         <v>14</v>
@@ -30187,21 +30398,21 @@
         <v>15</v>
       </c>
       <c r="H23" s="24" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I23" s="32"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" ht="18.75" spans="1:9">
       <c r="A24" s="14"/>
       <c r="B24" s="18" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="C24" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="25" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F24" s="22" t="s">
         <v>14</v>
@@ -30210,21 +30421,21 @@
         <v>15</v>
       </c>
       <c r="H24" s="24" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I24" s="32"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" ht="18.75" spans="1:9">
       <c r="A25" s="14"/>
       <c r="B25" s="18" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="C25" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D25" s="17"/>
       <c r="E25" s="25" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F25" s="22" t="s">
         <v>14</v>
@@ -30233,21 +30444,21 @@
         <v>15</v>
       </c>
       <c r="H25" s="24" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I25" s="32"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" ht="18.75" spans="1:9">
       <c r="A26" s="14"/>
       <c r="B26" s="18" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="C26" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D26" s="17"/>
       <c r="E26" s="25" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F26" s="22" t="s">
         <v>14</v>
@@ -30256,21 +30467,21 @@
         <v>15</v>
       </c>
       <c r="H26" s="24" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I26" s="32"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" ht="18.75" spans="1:9">
       <c r="A27" s="14"/>
       <c r="B27" s="19" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="C27" s="20" t="s">
         <v>11</v>
       </c>
       <c r="D27" s="17"/>
       <c r="E27" s="26" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F27" s="27" t="s">
         <v>14</v>
@@ -30279,7 +30490,7 @@
         <v>15</v>
       </c>
       <c r="H27" s="29" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I27" s="33"/>
     </row>

--- a/list/language.xlsx
+++ b/list/language.xlsx
@@ -8,24 +8,18 @@
     <workbookView windowWidth="24120" windowHeight="12840" tabRatio="992"/>
   </bookViews>
   <sheets>
-    <sheet name="java" sheetId="1" r:id="rId1"/>
-    <sheet name="python" sheetId="2" r:id="rId2"/>
-    <sheet name="go" sheetId="3" r:id="rId3"/>
+    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">java!$A$1:$I$53</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">python!$A$1:$I$29</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">go!$A$1:$I$27</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="0">java!$A$1:$I$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="1">python!$A$1:$I$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="2">go!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sheet1!$A$1:$I$53</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="0">sheet1!$A$1:$I$1</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173">
   <si>
     <t>测试项目</t>
   </si>
@@ -826,6 +820,392 @@
     <t>能否卸载java、web server及相关包</t>
   </si>
   <si>
+    <t>golang</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>能否安装</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>go</t>
+    </r>
+  </si>
+  <si>
+    <t>golang.sh</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查看</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>go</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>能否执行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>go</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>简单程序并输出</t>
+    </r>
+  </si>
+  <si>
+    <t>能否成功执行基础语法程序</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>能否成功执行一个高并发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>go</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>能否成功执行管道</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>go</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>能否创建</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>go</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>包规范化的工作目录</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>能否设置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>go</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>环境变量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>GOPATH</t>
+    </r>
+  </si>
+  <si>
+    <t>能否成功在包下编译程序</t>
+  </si>
+  <si>
+    <t>检查是否编译成功</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>能否创建用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>go</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>编译</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>http</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>服务器</t>
+    </r>
+  </si>
+  <si>
+    <t>运行，检测是否监听端口</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>检测</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>http</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>服务器是否搭建成功</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>能否关掉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>go</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>创建的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>http</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>服务器</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>能否卸载</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>golang</t>
+    </r>
+  </si>
+  <si>
+    <t>go-bindata
+3.0.7</t>
+  </si>
+  <si>
+    <t>检查是否已安装golang</t>
+  </si>
+  <si>
+    <t>go-bindata.sh</t>
+  </si>
+  <si>
+    <t>检查是否添加estuary源</t>
+  </si>
+  <si>
+    <t>能否安装go-bindata</t>
+  </si>
+  <si>
+    <t>查看go-bindata版本</t>
+  </si>
+  <si>
+    <t>能否创建go工程项目</t>
+  </si>
+  <si>
+    <t>能否设置go环境变量GOPATH</t>
+  </si>
+  <si>
+    <t>能否用go-bindata编译静态文件</t>
+  </si>
+  <si>
+    <t>检查是否已生成二进制go文件</t>
+  </si>
+  <si>
+    <t>go编译释放二进制的go文件</t>
+  </si>
+  <si>
+    <t>是否可以释放二进制文件成静态文件</t>
+  </si>
+  <si>
+    <t>能否卸载go-bindata</t>
+  </si>
+  <si>
     <t>python</t>
   </si>
   <si>
@@ -1480,17 +1860,68 @@
     </r>
   </si>
   <si>
-    <t>golang</t>
+    <t>php</t>
+  </si>
+  <si>
+    <t>安装相关辅助工具</t>
+  </si>
+  <si>
+    <t>php.sh</t>
+  </si>
+  <si>
+    <t>安装nginx、php及php-fpm</t>
+  </si>
+  <si>
+    <t>配置php</t>
+  </si>
+  <si>
+    <t>启动php-fpm服务</t>
+  </si>
+  <si>
+    <t>配置nginx</t>
+  </si>
+  <si>
+    <t>启动nginx服务</t>
+  </si>
+  <si>
+    <t>测试nginx-server是否搭建成功</t>
+  </si>
+  <si>
+    <t>测试是否可以打印php-info</t>
+  </si>
+  <si>
+    <t>测试数组的使用</t>
+  </si>
+  <si>
+    <t>测试数据类型的使用</t>
+  </si>
+  <si>
+    <t>测试for循环</t>
+  </si>
+  <si>
+    <t>测试if条件判断</t>
+  </si>
+  <si>
+    <t>测试print打印功能</t>
+  </si>
+  <si>
+    <t>测试sort排序</t>
+  </si>
+  <si>
+    <t>测试写入文件功能</t>
+  </si>
+  <si>
+    <t>测试常数的使用</t>
+  </si>
+  <si>
+    <t>测试error功能</t>
+  </si>
+  <si>
+    <t>测试函数的使用</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>能否安装</t>
+      <t>测试</t>
     </r>
     <r>
       <rPr>
@@ -1499,21 +1930,18 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>go</t>
+      <t>多维数组的使用</t>
     </r>
   </si>
   <si>
-    <t>golang.sh</t>
+    <t>测试读取文件功能</t>
+  </si>
+  <si>
+    <t>测试string字符串</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>查看</t>
+      <t>测试</t>
     </r>
     <r>
       <rPr>
@@ -1522,27 +1950,18 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>go</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>版本</t>
+      <t>变量的使用</t>
     </r>
   </si>
   <si>
+    <t>测试cookie的使用</t>
+  </si>
+  <si>
+    <t>测试异常处理</t>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>能否执行</t>
+      <t>测试</t>
     </r>
     <r>
       <rPr>
@@ -1551,30 +1970,12 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>go</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>简单程序并输出</t>
+      <t>全局变量的使用</t>
     </r>
   </si>
   <si>
-    <t>能否成功执行基础语法程序</t>
-  </si>
-  <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>能否成功执行一个高并发</t>
+      <t>测试</t>
     </r>
     <r>
       <rPr>
@@ -1583,287 +1984,26 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>go</t>
+      <t>操作符的使用</t>
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>能否成功执行管道</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>go</t>
-    </r>
+    <t>测试session的使用</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>能否创建</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>go</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>包规范化的工作目录</t>
-    </r>
+    <t>测试while循环</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>能否设置</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>go</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>环境变量</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>GOPATH</t>
-    </r>
+    <t>暂停php-fpm服务</t>
   </si>
   <si>
-    <t>能否成功在包下编译程序</t>
+    <t>暂停nginx服务</t>
   </si>
   <si>
-    <t>检查是否编译成功</t>
+    <t>卸载nginx、php及php-fpm</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>能否创建用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>go</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>编译</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>http</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>服务器</t>
-    </r>
-  </si>
-  <si>
-    <t>运行，检测是否监听端口</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>检测</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>http</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>服务器是否搭建成功</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>能否关掉</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>go</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>创建的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>http</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>服务器</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>能否卸载</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>golang</t>
-    </r>
-  </si>
-  <si>
-    <t>go-bindata
-3.0.7</t>
-  </si>
-  <si>
-    <t>检查是否已安装golang</t>
-  </si>
-  <si>
-    <t>go-bindata.sh</t>
-  </si>
-  <si>
-    <t>检查是否添加estuary源</t>
-  </si>
-  <si>
-    <t>能否安装go-bindata</t>
-  </si>
-  <si>
-    <t>查看go-bindata版本</t>
-  </si>
-  <si>
-    <t>能否创建go工程项目</t>
-  </si>
-  <si>
-    <t>能否设置go环境变量GOPATH</t>
-  </si>
-  <si>
-    <t>能否用go-bindata编译静态文件</t>
-  </si>
-  <si>
-    <t>检查是否已生成二进制go文件</t>
-  </si>
-  <si>
-    <t>go编译释放二进制的go文件</t>
-  </si>
-  <si>
-    <t>是否可以释放二进制文件成静态文件</t>
-  </si>
-  <si>
-    <t>能否卸载go-bindata</t>
+    <t>127/138</t>
   </si>
 </sst>
 </file>
@@ -1871,11 +2011,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="m&quot;／&quot;d&quot;／&quot;yyyy"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="m&quot;／&quot;d&quot;／&quot;yyyy"/>
   </numFmts>
   <fonts count="43">
     <font>
@@ -1891,6 +2031,7 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF333333"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -1914,14 +2055,13 @@
     <font>
       <sz val="10"/>
       <color rgb="FF333333"/>
-      <name val="微软雅黑"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="AR PL UKai CN"/>
-      <charset val="134"/>
+      <name val="宋体"/>
+      <charset val="1"/>
     </font>
     <font>
       <u/>
@@ -1929,49 +2069,6 @@
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Noto Sans CJK SC Regular"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2000,10 +2097,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="AR PL UKai CN"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <i/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Noto Sans CJK SC Regular"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2020,26 +2160,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2052,25 +2184,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2089,16 +2212,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2119,8 +2234,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2141,6 +2257,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -2148,9 +2272,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2197,7 +2337,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2209,19 +2403,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2233,67 +2415,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2305,31 +2427,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2353,13 +2451,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2371,7 +2487,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2385,13 +2525,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="thin">
@@ -2406,9 +2546,31 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -2433,7 +2595,7 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color auto="1"/>
       </right>
       <top style="thin">
@@ -2481,36 +2643,19 @@
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -2526,34 +2671,23 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color auto="1"/>
-      </top>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color auto="1"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2581,26 +2715,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2612,6 +2726,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2648,6 +2771,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -2659,133 +2793,133 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="9" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="15" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2794,17 +2928,14 @@
     </xf>
     <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="35" applyFont="1" applyAlignment="1">
@@ -2816,180 +2947,177 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="35" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="35" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="4" borderId="4" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="14" fillId="4" borderId="1" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="4" borderId="6" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="1" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="4" borderId="1" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="17" fillId="4" borderId="8" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="9" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="35" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="35" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="35" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="20" fillId="4" borderId="4" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="4" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="35" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -3043,43 +3171,7 @@
     <cellStyle name="Check Cell" xfId="47" builtinId="23"/>
     <cellStyle name="Percent" xfId="48" builtinId="5"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF70AD47"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF70AD47"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <b val="0"/>
@@ -3430,83 +3522,83 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AMJ53"/>
+  <dimension ref="A1:AMT141"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F47" sqref="F47"/>
+      <selection pane="bottomLeft" activeCell="D108" sqref="D108:D139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="20.6074074074074" style="4"/>
-    <col min="2" max="2" width="28.4814814814815" style="5"/>
-    <col min="3" max="3" width="6.41481481481481" style="5"/>
-    <col min="4" max="4" width="20.6074074074074" style="4"/>
-    <col min="5" max="5" width="11.1481481481481" style="4"/>
-    <col min="6" max="6" width="17.2222222222222" style="5"/>
-    <col min="7" max="7" width="14.0740740740741" style="5"/>
-    <col min="8" max="8" width="11.1481481481481" style="6"/>
-    <col min="9" max="9" width="61.362962962963" style="5"/>
-    <col min="10" max="1025" width="20.6074074074074" style="5"/>
+    <col min="1" max="1" width="20.6074074074074" style="3"/>
+    <col min="2" max="2" width="28.4814814814815" style="4"/>
+    <col min="3" max="3" width="6.41481481481481" style="4"/>
+    <col min="4" max="4" width="20.6074074074074" style="3"/>
+    <col min="5" max="5" width="11.1481481481481" style="3"/>
+    <col min="6" max="6" width="17.2222222222222" style="4"/>
+    <col min="7" max="7" width="14.0740740740741" style="4"/>
+    <col min="8" max="8" width="11.1481481481481" style="5"/>
+    <col min="9" max="9" width="61.362962962963" style="4"/>
+    <col min="10" max="1025" width="20.6074074074074" style="4"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="36" customHeight="1" spans="1:9">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="45" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="45" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:1024">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="58" t="s">
+      <c r="E2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="59" t="s">
+      <c r="F2" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="60" t="s">
+      <c r="G2" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="61" t="s">
+      <c r="H2" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="62"/>
+      <c r="I2" s="30"/>
       <c r="J2"/>
       <c r="K2"/>
       <c r="L2"/>
@@ -4524,27 +4616,27 @@
       <c r="AMJ2"/>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:1024">
-      <c r="A3" s="46"/>
-      <c r="B3" s="47" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="58" t="s">
+      <c r="D3" s="10"/>
+      <c r="E3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="59" t="s">
+      <c r="F3" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="60" t="s">
+      <c r="G3" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="61" t="s">
+      <c r="H3" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="62"/>
+      <c r="I3" s="30"/>
       <c r="J3"/>
       <c r="K3"/>
       <c r="L3"/>
@@ -5562,27 +5654,27 @@
       <c r="AMJ3"/>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:1024">
-      <c r="A4" s="46"/>
-      <c r="B4" s="47" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="58" t="s">
+      <c r="D4" s="10"/>
+      <c r="E4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="59" t="s">
+      <c r="F4" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="60" t="s">
+      <c r="G4" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="61" t="s">
+      <c r="H4" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="62"/>
+      <c r="I4" s="30"/>
       <c r="J4"/>
       <c r="K4"/>
       <c r="L4"/>
@@ -6600,27 +6692,27 @@
       <c r="AMJ4"/>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:1024">
-      <c r="A5" s="46"/>
-      <c r="B5" s="47" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="58" t="s">
+      <c r="D5" s="10"/>
+      <c r="E5" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="59" t="s">
+      <c r="F5" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="60" t="s">
+      <c r="G5" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="61" t="s">
+      <c r="H5" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="62"/>
+      <c r="I5" s="30"/>
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5"/>
@@ -7638,27 +7730,27 @@
       <c r="AMJ5"/>
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:1024">
-      <c r="A6" s="46"/>
-      <c r="B6" s="47" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="58" t="s">
+      <c r="D6" s="10"/>
+      <c r="E6" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="59" t="s">
+      <c r="F6" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="60" t="s">
+      <c r="G6" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="61" t="s">
+      <c r="H6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="62"/>
+      <c r="I6" s="30"/>
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6"/>
@@ -8676,31 +8768,31 @@
       <c r="AMJ6"/>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:1024">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="58" t="s">
+      <c r="E7" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="59" t="s">
+      <c r="F7" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="60" t="s">
+      <c r="G7" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="61" t="s">
+      <c r="H7" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="62"/>
+      <c r="I7" s="30"/>
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
@@ -9718,27 +9810,27 @@
       <c r="AMJ7"/>
     </row>
     <row r="8" ht="15" customHeight="1" spans="1:1024">
-      <c r="A8" s="46"/>
-      <c r="B8" s="49" t="s">
+      <c r="A8" s="7"/>
+      <c r="B8" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="58" t="s">
+      <c r="D8" s="10"/>
+      <c r="E8" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="59" t="s">
+      <c r="F8" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="60" t="s">
+      <c r="G8" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="61" t="s">
+      <c r="H8" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="62"/>
+      <c r="I8" s="30"/>
       <c r="J8"/>
       <c r="K8"/>
       <c r="L8"/>
@@ -10756,27 +10848,27 @@
       <c r="AMJ8"/>
     </row>
     <row r="9" ht="15" customHeight="1" spans="1:1024">
-      <c r="A9" s="46"/>
-      <c r="B9" s="49" t="s">
+      <c r="A9" s="7"/>
+      <c r="B9" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="58" t="s">
+      <c r="D9" s="10"/>
+      <c r="E9" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="59" t="s">
+      <c r="F9" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="60" t="s">
+      <c r="G9" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="61" t="s">
+      <c r="H9" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="62"/>
+      <c r="I9" s="30"/>
       <c r="J9"/>
       <c r="K9"/>
       <c r="L9"/>
@@ -11794,27 +11886,27 @@
       <c r="AMJ9"/>
     </row>
     <row r="10" ht="15" customHeight="1" spans="1:1024">
-      <c r="A10" s="46"/>
-      <c r="B10" s="49" t="s">
+      <c r="A10" s="7"/>
+      <c r="B10" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="58" t="s">
+      <c r="D10" s="10"/>
+      <c r="E10" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="59" t="s">
+      <c r="F10" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="60" t="s">
+      <c r="G10" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="61" t="s">
+      <c r="H10" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="62"/>
+      <c r="I10" s="30"/>
       <c r="J10"/>
       <c r="K10"/>
       <c r="L10"/>
@@ -12832,27 +12924,27 @@
       <c r="AMJ10"/>
     </row>
     <row r="11" ht="15" customHeight="1" spans="1:1024">
-      <c r="A11" s="46"/>
-      <c r="B11" s="49" t="s">
+      <c r="A11" s="7"/>
+      <c r="B11" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="48" t="s">
+      <c r="C11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="58" t="s">
+      <c r="D11" s="10"/>
+      <c r="E11" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="59" t="s">
+      <c r="F11" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="60" t="s">
+      <c r="G11" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="61" t="s">
+      <c r="H11" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="62"/>
+      <c r="I11" s="30"/>
       <c r="J11"/>
       <c r="K11"/>
       <c r="L11"/>
@@ -13870,27 +13962,27 @@
       <c r="AMJ11"/>
     </row>
     <row r="12" ht="15" customHeight="1" spans="1:1024">
-      <c r="A12" s="46"/>
-      <c r="B12" s="49" t="s">
+      <c r="A12" s="7"/>
+      <c r="B12" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="58" t="s">
+      <c r="D12" s="10"/>
+      <c r="E12" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="59" t="s">
+      <c r="F12" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="60" t="s">
+      <c r="G12" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="61" t="s">
+      <c r="H12" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="62"/>
+      <c r="I12" s="30"/>
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12"/>
@@ -14908,27 +15000,27 @@
       <c r="AMJ12"/>
     </row>
     <row r="13" ht="15" customHeight="1" spans="1:1024">
-      <c r="A13" s="46"/>
-      <c r="B13" s="49" t="s">
+      <c r="A13" s="7"/>
+      <c r="B13" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="48" t="s">
+      <c r="C13" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="58" t="s">
+      <c r="D13" s="10"/>
+      <c r="E13" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="59" t="s">
+      <c r="F13" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="60" t="s">
+      <c r="G13" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="61" t="s">
+      <c r="H13" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="62"/>
+      <c r="I13" s="30"/>
       <c r="J13"/>
       <c r="K13"/>
       <c r="L13"/>
@@ -15946,27 +16038,27 @@
       <c r="AMJ13"/>
     </row>
     <row r="14" ht="15" customHeight="1" spans="1:1024">
-      <c r="A14" s="46"/>
-      <c r="B14" s="49" t="s">
+      <c r="A14" s="7"/>
+      <c r="B14" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="48" t="s">
+      <c r="C14" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="58" t="s">
+      <c r="D14" s="10"/>
+      <c r="E14" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="59" t="s">
+      <c r="F14" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="60" t="s">
+      <c r="G14" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="61" t="s">
+      <c r="H14" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="I14" s="62"/>
+      <c r="I14" s="30"/>
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14"/>
@@ -16984,27 +17076,27 @@
       <c r="AMJ14"/>
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:1024">
-      <c r="A15" s="46"/>
-      <c r="B15" s="49" t="s">
+      <c r="A15" s="7"/>
+      <c r="B15" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="48" t="s">
+      <c r="C15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="58" t="s">
+      <c r="D15" s="10"/>
+      <c r="E15" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="59" t="s">
+      <c r="F15" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="60" t="s">
+      <c r="G15" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="61" t="s">
+      <c r="H15" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="I15" s="62"/>
+      <c r="I15" s="30"/>
       <c r="J15"/>
       <c r="K15"/>
       <c r="L15"/>
@@ -18022,27 +18114,27 @@
       <c r="AMJ15"/>
     </row>
     <row r="16" ht="15" customHeight="1" spans="1:1024">
-      <c r="A16" s="46"/>
-      <c r="B16" s="49" t="s">
+      <c r="A16" s="7"/>
+      <c r="B16" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="48" t="s">
+      <c r="C16" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="58" t="s">
+      <c r="D16" s="10"/>
+      <c r="E16" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="59" t="s">
+      <c r="F16" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="60" t="s">
+      <c r="G16" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="61" t="s">
+      <c r="H16" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="62"/>
+      <c r="I16" s="30"/>
       <c r="J16"/>
       <c r="K16"/>
       <c r="L16"/>
@@ -19060,27 +19152,27 @@
       <c r="AMJ16"/>
     </row>
     <row r="17" ht="15" customHeight="1" spans="1:1024">
-      <c r="A17" s="46"/>
-      <c r="B17" s="49" t="s">
+      <c r="A17" s="7"/>
+      <c r="B17" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="48" t="s">
+      <c r="C17" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="58" t="s">
+      <c r="D17" s="10"/>
+      <c r="E17" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="59" t="s">
+      <c r="F17" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="60" t="s">
+      <c r="G17" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="61" t="s">
+      <c r="H17" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="I17" s="62"/>
+      <c r="I17" s="30"/>
       <c r="J17"/>
       <c r="K17"/>
       <c r="L17"/>
@@ -20098,27 +20190,27 @@
       <c r="AMJ17"/>
     </row>
     <row r="18" ht="15" customHeight="1" spans="1:1024">
-      <c r="A18" s="46"/>
-      <c r="B18" s="49" t="s">
+      <c r="A18" s="7"/>
+      <c r="B18" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="48" t="s">
+      <c r="C18" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="58" t="s">
+      <c r="D18" s="10"/>
+      <c r="E18" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="59" t="s">
+      <c r="F18" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="60" t="s">
+      <c r="G18" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="61" t="s">
+      <c r="H18" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="I18" s="62"/>
+      <c r="I18" s="30"/>
       <c r="J18"/>
       <c r="K18"/>
       <c r="L18"/>
@@ -21136,27 +21228,27 @@
       <c r="AMJ18"/>
     </row>
     <row r="19" ht="15" customHeight="1" spans="1:1024">
-      <c r="A19" s="46"/>
-      <c r="B19" s="49" t="s">
+      <c r="A19" s="7"/>
+      <c r="B19" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="48" t="s">
+      <c r="C19" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="58" t="s">
+      <c r="D19" s="10"/>
+      <c r="E19" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="59" t="s">
+      <c r="F19" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="60" t="s">
+      <c r="G19" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="61" t="s">
+      <c r="H19" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="I19" s="62"/>
+      <c r="I19" s="30"/>
       <c r="J19"/>
       <c r="K19"/>
       <c r="L19"/>
@@ -22174,27 +22266,27 @@
       <c r="AMJ19"/>
     </row>
     <row r="20" ht="15" customHeight="1" spans="1:1024">
-      <c r="A20" s="46"/>
-      <c r="B20" s="49" t="s">
+      <c r="A20" s="7"/>
+      <c r="B20" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="48" t="s">
+      <c r="C20" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="58" t="s">
+      <c r="D20" s="10"/>
+      <c r="E20" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="59" t="s">
+      <c r="F20" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="60" t="s">
+      <c r="G20" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="61" t="s">
+      <c r="H20" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="I20" s="62"/>
+      <c r="I20" s="30"/>
       <c r="J20"/>
       <c r="K20"/>
       <c r="L20"/>
@@ -23212,27 +23304,27 @@
       <c r="AMJ20"/>
     </row>
     <row r="21" ht="15" customHeight="1" spans="1:1024">
-      <c r="A21" s="46"/>
-      <c r="B21" s="49" t="s">
+      <c r="A21" s="7"/>
+      <c r="B21" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="48" t="s">
+      <c r="C21" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="58" t="s">
+      <c r="D21" s="10"/>
+      <c r="E21" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="59" t="s">
+      <c r="F21" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="60" t="s">
+      <c r="G21" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H21" s="61" t="s">
+      <c r="H21" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="I21" s="62"/>
+      <c r="I21" s="30"/>
       <c r="J21"/>
       <c r="K21"/>
       <c r="L21"/>
@@ -24250,27 +24342,27 @@
       <c r="AMJ21"/>
     </row>
     <row r="22" ht="15" customHeight="1" spans="1:1024">
-      <c r="A22" s="46"/>
-      <c r="B22" s="49" t="s">
+      <c r="A22" s="7"/>
+      <c r="B22" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="48" t="s">
+      <c r="C22" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="58" t="s">
+      <c r="D22" s="10"/>
+      <c r="E22" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="59" t="s">
+      <c r="F22" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="60" t="s">
+      <c r="G22" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H22" s="61" t="s">
+      <c r="H22" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="I22" s="62"/>
+      <c r="I22" s="30"/>
       <c r="J22"/>
       <c r="K22"/>
       <c r="L22"/>
@@ -25288,27 +25380,27 @@
       <c r="AMJ22"/>
     </row>
     <row r="23" ht="15" customHeight="1" spans="1:1024">
-      <c r="A23" s="46"/>
-      <c r="B23" s="49" t="s">
+      <c r="A23" s="7"/>
+      <c r="B23" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="48" t="s">
+      <c r="C23" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="58" t="s">
+      <c r="D23" s="10"/>
+      <c r="E23" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="59" t="s">
+      <c r="F23" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G23" s="60" t="s">
+      <c r="G23" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H23" s="61" t="s">
+      <c r="H23" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="I23" s="62"/>
+      <c r="I23" s="30"/>
       <c r="J23"/>
       <c r="K23"/>
       <c r="L23"/>
@@ -26326,27 +26418,27 @@
       <c r="AMJ23"/>
     </row>
     <row r="24" ht="15" customHeight="1" spans="1:1024">
-      <c r="A24" s="46"/>
-      <c r="B24" s="49" t="s">
+      <c r="A24" s="7"/>
+      <c r="B24" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="48" t="s">
+      <c r="C24" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="58" t="s">
+      <c r="D24" s="10"/>
+      <c r="E24" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="59" t="s">
+      <c r="F24" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G24" s="60" t="s">
+      <c r="G24" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H24" s="61" t="s">
+      <c r="H24" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="I24" s="62"/>
+      <c r="I24" s="30"/>
       <c r="J24"/>
       <c r="K24"/>
       <c r="L24"/>
@@ -27364,27 +27456,27 @@
       <c r="AMJ24"/>
     </row>
     <row r="25" ht="15" customHeight="1" spans="1:1024">
-      <c r="A25" s="46"/>
-      <c r="B25" s="49" t="s">
+      <c r="A25" s="7"/>
+      <c r="B25" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="48" t="s">
+      <c r="C25" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="58" t="s">
+      <c r="D25" s="10"/>
+      <c r="E25" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="59" t="s">
+      <c r="F25" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="60" t="s">
+      <c r="G25" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H25" s="61" t="s">
+      <c r="H25" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="I25" s="62"/>
+      <c r="I25" s="30"/>
       <c r="J25"/>
       <c r="K25"/>
       <c r="L25"/>
@@ -28402,676 +28494,3099 @@
       <c r="AMJ25"/>
     </row>
     <row r="26" ht="17.15" customHeight="1" spans="1:9">
-      <c r="A26" s="50" t="s">
+      <c r="A26" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="51" t="s">
+      <c r="B26" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="48" t="s">
+      <c r="C26" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="52" t="s">
+      <c r="D26" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E26" s="58" t="s">
+      <c r="E26" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="59" t="s">
+      <c r="F26" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G26" s="60" t="s">
+      <c r="G26" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="61" t="s">
+      <c r="H26" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="I26" s="63"/>
+      <c r="I26" s="31"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="50"/>
-      <c r="B27" s="51" t="s">
+      <c r="A27" s="12"/>
+      <c r="B27" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="48" t="s">
+      <c r="C27" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="52"/>
-      <c r="E27" s="58" t="s">
+      <c r="D27" s="14"/>
+      <c r="E27" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="59" t="s">
+      <c r="F27" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="60" t="s">
+      <c r="G27" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="61" t="s">
+      <c r="H27" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="I27" s="63"/>
+      <c r="I27" s="31"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="50"/>
-      <c r="B28" s="51" t="s">
+      <c r="A28" s="12"/>
+      <c r="B28" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="48" t="s">
+      <c r="C28" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="52"/>
-      <c r="E28" s="58" t="s">
+      <c r="D28" s="14"/>
+      <c r="E28" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="59" t="s">
+      <c r="F28" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G28" s="60" t="s">
+      <c r="G28" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H28" s="61" t="s">
+      <c r="H28" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="I28" s="63"/>
+      <c r="I28" s="31"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="50"/>
-      <c r="B29" s="51" t="s">
+      <c r="A29" s="12"/>
+      <c r="B29" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="48" t="s">
+      <c r="C29" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="52"/>
-      <c r="E29" s="58" t="s">
+      <c r="D29" s="14"/>
+      <c r="E29" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F29" s="59" t="s">
+      <c r="F29" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G29" s="60" t="s">
+      <c r="G29" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="H29" s="61" t="s">
+      <c r="H29" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="I29" s="63"/>
+      <c r="I29" s="31"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="50"/>
-      <c r="B30" s="51" t="s">
+      <c r="A30" s="12"/>
+      <c r="B30" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="48" t="s">
+      <c r="C30" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="52"/>
-      <c r="E30" s="58" t="s">
+      <c r="D30" s="14"/>
+      <c r="E30" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F30" s="59" t="s">
+      <c r="F30" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G30" s="60" t="s">
+      <c r="G30" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H30" s="61" t="s">
+      <c r="H30" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="I30" s="63"/>
+      <c r="I30" s="31"/>
     </row>
     <row r="31" customFormat="1" spans="1:9">
-      <c r="A31" s="50" t="s">
+      <c r="A31" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B31" s="51" t="s">
+      <c r="B31" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="48" t="s">
+      <c r="C31" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="53" t="s">
+      <c r="D31" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="E31" s="58" t="s">
+      <c r="E31" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="F31" s="59" t="s">
+      <c r="F31" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="G31" s="60" t="s">
+      <c r="G31" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H31" s="58" t="s">
+      <c r="H31" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="I31" s="63"/>
+      <c r="I31" s="31"/>
     </row>
     <row r="32" customFormat="1" spans="1:9">
-      <c r="A32" s="54"/>
-      <c r="B32" s="51" t="s">
+      <c r="A32" s="16"/>
+      <c r="B32" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="48" t="s">
+      <c r="C32" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="53"/>
-      <c r="E32" s="58" t="s">
+      <c r="D32" s="15"/>
+      <c r="E32" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="F32" s="59" t="s">
+      <c r="F32" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="G32" s="60" t="s">
+      <c r="G32" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H32" s="58" t="s">
+      <c r="H32" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="I32" s="63"/>
+      <c r="I32" s="31"/>
     </row>
     <row r="33" customFormat="1" spans="1:9">
-      <c r="A33" s="54"/>
-      <c r="B33" s="51" t="s">
+      <c r="A33" s="16"/>
+      <c r="B33" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="48" t="s">
+      <c r="C33" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="53"/>
-      <c r="E33" s="58" t="s">
+      <c r="D33" s="15"/>
+      <c r="E33" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="F33" s="59" t="s">
+      <c r="F33" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="G33" s="60" t="s">
+      <c r="G33" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H33" s="58" t="s">
+      <c r="H33" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="I33" s="63"/>
+      <c r="I33" s="31"/>
     </row>
     <row r="34" customFormat="1" spans="1:9">
-      <c r="A34" s="54"/>
-      <c r="B34" s="51" t="s">
+      <c r="A34" s="16"/>
+      <c r="B34" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C34" s="48" t="s">
+      <c r="C34" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="53"/>
-      <c r="E34" s="58" t="s">
+      <c r="D34" s="15"/>
+      <c r="E34" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="F34" s="59" t="s">
+      <c r="F34" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="G34" s="60" t="s">
+      <c r="G34" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H34" s="58" t="s">
+      <c r="H34" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="I34" s="63"/>
+      <c r="I34" s="31"/>
     </row>
     <row r="35" customFormat="1" spans="1:9">
-      <c r="A35" s="54"/>
-      <c r="B35" s="51" t="s">
+      <c r="A35" s="16"/>
+      <c r="B35" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C35" s="48" t="s">
+      <c r="C35" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D35" s="53"/>
-      <c r="E35" s="58" t="s">
+      <c r="D35" s="15"/>
+      <c r="E35" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="F35" s="59" t="s">
+      <c r="F35" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="G35" s="60" t="s">
+      <c r="G35" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H35" s="58" t="s">
+      <c r="H35" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="I35" s="63"/>
+      <c r="I35" s="31"/>
     </row>
     <row r="36" customFormat="1" spans="1:9">
-      <c r="A36" s="54"/>
-      <c r="B36" s="51" t="s">
+      <c r="A36" s="16"/>
+      <c r="B36" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C36" s="48" t="s">
+      <c r="C36" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="53"/>
-      <c r="E36" s="58" t="s">
+      <c r="D36" s="15"/>
+      <c r="E36" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="F36" s="59" t="s">
+      <c r="F36" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="G36" s="60" t="s">
+      <c r="G36" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H36" s="58" t="s">
+      <c r="H36" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="I36" s="63"/>
+      <c r="I36" s="31"/>
     </row>
     <row r="37" customFormat="1" spans="1:9">
-      <c r="A37" s="54"/>
-      <c r="B37" s="51" t="s">
+      <c r="A37" s="16"/>
+      <c r="B37" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C37" s="48" t="s">
+      <c r="C37" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D37" s="53"/>
-      <c r="E37" s="58" t="s">
+      <c r="D37" s="15"/>
+      <c r="E37" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="F37" s="59" t="s">
+      <c r="F37" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="G37" s="60" t="s">
+      <c r="G37" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H37" s="58" t="s">
+      <c r="H37" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="I37" s="63"/>
+      <c r="I37" s="31"/>
     </row>
     <row r="38" customFormat="1" spans="1:9">
-      <c r="A38" s="54"/>
-      <c r="B38" s="51" t="s">
+      <c r="A38" s="16"/>
+      <c r="B38" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C38" s="48" t="s">
+      <c r="C38" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D38" s="53"/>
-      <c r="E38" s="58" t="s">
+      <c r="D38" s="15"/>
+      <c r="E38" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="F38" s="59" t="s">
+      <c r="F38" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="G38" s="60" t="s">
+      <c r="G38" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H38" s="58" t="s">
+      <c r="H38" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="I38" s="63"/>
+      <c r="I38" s="31"/>
     </row>
     <row r="39" customFormat="1" spans="1:9">
-      <c r="A39" s="54"/>
-      <c r="B39" s="51" t="s">
+      <c r="A39" s="16"/>
+      <c r="B39" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C39" s="48" t="s">
+      <c r="C39" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D39" s="53"/>
-      <c r="E39" s="58" t="s">
+      <c r="D39" s="15"/>
+      <c r="E39" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="F39" s="59" t="s">
+      <c r="F39" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="G39" s="60" t="s">
+      <c r="G39" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H39" s="58" t="s">
+      <c r="H39" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="I39" s="63"/>
+      <c r="I39" s="31"/>
     </row>
     <row r="40" customFormat="1" spans="1:9">
-      <c r="A40" s="54"/>
-      <c r="B40" s="51" t="s">
+      <c r="A40" s="16"/>
+      <c r="B40" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C40" s="48" t="s">
+      <c r="C40" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D40" s="53"/>
-      <c r="E40" s="58" t="s">
+      <c r="D40" s="15"/>
+      <c r="E40" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="F40" s="59" t="s">
+      <c r="F40" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="G40" s="60" t="s">
+      <c r="G40" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H40" s="58" t="s">
+      <c r="H40" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="I40" s="63"/>
+      <c r="I40" s="31"/>
     </row>
     <row r="41" customFormat="1" spans="1:9">
-      <c r="A41" s="55"/>
-      <c r="B41" s="51" t="s">
+      <c r="A41" s="17"/>
+      <c r="B41" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C41" s="48" t="s">
+      <c r="C41" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D41" s="53"/>
-      <c r="E41" s="58" t="s">
+      <c r="D41" s="15"/>
+      <c r="E41" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="F41" s="59" t="s">
+      <c r="F41" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="G41" s="60" t="s">
+      <c r="G41" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H41" s="58" t="s">
+      <c r="H41" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="I41" s="63"/>
+      <c r="I41" s="31"/>
     </row>
     <row r="42" customFormat="1" spans="1:9">
-      <c r="A42" s="54" t="s">
+      <c r="A42" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="B42" s="51" t="s">
+      <c r="B42" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C42" s="48" t="s">
+      <c r="C42" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D42" s="53" t="s">
+      <c r="D42" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="E42" s="58" t="s">
+      <c r="E42" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="F42" s="59" t="s">
+      <c r="F42" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G42" s="60" t="s">
+      <c r="G42" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H42" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="I42" s="63"/>
+      <c r="H42" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="I42" s="31"/>
     </row>
     <row r="43" customFormat="1" spans="1:9">
-      <c r="A43" s="54"/>
-      <c r="B43" s="51" t="s">
+      <c r="A43" s="16"/>
+      <c r="B43" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C43" s="48" t="s">
+      <c r="C43" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D43" s="53"/>
-      <c r="E43" s="58" t="s">
+      <c r="D43" s="15"/>
+      <c r="E43" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="F43" s="59" t="s">
+      <c r="F43" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G43" s="60" t="s">
+      <c r="G43" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H43" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="I43" s="63"/>
+      <c r="H43" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="I43" s="31"/>
     </row>
     <row r="44" customFormat="1" spans="1:9">
-      <c r="A44" s="54"/>
-      <c r="B44" s="51" t="s">
+      <c r="A44" s="16"/>
+      <c r="B44" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C44" s="48" t="s">
+      <c r="C44" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D44" s="53"/>
-      <c r="E44" s="58" t="s">
+      <c r="D44" s="15"/>
+      <c r="E44" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="F44" s="59" t="s">
+      <c r="F44" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G44" s="60" t="s">
+      <c r="G44" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H44" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="I44" s="63"/>
+      <c r="H44" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="I44" s="31"/>
     </row>
     <row r="45" customFormat="1" ht="30" spans="1:9">
-      <c r="A45" s="54"/>
-      <c r="B45" s="56" t="s">
+      <c r="A45" s="16"/>
+      <c r="B45" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="C45" s="48" t="s">
+      <c r="C45" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D45" s="53"/>
-      <c r="E45" s="58" t="s">
+      <c r="D45" s="15"/>
+      <c r="E45" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="F45" s="59" t="s">
+      <c r="F45" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G45" s="60" t="s">
+      <c r="G45" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H45" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="I45" s="63"/>
+      <c r="H45" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="I45" s="31"/>
     </row>
     <row r="46" customFormat="1" spans="1:9">
-      <c r="A46" s="54"/>
-      <c r="B46" s="56" t="s">
+      <c r="A46" s="16"/>
+      <c r="B46" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C46" s="48" t="s">
+      <c r="C46" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="53"/>
-      <c r="E46" s="58" t="s">
+      <c r="D46" s="15"/>
+      <c r="E46" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="F46" s="59" t="s">
+      <c r="F46" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G46" s="60" t="s">
+      <c r="G46" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H46" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="I46" s="63"/>
+      <c r="H46" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="I46" s="31"/>
     </row>
     <row r="47" customFormat="1" spans="1:9">
-      <c r="A47" s="54"/>
-      <c r="B47" s="56" t="s">
+      <c r="A47" s="16"/>
+      <c r="B47" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C47" s="48" t="s">
+      <c r="C47" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D47" s="53"/>
-      <c r="E47" s="58" t="s">
+      <c r="D47" s="15"/>
+      <c r="E47" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="F47" s="59" t="s">
+      <c r="F47" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G47" s="60" t="s">
+      <c r="G47" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H47" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="I47" s="63"/>
+      <c r="H47" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="I47" s="31"/>
     </row>
     <row r="48" customFormat="1" spans="1:9">
-      <c r="A48" s="54"/>
-      <c r="B48" s="56" t="s">
+      <c r="A48" s="16"/>
+      <c r="B48" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C48" s="48" t="s">
+      <c r="C48" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D48" s="53"/>
-      <c r="E48" s="58" t="s">
+      <c r="D48" s="15"/>
+      <c r="E48" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="F48" s="59" t="s">
+      <c r="F48" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G48" s="60" t="s">
+      <c r="G48" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H48" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="I48" s="63"/>
+      <c r="H48" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="I48" s="31"/>
     </row>
     <row r="49" customFormat="1" spans="1:9">
-      <c r="A49" s="54"/>
-      <c r="B49" s="51" t="s">
+      <c r="A49" s="16"/>
+      <c r="B49" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C49" s="48" t="s">
+      <c r="C49" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D49" s="53"/>
-      <c r="E49" s="58" t="s">
+      <c r="D49" s="15"/>
+      <c r="E49" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="F49" s="59" t="s">
+      <c r="F49" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G49" s="60" t="s">
+      <c r="G49" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H49" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="I49" s="63"/>
+      <c r="H49" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="I49" s="31"/>
     </row>
     <row r="50" customFormat="1" spans="1:9">
-      <c r="A50" s="54"/>
-      <c r="B50" s="51" t="s">
+      <c r="A50" s="16"/>
+      <c r="B50" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C50" s="48" t="s">
+      <c r="C50" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D50" s="53"/>
-      <c r="E50" s="58" t="s">
+      <c r="D50" s="15"/>
+      <c r="E50" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="F50" s="59" t="s">
+      <c r="F50" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G50" s="60" t="s">
+      <c r="G50" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H50" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="I50" s="63"/>
+      <c r="H50" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="I50" s="31"/>
     </row>
     <row r="51" customFormat="1" spans="1:9">
-      <c r="A51" s="57"/>
-      <c r="B51" s="51" t="s">
+      <c r="A51" s="16"/>
+      <c r="B51" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C51" s="48" t="s">
+      <c r="C51" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D51" s="53"/>
-      <c r="E51" s="58" t="s">
+      <c r="D51" s="15"/>
+      <c r="E51" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="F51" s="59" t="s">
+      <c r="F51" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G51" s="60" t="s">
+      <c r="G51" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H51" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="I51" s="63"/>
+      <c r="H51" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="I51" s="31"/>
     </row>
     <row r="52" customFormat="1" spans="1:9">
-      <c r="A52" s="57"/>
-      <c r="B52" s="51" t="s">
+      <c r="A52" s="16"/>
+      <c r="B52" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C52" s="48" t="s">
+      <c r="C52" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D52" s="53"/>
-      <c r="E52" s="58" t="s">
+      <c r="D52" s="15"/>
+      <c r="E52" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="F52" s="59" t="s">
+      <c r="F52" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G52" s="60" t="s">
+      <c r="G52" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H52" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="I52" s="63"/>
+      <c r="H52" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="I52" s="31"/>
     </row>
-    <row r="53" s="44" customFormat="1" ht="15" spans="1:9">
-      <c r="A53" s="55"/>
-      <c r="B53" s="51" t="s">
+    <row r="53" s="2" customFormat="1" ht="15" spans="1:9">
+      <c r="A53" s="17"/>
+      <c r="B53" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C53" s="48" t="s">
+      <c r="C53" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D53" s="53"/>
-      <c r="E53" s="58" t="s">
+      <c r="D53" s="15"/>
+      <c r="E53" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="F53" s="59" t="s">
+      <c r="F53" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G53" s="60" t="s">
+      <c r="G53" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H53" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="I53" s="63"/>
+      <c r="H53" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="I53" s="31"/>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C54" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E54" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F54" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G54" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H54" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="I54" s="32"/>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="19"/>
+      <c r="B55" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C55" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" s="10"/>
+      <c r="E55" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F55" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G55" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H55" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="I55" s="32"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="19"/>
+      <c r="B56" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C56" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" s="10"/>
+      <c r="E56" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F56" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G56" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H56" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="I56" s="32"/>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="19"/>
+      <c r="B57" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C57" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" s="10"/>
+      <c r="E57" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F57" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G57" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H57" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="I57" s="32"/>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="19"/>
+      <c r="B58" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C58" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" s="10"/>
+      <c r="E58" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F58" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G58" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H58" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="I58" s="32"/>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="19"/>
+      <c r="B59" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C59" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" s="10"/>
+      <c r="E59" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F59" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G59" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H59" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="I59" s="32"/>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="19"/>
+      <c r="B60" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C60" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" s="10"/>
+      <c r="E60" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F60" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G60" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H60" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="I60" s="32"/>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="19"/>
+      <c r="B61" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C61" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61" s="10"/>
+      <c r="E61" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F61" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G61" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H61" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="I61" s="32"/>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="19"/>
+      <c r="B62" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C62" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62" s="10"/>
+      <c r="E62" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F62" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G62" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H62" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="I62" s="32"/>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="19"/>
+      <c r="B63" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C63" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" s="10"/>
+      <c r="E63" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F63" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G63" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H63" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="I63" s="32"/>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="19"/>
+      <c r="B64" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C64" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64" s="10"/>
+      <c r="E64" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F64" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G64" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H64" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="I64" s="32"/>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="19"/>
+      <c r="B65" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C65" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" s="10"/>
+      <c r="E65" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F65" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G65" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H65" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="I65" s="32"/>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="19"/>
+      <c r="B66" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C66" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" s="10"/>
+      <c r="E66" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F66" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G66" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H66" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="I66" s="32"/>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="19"/>
+      <c r="B67" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C67" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67" s="10"/>
+      <c r="E67" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F67" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G67" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H67" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="I67" s="32"/>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="19"/>
+      <c r="B68" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C68" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68" s="10"/>
+      <c r="E68" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F68" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G68" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H68" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="I68" s="32"/>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="B69" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="C69" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="E69" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="F69" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G69" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H69" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="I69" s="54"/>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="33"/>
+      <c r="B70" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="C70" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" s="36"/>
+      <c r="E70" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="F70" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G70" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H70" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="I70" s="54"/>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="33"/>
+      <c r="B71" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="C71" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D71" s="36"/>
+      <c r="E71" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="F71" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G71" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H71" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="I71" s="54"/>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="33"/>
+      <c r="B72" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="C72" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D72" s="36"/>
+      <c r="E72" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="F72" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G72" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H72" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="I72" s="54"/>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="33"/>
+      <c r="B73" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="C73" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D73" s="36"/>
+      <c r="E73" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="F73" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G73" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H73" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="I73" s="54"/>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="33"/>
+      <c r="B74" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="C74" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D74" s="36"/>
+      <c r="E74" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="F74" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G74" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H74" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="I74" s="54"/>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="33"/>
+      <c r="B75" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="C75" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75" s="36"/>
+      <c r="E75" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="F75" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G75" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H75" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="I75" s="54"/>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="33"/>
+      <c r="B76" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="C76" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D76" s="36"/>
+      <c r="E76" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="F76" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G76" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H76" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="I76" s="54"/>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="33"/>
+      <c r="B77" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="C77" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77" s="36"/>
+      <c r="E77" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="F77" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G77" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H77" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="I77" s="54"/>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="33"/>
+      <c r="B78" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="C78" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D78" s="36"/>
+      <c r="E78" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="F78" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G78" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H78" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="I78" s="54"/>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="33"/>
+      <c r="B79" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="C79" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D79" s="36"/>
+      <c r="E79" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="F79" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="G79" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="H79" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="I79" s="55"/>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="B80" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="C80" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D80" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="E80" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F80" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G80" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H80" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="I80" s="56"/>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="40"/>
+      <c r="B81" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="C81" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D81" s="41"/>
+      <c r="E81" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F81" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G81" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H81" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="I81" s="56"/>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="40"/>
+      <c r="B82" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="C82" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D82" s="41"/>
+      <c r="E82" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F82" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G82" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H82" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="I82" s="56"/>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="40"/>
+      <c r="B83" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="C83" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D83" s="41"/>
+      <c r="E83" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F83" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G83" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H83" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="I83" s="56"/>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="40"/>
+      <c r="B84" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="C84" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D84" s="41"/>
+      <c r="E84" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F84" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G84" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H84" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="I84" s="56"/>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="40"/>
+      <c r="B85" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="C85" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D85" s="41"/>
+      <c r="E85" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F85" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G85" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H85" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="I85" s="56"/>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="40"/>
+      <c r="B86" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="C86" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D86" s="41"/>
+      <c r="E86" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F86" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G86" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H86" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="I86" s="56"/>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="40"/>
+      <c r="B87" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="C87" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D87" s="41"/>
+      <c r="E87" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F87" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G87" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H87" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="I87" s="56"/>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="40"/>
+      <c r="B88" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="C88" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D88" s="41"/>
+      <c r="E88" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F88" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G88" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H88" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="I88" s="56"/>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="40"/>
+      <c r="B89" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="C89" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D89" s="41"/>
+      <c r="E89" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F89" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G89" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H89" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="I89" s="56"/>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="40"/>
+      <c r="B90" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="C90" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D90" s="41"/>
+      <c r="E90" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F90" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G90" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H90" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="I90" s="56"/>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="40"/>
+      <c r="B91" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="C91" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D91" s="41"/>
+      <c r="E91" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F91" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G91" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H91" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="I91" s="56"/>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="40"/>
+      <c r="B92" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="C92" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D92" s="41"/>
+      <c r="E92" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F92" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G92" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H92" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="I92" s="56"/>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="40"/>
+      <c r="B93" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="C93" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D93" s="41"/>
+      <c r="E93" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F93" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G93" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H93" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="I93" s="56"/>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="40"/>
+      <c r="B94" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="C94" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D94" s="41"/>
+      <c r="E94" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F94" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G94" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H94" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="I94" s="56"/>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="40"/>
+      <c r="B95" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="C95" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D95" s="41"/>
+      <c r="E95" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F95" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G95" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H95" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="I95" s="56"/>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" s="40"/>
+      <c r="B96" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="C96" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D96" s="41"/>
+      <c r="E96" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F96" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G96" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H96" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="I96" s="56"/>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="40"/>
+      <c r="B97" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="C97" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D97" s="41"/>
+      <c r="E97" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F97" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G97" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H97" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="I97" s="56"/>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" s="40"/>
+      <c r="B98" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="C98" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D98" s="41"/>
+      <c r="E98" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F98" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G98" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H98" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="I98" s="56"/>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" s="40"/>
+      <c r="B99" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="C99" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D99" s="41"/>
+      <c r="E99" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F99" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G99" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H99" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="I99" s="56"/>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="40"/>
+      <c r="B100" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="C100" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D100" s="41"/>
+      <c r="E100" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F100" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G100" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H100" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="I100" s="56"/>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" s="40"/>
+      <c r="B101" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="C101" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D101" s="41"/>
+      <c r="E101" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F101" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G101" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H101" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="I101" s="56"/>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="40"/>
+      <c r="B102" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="C102" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D102" s="41"/>
+      <c r="E102" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F102" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G102" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H102" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="I102" s="56"/>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" s="40"/>
+      <c r="B103" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="C103" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D103" s="41"/>
+      <c r="E103" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F103" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G103" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H103" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="I103" s="56"/>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="40"/>
+      <c r="B104" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="C104" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D104" s="41"/>
+      <c r="E104" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F104" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G104" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H104" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="I104" s="56"/>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="40"/>
+      <c r="B105" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="C105" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D105" s="41"/>
+      <c r="E105" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F105" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G105" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H105" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="I105" s="56"/>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" s="40"/>
+      <c r="B106" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="C106" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D106" s="41"/>
+      <c r="E106" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F106" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G106" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H106" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="I106" s="56"/>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" s="40"/>
+      <c r="B107" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="C107" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="D107" s="41"/>
+      <c r="E107" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="F107" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="G107" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="H107" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="I107" s="57"/>
+    </row>
+    <row r="108" spans="1:1034">
+      <c r="A108" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="B108" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="C108" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D108" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="E108" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F108" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G108" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H108" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="I108" s="56"/>
+      <c r="J108" s="3"/>
+      <c r="M108" s="3"/>
+      <c r="N108" s="3"/>
+      <c r="Q108" s="5"/>
+      <c r="AML108" s="4"/>
+      <c r="AMM108" s="4"/>
+      <c r="AMN108" s="4"/>
+      <c r="AMO108" s="4"/>
+      <c r="AMP108" s="4"/>
+      <c r="AMQ108" s="4"/>
+      <c r="AMR108" s="4"/>
+      <c r="AMS108" s="4"/>
+      <c r="AMT108" s="4"/>
+    </row>
+    <row r="109" spans="1:1034">
+      <c r="A109" s="40"/>
+      <c r="B109" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="C109" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D109" s="45"/>
+      <c r="E109" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F109" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G109" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H109" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="I109" s="56"/>
+      <c r="J109" s="3"/>
+      <c r="M109" s="3"/>
+      <c r="N109" s="3"/>
+      <c r="Q109" s="5"/>
+      <c r="AML109" s="4"/>
+      <c r="AMM109" s="4"/>
+      <c r="AMN109" s="4"/>
+      <c r="AMO109" s="4"/>
+      <c r="AMP109" s="4"/>
+      <c r="AMQ109" s="4"/>
+      <c r="AMR109" s="4"/>
+      <c r="AMS109" s="4"/>
+      <c r="AMT109" s="4"/>
+    </row>
+    <row r="110" spans="1:1034">
+      <c r="A110" s="40"/>
+      <c r="B110" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="C110" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D110" s="45"/>
+      <c r="E110" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F110" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G110" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H110" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="I110" s="56"/>
+      <c r="J110" s="3"/>
+      <c r="M110" s="3"/>
+      <c r="N110" s="3"/>
+      <c r="Q110" s="5"/>
+      <c r="AML110" s="4"/>
+      <c r="AMM110" s="4"/>
+      <c r="AMN110" s="4"/>
+      <c r="AMO110" s="4"/>
+      <c r="AMP110" s="4"/>
+      <c r="AMQ110" s="4"/>
+      <c r="AMR110" s="4"/>
+      <c r="AMS110" s="4"/>
+      <c r="AMT110" s="4"/>
+    </row>
+    <row r="111" spans="1:1034">
+      <c r="A111" s="40"/>
+      <c r="B111" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="C111" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D111" s="45"/>
+      <c r="E111" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F111" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G111" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H111" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="I111" s="56"/>
+      <c r="J111" s="3"/>
+      <c r="M111" s="3"/>
+      <c r="N111" s="3"/>
+      <c r="Q111" s="5"/>
+      <c r="AML111" s="4"/>
+      <c r="AMM111" s="4"/>
+      <c r="AMN111" s="4"/>
+      <c r="AMO111" s="4"/>
+      <c r="AMP111" s="4"/>
+      <c r="AMQ111" s="4"/>
+      <c r="AMR111" s="4"/>
+      <c r="AMS111" s="4"/>
+      <c r="AMT111" s="4"/>
+    </row>
+    <row r="112" spans="1:1034">
+      <c r="A112" s="40"/>
+      <c r="B112" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="C112" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D112" s="45"/>
+      <c r="E112" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F112" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G112" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H112" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="I112" s="56"/>
+      <c r="J112" s="3"/>
+      <c r="M112" s="3"/>
+      <c r="N112" s="3"/>
+      <c r="Q112" s="5"/>
+      <c r="AML112" s="4"/>
+      <c r="AMM112" s="4"/>
+      <c r="AMN112" s="4"/>
+      <c r="AMO112" s="4"/>
+      <c r="AMP112" s="4"/>
+      <c r="AMQ112" s="4"/>
+      <c r="AMR112" s="4"/>
+      <c r="AMS112" s="4"/>
+      <c r="AMT112" s="4"/>
+    </row>
+    <row r="113" spans="1:1034">
+      <c r="A113" s="40"/>
+      <c r="B113" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="C113" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D113" s="45"/>
+      <c r="E113" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F113" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G113" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H113" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="I113" s="56"/>
+      <c r="J113" s="3"/>
+      <c r="M113" s="3"/>
+      <c r="N113" s="3"/>
+      <c r="Q113" s="5"/>
+      <c r="AML113" s="4"/>
+      <c r="AMM113" s="4"/>
+      <c r="AMN113" s="4"/>
+      <c r="AMO113" s="4"/>
+      <c r="AMP113" s="4"/>
+      <c r="AMQ113" s="4"/>
+      <c r="AMR113" s="4"/>
+      <c r="AMS113" s="4"/>
+      <c r="AMT113" s="4"/>
+    </row>
+    <row r="114" spans="1:1034">
+      <c r="A114" s="40"/>
+      <c r="B114" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="C114" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D114" s="45"/>
+      <c r="E114" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F114" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G114" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H114" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="I114" s="56"/>
+      <c r="J114" s="3"/>
+      <c r="M114" s="3"/>
+      <c r="N114" s="3"/>
+      <c r="Q114" s="5"/>
+      <c r="AML114" s="4"/>
+      <c r="AMM114" s="4"/>
+      <c r="AMN114" s="4"/>
+      <c r="AMO114" s="4"/>
+      <c r="AMP114" s="4"/>
+      <c r="AMQ114" s="4"/>
+      <c r="AMR114" s="4"/>
+      <c r="AMS114" s="4"/>
+      <c r="AMT114" s="4"/>
+    </row>
+    <row r="115" spans="1:1034">
+      <c r="A115" s="40"/>
+      <c r="B115" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="C115" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D115" s="45"/>
+      <c r="E115" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F115" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G115" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H115" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="I115" s="56"/>
+      <c r="J115" s="3"/>
+      <c r="M115" s="3"/>
+      <c r="N115" s="3"/>
+      <c r="Q115" s="5"/>
+      <c r="AML115" s="4"/>
+      <c r="AMM115" s="4"/>
+      <c r="AMN115" s="4"/>
+      <c r="AMO115" s="4"/>
+      <c r="AMP115" s="4"/>
+      <c r="AMQ115" s="4"/>
+      <c r="AMR115" s="4"/>
+      <c r="AMS115" s="4"/>
+      <c r="AMT115" s="4"/>
+    </row>
+    <row r="116" spans="1:1034">
+      <c r="A116" s="40"/>
+      <c r="B116" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="C116" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D116" s="45"/>
+      <c r="E116" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F116" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G116" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H116" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="I116" s="56"/>
+      <c r="J116" s="3"/>
+      <c r="M116" s="3"/>
+      <c r="N116" s="3"/>
+      <c r="Q116" s="5"/>
+      <c r="AML116" s="4"/>
+      <c r="AMM116" s="4"/>
+      <c r="AMN116" s="4"/>
+      <c r="AMO116" s="4"/>
+      <c r="AMP116" s="4"/>
+      <c r="AMQ116" s="4"/>
+      <c r="AMR116" s="4"/>
+      <c r="AMS116" s="4"/>
+      <c r="AMT116" s="4"/>
+    </row>
+    <row r="117" spans="1:1034">
+      <c r="A117" s="40"/>
+      <c r="B117" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="C117" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D117" s="45"/>
+      <c r="E117" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F117" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G117" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H117" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="I117" s="56"/>
+      <c r="J117" s="3"/>
+      <c r="M117" s="3"/>
+      <c r="N117" s="3"/>
+      <c r="Q117" s="5"/>
+      <c r="AML117" s="4"/>
+      <c r="AMM117" s="4"/>
+      <c r="AMN117" s="4"/>
+      <c r="AMO117" s="4"/>
+      <c r="AMP117" s="4"/>
+      <c r="AMQ117" s="4"/>
+      <c r="AMR117" s="4"/>
+      <c r="AMS117" s="4"/>
+      <c r="AMT117" s="4"/>
+    </row>
+    <row r="118" spans="1:1034">
+      <c r="A118" s="40"/>
+      <c r="B118" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="C118" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D118" s="45"/>
+      <c r="E118" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F118" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G118" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H118" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="I118" s="56"/>
+      <c r="J118" s="3"/>
+      <c r="M118" s="3"/>
+      <c r="N118" s="3"/>
+      <c r="Q118" s="5"/>
+      <c r="AML118" s="4"/>
+      <c r="AMM118" s="4"/>
+      <c r="AMN118" s="4"/>
+      <c r="AMO118" s="4"/>
+      <c r="AMP118" s="4"/>
+      <c r="AMQ118" s="4"/>
+      <c r="AMR118" s="4"/>
+      <c r="AMS118" s="4"/>
+      <c r="AMT118" s="4"/>
+    </row>
+    <row r="119" spans="1:1034">
+      <c r="A119" s="40"/>
+      <c r="B119" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="C119" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D119" s="45"/>
+      <c r="E119" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F119" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G119" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H119" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="I119" s="56"/>
+      <c r="J119" s="3"/>
+      <c r="M119" s="3"/>
+      <c r="N119" s="3"/>
+      <c r="Q119" s="5"/>
+      <c r="AML119" s="4"/>
+      <c r="AMM119" s="4"/>
+      <c r="AMN119" s="4"/>
+      <c r="AMO119" s="4"/>
+      <c r="AMP119" s="4"/>
+      <c r="AMQ119" s="4"/>
+      <c r="AMR119" s="4"/>
+      <c r="AMS119" s="4"/>
+      <c r="AMT119" s="4"/>
+    </row>
+    <row r="120" spans="1:1034">
+      <c r="A120" s="40"/>
+      <c r="B120" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="C120" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D120" s="45"/>
+      <c r="E120" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F120" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G120" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H120" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="I120" s="56"/>
+      <c r="J120" s="3"/>
+      <c r="M120" s="3"/>
+      <c r="N120" s="3"/>
+      <c r="Q120" s="5"/>
+      <c r="AML120" s="4"/>
+      <c r="AMM120" s="4"/>
+      <c r="AMN120" s="4"/>
+      <c r="AMO120" s="4"/>
+      <c r="AMP120" s="4"/>
+      <c r="AMQ120" s="4"/>
+      <c r="AMR120" s="4"/>
+      <c r="AMS120" s="4"/>
+      <c r="AMT120" s="4"/>
+    </row>
+    <row r="121" spans="1:1034">
+      <c r="A121" s="40"/>
+      <c r="B121" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="C121" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D121" s="45"/>
+      <c r="E121" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F121" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G121" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H121" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="I121" s="56"/>
+      <c r="J121" s="3"/>
+      <c r="M121" s="3"/>
+      <c r="N121" s="3"/>
+      <c r="Q121" s="5"/>
+      <c r="AML121" s="4"/>
+      <c r="AMM121" s="4"/>
+      <c r="AMN121" s="4"/>
+      <c r="AMO121" s="4"/>
+      <c r="AMP121" s="4"/>
+      <c r="AMQ121" s="4"/>
+      <c r="AMR121" s="4"/>
+      <c r="AMS121" s="4"/>
+      <c r="AMT121" s="4"/>
+    </row>
+    <row r="122" spans="1:1034">
+      <c r="A122" s="40"/>
+      <c r="B122" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="C122" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D122" s="45"/>
+      <c r="E122" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F122" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G122" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H122" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="I122" s="56"/>
+      <c r="J122" s="3"/>
+      <c r="M122" s="3"/>
+      <c r="N122" s="3"/>
+      <c r="Q122" s="5"/>
+      <c r="AML122" s="4"/>
+      <c r="AMM122" s="4"/>
+      <c r="AMN122" s="4"/>
+      <c r="AMO122" s="4"/>
+      <c r="AMP122" s="4"/>
+      <c r="AMQ122" s="4"/>
+      <c r="AMR122" s="4"/>
+      <c r="AMS122" s="4"/>
+      <c r="AMT122" s="4"/>
+    </row>
+    <row r="123" spans="1:1034">
+      <c r="A123" s="40"/>
+      <c r="B123" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="C123" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D123" s="45"/>
+      <c r="E123" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F123" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G123" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H123" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="I123" s="56"/>
+      <c r="J123" s="3"/>
+      <c r="M123" s="3"/>
+      <c r="N123" s="3"/>
+      <c r="Q123" s="5"/>
+      <c r="AML123" s="4"/>
+      <c r="AMM123" s="4"/>
+      <c r="AMN123" s="4"/>
+      <c r="AMO123" s="4"/>
+      <c r="AMP123" s="4"/>
+      <c r="AMQ123" s="4"/>
+      <c r="AMR123" s="4"/>
+      <c r="AMS123" s="4"/>
+      <c r="AMT123" s="4"/>
+    </row>
+    <row r="124" spans="1:1034">
+      <c r="A124" s="40"/>
+      <c r="B124" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="C124" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D124" s="45"/>
+      <c r="E124" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F124" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G124" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H124" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="I124" s="56"/>
+      <c r="J124" s="3"/>
+      <c r="M124" s="3"/>
+      <c r="N124" s="3"/>
+      <c r="Q124" s="5"/>
+      <c r="AML124" s="4"/>
+      <c r="AMM124" s="4"/>
+      <c r="AMN124" s="4"/>
+      <c r="AMO124" s="4"/>
+      <c r="AMP124" s="4"/>
+      <c r="AMQ124" s="4"/>
+      <c r="AMR124" s="4"/>
+      <c r="AMS124" s="4"/>
+      <c r="AMT124" s="4"/>
+    </row>
+    <row r="125" spans="1:1034">
+      <c r="A125" s="40"/>
+      <c r="B125" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="C125" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D125" s="45"/>
+      <c r="E125" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F125" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G125" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H125" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="I125" s="56"/>
+      <c r="J125" s="3"/>
+      <c r="M125" s="3"/>
+      <c r="N125" s="3"/>
+      <c r="Q125" s="5"/>
+      <c r="AML125" s="4"/>
+      <c r="AMM125" s="4"/>
+      <c r="AMN125" s="4"/>
+      <c r="AMO125" s="4"/>
+      <c r="AMP125" s="4"/>
+      <c r="AMQ125" s="4"/>
+      <c r="AMR125" s="4"/>
+      <c r="AMS125" s="4"/>
+      <c r="AMT125" s="4"/>
+    </row>
+    <row r="126" spans="1:1034">
+      <c r="A126" s="40"/>
+      <c r="B126" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="C126" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D126" s="45"/>
+      <c r="E126" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F126" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G126" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H126" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="I126" s="56"/>
+      <c r="J126" s="3"/>
+      <c r="M126" s="3"/>
+      <c r="N126" s="3"/>
+      <c r="Q126" s="5"/>
+      <c r="AML126" s="4"/>
+      <c r="AMM126" s="4"/>
+      <c r="AMN126" s="4"/>
+      <c r="AMO126" s="4"/>
+      <c r="AMP126" s="4"/>
+      <c r="AMQ126" s="4"/>
+      <c r="AMR126" s="4"/>
+      <c r="AMS126" s="4"/>
+      <c r="AMT126" s="4"/>
+    </row>
+    <row r="127" spans="1:1034">
+      <c r="A127" s="40"/>
+      <c r="B127" s="42" t="s">
+        <v>159</v>
+      </c>
+      <c r="C127" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D127" s="45"/>
+      <c r="E127" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F127" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G127" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H127" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="I127" s="56"/>
+      <c r="J127" s="3"/>
+      <c r="M127" s="3"/>
+      <c r="N127" s="3"/>
+      <c r="Q127" s="5"/>
+      <c r="AML127" s="4"/>
+      <c r="AMM127" s="4"/>
+      <c r="AMN127" s="4"/>
+      <c r="AMO127" s="4"/>
+      <c r="AMP127" s="4"/>
+      <c r="AMQ127" s="4"/>
+      <c r="AMR127" s="4"/>
+      <c r="AMS127" s="4"/>
+      <c r="AMT127" s="4"/>
+    </row>
+    <row r="128" spans="1:1034">
+      <c r="A128" s="40"/>
+      <c r="B128" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="C128" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D128" s="45"/>
+      <c r="E128" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F128" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G128" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H128" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="I128" s="56"/>
+      <c r="J128" s="3"/>
+      <c r="M128" s="3"/>
+      <c r="N128" s="3"/>
+      <c r="Q128" s="5"/>
+      <c r="AML128" s="4"/>
+      <c r="AMM128" s="4"/>
+      <c r="AMN128" s="4"/>
+      <c r="AMO128" s="4"/>
+      <c r="AMP128" s="4"/>
+      <c r="AMQ128" s="4"/>
+      <c r="AMR128" s="4"/>
+      <c r="AMS128" s="4"/>
+      <c r="AMT128" s="4"/>
+    </row>
+    <row r="129" spans="1:1034">
+      <c r="A129" s="40"/>
+      <c r="B129" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="C129" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D129" s="45"/>
+      <c r="E129" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F129" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G129" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H129" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="I129" s="56"/>
+      <c r="J129" s="3"/>
+      <c r="M129" s="3"/>
+      <c r="N129" s="3"/>
+      <c r="Q129" s="5"/>
+      <c r="AML129" s="4"/>
+      <c r="AMM129" s="4"/>
+      <c r="AMN129" s="4"/>
+      <c r="AMO129" s="4"/>
+      <c r="AMP129" s="4"/>
+      <c r="AMQ129" s="4"/>
+      <c r="AMR129" s="4"/>
+      <c r="AMS129" s="4"/>
+      <c r="AMT129" s="4"/>
+    </row>
+    <row r="130" spans="1:1034">
+      <c r="A130" s="40"/>
+      <c r="B130" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="C130" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D130" s="45"/>
+      <c r="E130" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F130" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G130" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H130" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="I130" s="56"/>
+      <c r="J130" s="3"/>
+      <c r="M130" s="3"/>
+      <c r="N130" s="3"/>
+      <c r="Q130" s="5"/>
+      <c r="AML130" s="4"/>
+      <c r="AMM130" s="4"/>
+      <c r="AMN130" s="4"/>
+      <c r="AMO130" s="4"/>
+      <c r="AMP130" s="4"/>
+      <c r="AMQ130" s="4"/>
+      <c r="AMR130" s="4"/>
+      <c r="AMS130" s="4"/>
+      <c r="AMT130" s="4"/>
+    </row>
+    <row r="131" spans="1:1034">
+      <c r="A131" s="40"/>
+      <c r="B131" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="C131" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D131" s="45"/>
+      <c r="E131" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F131" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G131" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H131" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="I131" s="56"/>
+      <c r="J131" s="3"/>
+      <c r="M131" s="3"/>
+      <c r="N131" s="3"/>
+      <c r="Q131" s="5"/>
+      <c r="AML131" s="4"/>
+      <c r="AMM131" s="4"/>
+      <c r="AMN131" s="4"/>
+      <c r="AMO131" s="4"/>
+      <c r="AMP131" s="4"/>
+      <c r="AMQ131" s="4"/>
+      <c r="AMR131" s="4"/>
+      <c r="AMS131" s="4"/>
+      <c r="AMT131" s="4"/>
+    </row>
+    <row r="132" spans="1:1034">
+      <c r="A132" s="40"/>
+      <c r="B132" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="C132" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D132" s="45"/>
+      <c r="E132" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F132" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G132" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H132" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="I132" s="56"/>
+      <c r="J132" s="3"/>
+      <c r="M132" s="3"/>
+      <c r="N132" s="3"/>
+      <c r="Q132" s="5"/>
+      <c r="AML132" s="4"/>
+      <c r="AMM132" s="4"/>
+      <c r="AMN132" s="4"/>
+      <c r="AMO132" s="4"/>
+      <c r="AMP132" s="4"/>
+      <c r="AMQ132" s="4"/>
+      <c r="AMR132" s="4"/>
+      <c r="AMS132" s="4"/>
+      <c r="AMT132" s="4"/>
+    </row>
+    <row r="133" spans="1:1034">
+      <c r="A133" s="40"/>
+      <c r="B133" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="C133" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D133" s="45"/>
+      <c r="E133" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F133" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G133" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H133" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="I133" s="56"/>
+      <c r="J133" s="3"/>
+      <c r="M133" s="3"/>
+      <c r="N133" s="3"/>
+      <c r="Q133" s="5"/>
+      <c r="AML133" s="4"/>
+      <c r="AMM133" s="4"/>
+      <c r="AMN133" s="4"/>
+      <c r="AMO133" s="4"/>
+      <c r="AMP133" s="4"/>
+      <c r="AMQ133" s="4"/>
+      <c r="AMR133" s="4"/>
+      <c r="AMS133" s="4"/>
+      <c r="AMT133" s="4"/>
+    </row>
+    <row r="134" spans="1:1034">
+      <c r="A134" s="40"/>
+      <c r="B134" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="C134" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D134" s="45"/>
+      <c r="E134" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F134" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G134" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H134" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="I134" s="56"/>
+      <c r="J134" s="3"/>
+      <c r="M134" s="3"/>
+      <c r="N134" s="3"/>
+      <c r="Q134" s="5"/>
+      <c r="AML134" s="4"/>
+      <c r="AMM134" s="4"/>
+      <c r="AMN134" s="4"/>
+      <c r="AMO134" s="4"/>
+      <c r="AMP134" s="4"/>
+      <c r="AMQ134" s="4"/>
+      <c r="AMR134" s="4"/>
+      <c r="AMS134" s="4"/>
+      <c r="AMT134" s="4"/>
+    </row>
+    <row r="135" spans="1:1034">
+      <c r="A135" s="40"/>
+      <c r="B135" s="58" t="s">
+        <v>167</v>
+      </c>
+      <c r="C135" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D135" s="45"/>
+      <c r="E135" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F135" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G135" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H135" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="I135" s="61"/>
+      <c r="J135" s="3"/>
+      <c r="M135" s="3"/>
+      <c r="N135" s="3"/>
+      <c r="Q135" s="5"/>
+      <c r="AML135" s="4"/>
+      <c r="AMM135" s="4"/>
+      <c r="AMN135" s="4"/>
+      <c r="AMO135" s="4"/>
+      <c r="AMP135" s="4"/>
+      <c r="AMQ135" s="4"/>
+      <c r="AMR135" s="4"/>
+      <c r="AMS135" s="4"/>
+      <c r="AMT135" s="4"/>
+    </row>
+    <row r="136" spans="1:1034">
+      <c r="A136" s="59"/>
+      <c r="B136" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="C136" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D136" s="45"/>
+      <c r="E136" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F136" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G136" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H136" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="I136" s="61"/>
+      <c r="J136" s="3"/>
+      <c r="M136" s="3"/>
+      <c r="N136" s="3"/>
+      <c r="Q136" s="5"/>
+      <c r="AML136" s="4"/>
+      <c r="AMM136" s="4"/>
+      <c r="AMN136" s="4"/>
+      <c r="AMO136" s="4"/>
+      <c r="AMP136" s="4"/>
+      <c r="AMQ136" s="4"/>
+      <c r="AMR136" s="4"/>
+      <c r="AMS136" s="4"/>
+      <c r="AMT136" s="4"/>
+    </row>
+    <row r="137" spans="1:1034">
+      <c r="A137" s="59"/>
+      <c r="B137" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="C137" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D137" s="45"/>
+      <c r="E137" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F137" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G137" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H137" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="I137" s="61"/>
+      <c r="J137" s="3"/>
+      <c r="M137" s="3"/>
+      <c r="N137" s="3"/>
+      <c r="Q137" s="5"/>
+      <c r="AML137" s="4"/>
+      <c r="AMM137" s="4"/>
+      <c r="AMN137" s="4"/>
+      <c r="AMO137" s="4"/>
+      <c r="AMP137" s="4"/>
+      <c r="AMQ137" s="4"/>
+      <c r="AMR137" s="4"/>
+      <c r="AMS137" s="4"/>
+      <c r="AMT137" s="4"/>
+    </row>
+    <row r="138" spans="1:1034">
+      <c r="A138" s="59"/>
+      <c r="B138" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="C138" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D138" s="45"/>
+      <c r="E138" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F138" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G138" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H138" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="I138" s="61"/>
+      <c r="J138" s="3"/>
+      <c r="M138" s="3"/>
+      <c r="N138" s="3"/>
+      <c r="Q138" s="5"/>
+      <c r="AML138" s="4"/>
+      <c r="AMM138" s="4"/>
+      <c r="AMN138" s="4"/>
+      <c r="AMO138" s="4"/>
+      <c r="AMP138" s="4"/>
+      <c r="AMQ138" s="4"/>
+      <c r="AMR138" s="4"/>
+      <c r="AMS138" s="4"/>
+      <c r="AMT138" s="4"/>
+    </row>
+    <row r="139" spans="1:1034">
+      <c r="A139" s="40"/>
+      <c r="B139" s="60" t="s">
+        <v>171</v>
+      </c>
+      <c r="C139" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="D139" s="45"/>
+      <c r="E139" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="F139" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="G139" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="H139" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="I139" s="57"/>
+      <c r="J139" s="3"/>
+      <c r="M139" s="3"/>
+      <c r="N139" s="3"/>
+      <c r="Q139" s="5"/>
+      <c r="AML139" s="4"/>
+      <c r="AMM139" s="4"/>
+      <c r="AMN139" s="4"/>
+      <c r="AMO139" s="4"/>
+      <c r="AMP139" s="4"/>
+      <c r="AMQ139" s="4"/>
+      <c r="AMR139" s="4"/>
+      <c r="AMS139" s="4"/>
+      <c r="AMT139" s="4"/>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" s="3" t="s">
+        <v>172</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:I53"/>
-  <mergeCells count="10">
+  <mergeCells count="18">
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A7:A25"/>
     <mergeCell ref="A26:A30"/>
     <mergeCell ref="A31:A41"/>
     <mergeCell ref="A42:A53"/>
+    <mergeCell ref="A54:A68"/>
+    <mergeCell ref="A69:A79"/>
+    <mergeCell ref="A80:A107"/>
+    <mergeCell ref="A108:A139"/>
     <mergeCell ref="D2:D6"/>
     <mergeCell ref="D7:D25"/>
     <mergeCell ref="D26:D30"/>
     <mergeCell ref="D31:D41"/>
     <mergeCell ref="D42:D53"/>
+    <mergeCell ref="D54:D68"/>
+    <mergeCell ref="D69:D79"/>
+    <mergeCell ref="D80:D107"/>
+    <mergeCell ref="D108:D139"/>
   </mergeCells>
-  <conditionalFormatting sqref="G2:G53">
+  <conditionalFormatting sqref="G134:G139 G2:G133">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
@@ -29079,11 +31594,14 @@
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G41 G2:G25 G26:G30 G31:G40 G42:G53">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G41 G139 G2:G25 G26:G30 G31:G40 G42:G53 G54:G79 G80:G107 G108:G133 G134:G138">
       <formula1>"Pass,Fail"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showErrorMessage="1" sqref="H2:H25 H26:H30"/>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" promptTitle="PLS Select 请选择" sqref="F139 F54:F79 F80:F107 F108:F133 F134:F138">
+      <formula1>"PLS Select请选择,是,否"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" promptTitle="PLS Select 请选择" sqref="F41 F2:F25 F26:F30 F31:F40 F42:F53">
       <formula1>"是,否"</formula1>
     </dataValidation>
@@ -29094,1433 +31612,11 @@
     <hyperlink ref="D26" r:id="rId3" display="findbugs.yaml"/>
     <hyperlink ref="D42:D53" r:id="rId4" display="jmeter.sh"/>
     <hyperlink ref="D31:D41" r:id="rId5" display="javapackages-tools.md"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:I29"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
-  <cols>
-    <col min="1" max="1" width="14.1851851851852" style="4"/>
-    <col min="2" max="2" width="38.0518518518519" style="5"/>
-    <col min="3" max="3" width="10.6962962962963" style="5"/>
-    <col min="4" max="4" width="14.7481481481481" style="4"/>
-    <col min="5" max="5" width="10.6962962962963" style="5"/>
-    <col min="6" max="6" width="15.5333333333333" style="6"/>
-    <col min="7" max="7" width="14.8666666666667" style="5"/>
-    <col min="8" max="8" width="10.6962962962963" style="7"/>
-    <col min="9" max="9" width="46.4962962962963" style="5"/>
-    <col min="10" max="1025" width="10.6962962962963" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" ht="36" customHeight="1" spans="1:9">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" ht="15" customHeight="1" spans="1:9">
-      <c r="A2" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="I2" s="42"/>
-    </row>
-    <row r="3" ht="15" customHeight="1" spans="1:9">
-      <c r="A3" s="34"/>
-      <c r="B3" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="I3" s="42"/>
-    </row>
-    <row r="4" ht="15" customHeight="1" spans="1:9">
-      <c r="A4" s="34"/>
-      <c r="B4" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="I4" s="42"/>
-    </row>
-    <row r="5" ht="15" customHeight="1" spans="1:9">
-      <c r="A5" s="34"/>
-      <c r="B5" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="35"/>
-      <c r="E5" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="I5" s="42"/>
-    </row>
-    <row r="6" ht="15" customHeight="1" spans="1:9">
-      <c r="A6" s="34"/>
-      <c r="B6" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="35"/>
-      <c r="E6" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="I6" s="42"/>
-    </row>
-    <row r="7" ht="15" customHeight="1" spans="1:9">
-      <c r="A7" s="34"/>
-      <c r="B7" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="I7" s="42"/>
-    </row>
-    <row r="8" ht="15" customHeight="1" spans="1:9">
-      <c r="A8" s="34"/>
-      <c r="B8" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="35"/>
-      <c r="E8" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="I8" s="42"/>
-    </row>
-    <row r="9" ht="15" customHeight="1" spans="1:9">
-      <c r="A9" s="34"/>
-      <c r="B9" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="I9" s="42"/>
-    </row>
-    <row r="10" ht="15" customHeight="1" spans="1:9">
-      <c r="A10" s="34"/>
-      <c r="B10" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="35"/>
-      <c r="E10" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="I10" s="42"/>
-    </row>
-    <row r="11" ht="15" customHeight="1" spans="1:9">
-      <c r="A11" s="34"/>
-      <c r="B11" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="35"/>
-      <c r="E11" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="I11" s="42"/>
-    </row>
-    <row r="12" ht="15" customHeight="1" spans="1:9">
-      <c r="A12" s="34"/>
-      <c r="B12" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="35"/>
-      <c r="E12" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="I12" s="42"/>
-    </row>
-    <row r="13" ht="15" customHeight="1" spans="1:9">
-      <c r="A13" s="34"/>
-      <c r="B13" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="35"/>
-      <c r="E13" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="I13" s="42"/>
-    </row>
-    <row r="14" ht="15" customHeight="1" spans="1:9">
-      <c r="A14" s="34"/>
-      <c r="B14" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="I14" s="42"/>
-    </row>
-    <row r="15" ht="15" customHeight="1" spans="1:9">
-      <c r="A15" s="34"/>
-      <c r="B15" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="35"/>
-      <c r="E15" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="I15" s="42"/>
-    </row>
-    <row r="16" ht="15" customHeight="1" spans="1:9">
-      <c r="A16" s="34"/>
-      <c r="B16" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="35"/>
-      <c r="E16" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="I16" s="42"/>
-    </row>
-    <row r="17" ht="15" customHeight="1" spans="1:9">
-      <c r="A17" s="34"/>
-      <c r="B17" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="35"/>
-      <c r="E17" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="I17" s="42"/>
-    </row>
-    <row r="18" ht="15" customHeight="1" spans="1:9">
-      <c r="A18" s="34"/>
-      <c r="B18" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="35"/>
-      <c r="E18" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="I18" s="42"/>
-    </row>
-    <row r="19" ht="15" customHeight="1" spans="1:9">
-      <c r="A19" s="34"/>
-      <c r="B19" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="35"/>
-      <c r="E19" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="I19" s="42"/>
-    </row>
-    <row r="20" ht="15" customHeight="1" spans="1:9">
-      <c r="A20" s="34"/>
-      <c r="B20" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="35"/>
-      <c r="E20" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="F20" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="I20" s="42"/>
-    </row>
-    <row r="21" ht="15" customHeight="1" spans="1:9">
-      <c r="A21" s="34"/>
-      <c r="B21" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="35"/>
-      <c r="E21" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="F21" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="I21" s="42"/>
-    </row>
-    <row r="22" ht="15" customHeight="1" spans="1:9">
-      <c r="A22" s="34"/>
-      <c r="B22" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="35"/>
-      <c r="E22" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="F22" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="I22" s="42"/>
-    </row>
-    <row r="23" ht="15" customHeight="1" spans="1:9">
-      <c r="A23" s="34"/>
-      <c r="B23" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="35"/>
-      <c r="E23" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="F23" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="I23" s="42"/>
-    </row>
-    <row r="24" ht="15" customHeight="1" spans="1:9">
-      <c r="A24" s="34"/>
-      <c r="B24" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="35"/>
-      <c r="E24" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="F24" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="I24" s="42"/>
-    </row>
-    <row r="25" ht="15" customHeight="1" spans="1:9">
-      <c r="A25" s="34"/>
-      <c r="B25" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="35"/>
-      <c r="E25" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="F25" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H25" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="I25" s="42"/>
-    </row>
-    <row r="26" ht="15" customHeight="1" spans="1:9">
-      <c r="A26" s="34"/>
-      <c r="B26" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="35"/>
-      <c r="E26" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="F26" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H26" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="I26" s="42"/>
-    </row>
-    <row r="27" ht="15" customHeight="1" spans="1:9">
-      <c r="A27" s="34"/>
-      <c r="B27" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="35"/>
-      <c r="E27" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="F27" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H27" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="I27" s="42"/>
-    </row>
-    <row r="28" ht="15" customHeight="1" spans="1:9">
-      <c r="A28" s="34"/>
-      <c r="B28" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="35"/>
-      <c r="E28" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="F28" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H28" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="I28" s="42"/>
-    </row>
-    <row r="29" ht="15" customHeight="1" spans="1:9">
-      <c r="A29" s="34"/>
-      <c r="B29" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="C29" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="35"/>
-      <c r="E29" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="F29" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="H29" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="I29" s="43"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:I29"/>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A29"/>
-    <mergeCell ref="D2:D29"/>
-  </mergeCells>
-  <conditionalFormatting sqref="G2:G29">
-    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
-      <formula>"Pass"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G29">
-      <formula1>"Pass,Fail"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" promptTitle="PLS Select 请选择" sqref="F2:F29">
-      <formula1>"PLS Select请选择,是,否"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="python.sh"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:I27"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
-  <cols>
-    <col min="1" max="1" width="14.1851851851852" style="4"/>
-    <col min="2" max="2" width="38.0518518518519" style="5"/>
-    <col min="3" max="3" width="10.6962962962963" style="5"/>
-    <col min="4" max="4" width="14.7481481481481" style="4"/>
-    <col min="5" max="5" width="10.6962962962963" style="5"/>
-    <col min="6" max="6" width="15.5333333333333" style="6"/>
-    <col min="7" max="7" width="14.8666666666667" style="5"/>
-    <col min="8" max="8" width="10.6962962962963" style="7"/>
-    <col min="9" max="9" width="46.4962962962963" style="5"/>
-    <col min="10" max="1025" width="10.6962962962963" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" ht="36" customHeight="1" spans="1:9">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" s="2" customFormat="1" ht="15" spans="1:9">
-      <c r="A2" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="I2" s="31"/>
-    </row>
-    <row r="3" s="2" customFormat="1" ht="15" spans="1:9">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="I3" s="31"/>
-    </row>
-    <row r="4" s="2" customFormat="1" ht="15" spans="1:9">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="I4" s="31"/>
-    </row>
-    <row r="5" s="2" customFormat="1" ht="15" spans="1:9">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="I5" s="31"/>
-    </row>
-    <row r="6" s="2" customFormat="1" ht="15" spans="1:9">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="I6" s="31"/>
-    </row>
-    <row r="7" s="2" customFormat="1" ht="15" spans="1:9">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="I7" s="31"/>
-    </row>
-    <row r="8" s="2" customFormat="1" ht="15" spans="1:9">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="I8" s="31"/>
-    </row>
-    <row r="9" s="2" customFormat="1" ht="15" spans="1:9">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="I9" s="31"/>
-    </row>
-    <row r="10" s="2" customFormat="1" ht="15" spans="1:9">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="I10" s="31"/>
-    </row>
-    <row r="11" s="2" customFormat="1" ht="15" spans="1:9">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="I11" s="31"/>
-    </row>
-    <row r="12" s="2" customFormat="1" ht="15" spans="1:9">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="I12" s="31"/>
-    </row>
-    <row r="13" s="2" customFormat="1" ht="15" spans="1:9">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="I13" s="31"/>
-    </row>
-    <row r="14" s="2" customFormat="1" ht="15" spans="1:9">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="I14" s="31"/>
-    </row>
-    <row r="15" s="2" customFormat="1" ht="15" spans="1:9">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="I15" s="31"/>
-    </row>
-    <row r="16" s="2" customFormat="1" ht="15" spans="1:9">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="I16" s="31"/>
-    </row>
-    <row r="17" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:9">
-      <c r="A17" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="E17" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="I17" s="32"/>
-    </row>
-    <row r="18" ht="18.75" spans="1:9">
-      <c r="A18" s="14"/>
-      <c r="B18" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="I18" s="32"/>
-    </row>
-    <row r="19" ht="18.75" spans="1:9">
-      <c r="A19" s="14"/>
-      <c r="B19" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="I19" s="32"/>
-    </row>
-    <row r="20" ht="18.75" spans="1:9">
-      <c r="A20" s="14"/>
-      <c r="B20" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F20" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="I20" s="32"/>
-    </row>
-    <row r="21" ht="18.75" spans="1:9">
-      <c r="A21" s="14"/>
-      <c r="B21" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F21" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="I21" s="32"/>
-    </row>
-    <row r="22" ht="18.75" spans="1:9">
-      <c r="A22" s="14"/>
-      <c r="B22" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="17"/>
-      <c r="E22" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F22" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="I22" s="32"/>
-    </row>
-    <row r="23" ht="18.75" spans="1:9">
-      <c r="A23" s="14"/>
-      <c r="B23" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F23" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="I23" s="32"/>
-    </row>
-    <row r="24" ht="18.75" spans="1:9">
-      <c r="A24" s="14"/>
-      <c r="B24" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="17"/>
-      <c r="E24" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F24" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="I24" s="32"/>
-    </row>
-    <row r="25" ht="18.75" spans="1:9">
-      <c r="A25" s="14"/>
-      <c r="B25" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="17"/>
-      <c r="E25" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F25" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H25" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="I25" s="32"/>
-    </row>
-    <row r="26" ht="18.75" spans="1:9">
-      <c r="A26" s="14"/>
-      <c r="B26" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="17"/>
-      <c r="E26" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F26" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H26" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="I26" s="32"/>
-    </row>
-    <row r="27" ht="18.75" spans="1:9">
-      <c r="A27" s="14"/>
-      <c r="B27" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="17"/>
-      <c r="E27" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="F27" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="H27" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="I27" s="33"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:I27"/>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A16"/>
-    <mergeCell ref="A17:A27"/>
-    <mergeCell ref="D2:D16"/>
-    <mergeCell ref="D17:D27"/>
-  </mergeCells>
-  <conditionalFormatting sqref="G2:G27">
-    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
-      <formula>"Pass"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="2" stopIfTrue="1" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G27">
-      <formula1>"Pass,Fail"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" promptTitle="PLS Select 请选择" sqref="F2:F27">
-      <formula1>"PLS Select请选择,是,否"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="golang.sh"/>
-    <hyperlink ref="D17" r:id="rId2" display="go-bindata.sh"/>
+    <hyperlink ref="D54" r:id="rId6" display="golang.sh"/>
+    <hyperlink ref="D69" r:id="rId7" display="go-bindata.sh"/>
+    <hyperlink ref="D80" r:id="rId8" display="python.sh"/>
+    <hyperlink ref="D108" r:id="rId8" display="php.sh"/>
+    <hyperlink ref="D108:D139" r:id="rId9" display="php.sh"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>

--- a/list/language.xlsx
+++ b/list/language.xlsx
@@ -11,7 +11,7 @@
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sheet1!$A$1:$I$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sheet1!$A$1:$I$139</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="0">sheet1!$A$1:$I$1</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
@@ -649,7 +649,7 @@
     </r>
   </si>
   <si>
-    <t>findbugs.yaml</t>
+    <t>findbugs.sh</t>
   </si>
   <si>
     <t>验证版本和源是否正确</t>
@@ -1921,6 +1921,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>测试</t>
     </r>
     <r>
@@ -1941,6 +1947,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>测试</t>
     </r>
     <r>
@@ -1961,6 +1973,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>测试</t>
     </r>
     <r>
@@ -1975,6 +1993,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>测试</t>
     </r>
     <r>
@@ -2011,13 +2035,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;／&quot;d&quot;／&quot;yyyy"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="43">
+  <fonts count="40">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2065,10 +2089,11 @@
     </font>
     <font>
       <u/>
-      <sz val="10"/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2080,21 +2105,6 @@
       <color rgb="FF333333"/>
       <name val="Noto Sans CJK SC Regular"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2128,13 +2138,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK SC Regular"/>
@@ -2147,9 +2150,54 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -2161,59 +2209,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2242,8 +2246,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2257,40 +2276,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2331,7 +2334,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2343,103 +2496,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2451,67 +2514,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2710,7 +2713,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2726,15 +2729,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2783,6 +2777,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -2793,142 +2796,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="23" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="23" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2959,7 +2962,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2970,12 +2973,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2992,7 +2989,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3001,7 +2998,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="14" fillId="4" borderId="1" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="12" fillId="4" borderId="1" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3009,17 +3006,17 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="17" fillId="4" borderId="1" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="15" fillId="4" borderId="1" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3028,7 +3025,7 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3040,7 +3037,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3055,19 +3052,13 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3076,29 +3067,29 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="4" borderId="8" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="17" fillId="4" borderId="8" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="9" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="35" applyFont="1" applyFill="1" applyBorder="1">
@@ -3525,9 +3516,9 @@
   <dimension ref="A1:AMT141"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D108" sqref="D108:D139"/>
+      <selection pane="bottomLeft" activeCell="B113" sqref="B113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -3586,19 +3577,19 @@
       <c r="D2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="30"/>
+      <c r="I2" s="28"/>
       <c r="J2"/>
       <c r="K2"/>
       <c r="L2"/>
@@ -4624,19 +4615,19 @@
         <v>11</v>
       </c>
       <c r="D3" s="10"/>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="30"/>
+      <c r="I3" s="28"/>
       <c r="J3"/>
       <c r="K3"/>
       <c r="L3"/>
@@ -5662,19 +5653,19 @@
         <v>11</v>
       </c>
       <c r="D4" s="10"/>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="H4" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="30"/>
+      <c r="I4" s="28"/>
       <c r="J4"/>
       <c r="K4"/>
       <c r="L4"/>
@@ -6700,19 +6691,19 @@
         <v>11</v>
       </c>
       <c r="D5" s="10"/>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="H5" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="30"/>
+      <c r="I5" s="28"/>
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5"/>
@@ -7738,19 +7729,19 @@
         <v>11</v>
       </c>
       <c r="D6" s="10"/>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="H6" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="30"/>
+      <c r="I6" s="28"/>
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6"/>
@@ -8780,19 +8771,19 @@
       <c r="D7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="25" t="s">
+      <c r="H7" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="30"/>
+      <c r="I7" s="28"/>
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
@@ -9818,19 +9809,19 @@
         <v>11</v>
       </c>
       <c r="D8" s="10"/>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="25" t="s">
+      <c r="H8" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="30"/>
+      <c r="I8" s="28"/>
       <c r="J8"/>
       <c r="K8"/>
       <c r="L8"/>
@@ -10856,19 +10847,19 @@
         <v>11</v>
       </c>
       <c r="D9" s="10"/>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="25" t="s">
+      <c r="H9" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="30"/>
+      <c r="I9" s="28"/>
       <c r="J9"/>
       <c r="K9"/>
       <c r="L9"/>
@@ -11894,19 +11885,19 @@
         <v>11</v>
       </c>
       <c r="D10" s="10"/>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="24" t="s">
+      <c r="G10" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="25" t="s">
+      <c r="H10" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="30"/>
+      <c r="I10" s="28"/>
       <c r="J10"/>
       <c r="K10"/>
       <c r="L10"/>
@@ -12932,19 +12923,19 @@
         <v>11</v>
       </c>
       <c r="D11" s="10"/>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="24" t="s">
+      <c r="G11" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="25" t="s">
+      <c r="H11" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="30"/>
+      <c r="I11" s="28"/>
       <c r="J11"/>
       <c r="K11"/>
       <c r="L11"/>
@@ -13970,19 +13961,19 @@
         <v>11</v>
       </c>
       <c r="D12" s="10"/>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="24" t="s">
+      <c r="G12" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="25" t="s">
+      <c r="H12" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="30"/>
+      <c r="I12" s="28"/>
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12"/>
@@ -15008,19 +14999,19 @@
         <v>11</v>
       </c>
       <c r="D13" s="10"/>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="24" t="s">
+      <c r="G13" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="25" t="s">
+      <c r="H13" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="30"/>
+      <c r="I13" s="28"/>
       <c r="J13"/>
       <c r="K13"/>
       <c r="L13"/>
@@ -16046,19 +16037,19 @@
         <v>11</v>
       </c>
       <c r="D14" s="10"/>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="F14" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="24" t="s">
+      <c r="G14" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="25" t="s">
+      <c r="H14" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="I14" s="30"/>
+      <c r="I14" s="28"/>
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14"/>
@@ -17084,19 +17075,19 @@
         <v>11</v>
       </c>
       <c r="D15" s="10"/>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="F15" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="24" t="s">
+      <c r="G15" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="25" t="s">
+      <c r="H15" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="I15" s="30"/>
+      <c r="I15" s="28"/>
       <c r="J15"/>
       <c r="K15"/>
       <c r="L15"/>
@@ -18122,19 +18113,19 @@
         <v>11</v>
       </c>
       <c r="D16" s="10"/>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="F16" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="24" t="s">
+      <c r="G16" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="25" t="s">
+      <c r="H16" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="30"/>
+      <c r="I16" s="28"/>
       <c r="J16"/>
       <c r="K16"/>
       <c r="L16"/>
@@ -19160,19 +19151,19 @@
         <v>11</v>
       </c>
       <c r="D17" s="10"/>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="23" t="s">
+      <c r="F17" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="24" t="s">
+      <c r="G17" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="25" t="s">
+      <c r="H17" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="I17" s="30"/>
+      <c r="I17" s="28"/>
       <c r="J17"/>
       <c r="K17"/>
       <c r="L17"/>
@@ -20198,19 +20189,19 @@
         <v>11</v>
       </c>
       <c r="D18" s="10"/>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="23" t="s">
+      <c r="F18" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="24" t="s">
+      <c r="G18" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="25" t="s">
+      <c r="H18" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="I18" s="30"/>
+      <c r="I18" s="28"/>
       <c r="J18"/>
       <c r="K18"/>
       <c r="L18"/>
@@ -21236,19 +21227,19 @@
         <v>11</v>
       </c>
       <c r="D19" s="10"/>
-      <c r="E19" s="22" t="s">
+      <c r="E19" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="23" t="s">
+      <c r="F19" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="24" t="s">
+      <c r="G19" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="25" t="s">
+      <c r="H19" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="I19" s="30"/>
+      <c r="I19" s="28"/>
       <c r="J19"/>
       <c r="K19"/>
       <c r="L19"/>
@@ -22274,19 +22265,19 @@
         <v>11</v>
       </c>
       <c r="D20" s="10"/>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="23" t="s">
+      <c r="F20" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="24" t="s">
+      <c r="G20" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="25" t="s">
+      <c r="H20" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="I20" s="30"/>
+      <c r="I20" s="28"/>
       <c r="J20"/>
       <c r="K20"/>
       <c r="L20"/>
@@ -23312,19 +23303,19 @@
         <v>11</v>
       </c>
       <c r="D21" s="10"/>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="23" t="s">
+      <c r="F21" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="24" t="s">
+      <c r="G21" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H21" s="25" t="s">
+      <c r="H21" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="I21" s="30"/>
+      <c r="I21" s="28"/>
       <c r="J21"/>
       <c r="K21"/>
       <c r="L21"/>
@@ -24350,19 +24341,19 @@
         <v>11</v>
       </c>
       <c r="D22" s="10"/>
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="23" t="s">
+      <c r="F22" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="24" t="s">
+      <c r="G22" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H22" s="25" t="s">
+      <c r="H22" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="I22" s="30"/>
+      <c r="I22" s="28"/>
       <c r="J22"/>
       <c r="K22"/>
       <c r="L22"/>
@@ -25388,19 +25379,19 @@
         <v>11</v>
       </c>
       <c r="D23" s="10"/>
-      <c r="E23" s="22" t="s">
+      <c r="E23" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="23" t="s">
+      <c r="F23" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G23" s="24" t="s">
+      <c r="G23" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H23" s="25" t="s">
+      <c r="H23" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="I23" s="30"/>
+      <c r="I23" s="28"/>
       <c r="J23"/>
       <c r="K23"/>
       <c r="L23"/>
@@ -26426,19 +26417,19 @@
         <v>11</v>
       </c>
       <c r="D24" s="10"/>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="23" t="s">
+      <c r="F24" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G24" s="24" t="s">
+      <c r="G24" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H24" s="25" t="s">
+      <c r="H24" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="I24" s="30"/>
+      <c r="I24" s="28"/>
       <c r="J24"/>
       <c r="K24"/>
       <c r="L24"/>
@@ -27464,19 +27455,19 @@
         <v>11</v>
       </c>
       <c r="D25" s="10"/>
-      <c r="E25" s="22" t="s">
+      <c r="E25" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="23" t="s">
+      <c r="F25" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="24" t="s">
+      <c r="G25" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H25" s="25" t="s">
+      <c r="H25" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="I25" s="30"/>
+      <c r="I25" s="28"/>
       <c r="J25"/>
       <c r="K25"/>
       <c r="L25"/>
@@ -28503,22 +28494,22 @@
       <c r="C26" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E26" s="22" t="s">
+      <c r="E26" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="23" t="s">
+      <c r="F26" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G26" s="24" t="s">
+      <c r="G26" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="25" t="s">
+      <c r="H26" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="I26" s="31"/>
+      <c r="I26" s="29"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="12"/>
@@ -28528,20 +28519,20 @@
       <c r="C27" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="14"/>
-      <c r="E27" s="22" t="s">
+      <c r="D27" s="10"/>
+      <c r="E27" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="23" t="s">
+      <c r="F27" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="24" t="s">
+      <c r="G27" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="25" t="s">
+      <c r="H27" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="I27" s="31"/>
+      <c r="I27" s="29"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="12"/>
@@ -28551,20 +28542,20 @@
       <c r="C28" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="14"/>
-      <c r="E28" s="22" t="s">
+      <c r="D28" s="10"/>
+      <c r="E28" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="23" t="s">
+      <c r="F28" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G28" s="24" t="s">
+      <c r="G28" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H28" s="25" t="s">
+      <c r="H28" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="I28" s="31"/>
+      <c r="I28" s="29"/>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="12"/>
@@ -28574,20 +28565,20 @@
       <c r="C29" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="22" t="s">
+      <c r="D29" s="10"/>
+      <c r="E29" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F29" s="23" t="s">
+      <c r="F29" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G29" s="24" t="s">
+      <c r="G29" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="H29" s="25" t="s">
+      <c r="H29" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="I29" s="31"/>
+      <c r="I29" s="29"/>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="12"/>
@@ -28597,20 +28588,20 @@
       <c r="C30" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="14"/>
-      <c r="E30" s="22" t="s">
+      <c r="D30" s="10"/>
+      <c r="E30" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F30" s="23" t="s">
+      <c r="F30" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G30" s="24" t="s">
+      <c r="G30" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H30" s="25" t="s">
+      <c r="H30" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="I30" s="31"/>
+      <c r="I30" s="29"/>
     </row>
     <row r="31" customFormat="1" spans="1:9">
       <c r="A31" s="12" t="s">
@@ -28622,255 +28613,255 @@
       <c r="C31" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="D31" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E31" s="22" t="s">
+      <c r="E31" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F31" s="23" t="s">
+      <c r="F31" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="G31" s="24" t="s">
+      <c r="G31" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H31" s="22" t="s">
+      <c r="H31" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="I31" s="31"/>
+      <c r="I31" s="29"/>
     </row>
     <row r="32" customFormat="1" spans="1:9">
-      <c r="A32" s="16"/>
+      <c r="A32" s="14"/>
       <c r="B32" s="13" t="s">
         <v>54</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="15"/>
-      <c r="E32" s="22" t="s">
+      <c r="D32" s="10"/>
+      <c r="E32" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F32" s="23" t="s">
+      <c r="F32" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="G32" s="24" t="s">
+      <c r="G32" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H32" s="22" t="s">
+      <c r="H32" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="I32" s="31"/>
+      <c r="I32" s="29"/>
     </row>
     <row r="33" customFormat="1" spans="1:9">
-      <c r="A33" s="16"/>
+      <c r="A33" s="14"/>
       <c r="B33" s="13" t="s">
         <v>55</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="15"/>
-      <c r="E33" s="22" t="s">
+      <c r="D33" s="10"/>
+      <c r="E33" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F33" s="23" t="s">
+      <c r="F33" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="G33" s="24" t="s">
+      <c r="G33" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H33" s="22" t="s">
+      <c r="H33" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="I33" s="31"/>
+      <c r="I33" s="29"/>
     </row>
     <row r="34" customFormat="1" spans="1:9">
-      <c r="A34" s="16"/>
+      <c r="A34" s="14"/>
       <c r="B34" s="13" t="s">
         <v>56</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="15"/>
-      <c r="E34" s="22" t="s">
+      <c r="D34" s="10"/>
+      <c r="E34" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F34" s="23" t="s">
+      <c r="F34" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="G34" s="24" t="s">
+      <c r="G34" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H34" s="22" t="s">
+      <c r="H34" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="I34" s="31"/>
+      <c r="I34" s="29"/>
     </row>
     <row r="35" customFormat="1" spans="1:9">
-      <c r="A35" s="16"/>
+      <c r="A35" s="14"/>
       <c r="B35" s="13" t="s">
         <v>57</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D35" s="15"/>
-      <c r="E35" s="22" t="s">
+      <c r="D35" s="10"/>
+      <c r="E35" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F35" s="23" t="s">
+      <c r="F35" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="G35" s="24" t="s">
+      <c r="G35" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H35" s="22" t="s">
+      <c r="H35" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="I35" s="31"/>
+      <c r="I35" s="29"/>
     </row>
     <row r="36" customFormat="1" spans="1:9">
-      <c r="A36" s="16"/>
+      <c r="A36" s="14"/>
       <c r="B36" s="13" t="s">
         <v>58</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="15"/>
-      <c r="E36" s="22" t="s">
+      <c r="D36" s="10"/>
+      <c r="E36" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F36" s="23" t="s">
+      <c r="F36" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="G36" s="24" t="s">
+      <c r="G36" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H36" s="22" t="s">
+      <c r="H36" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="I36" s="31"/>
+      <c r="I36" s="29"/>
     </row>
     <row r="37" customFormat="1" spans="1:9">
-      <c r="A37" s="16"/>
+      <c r="A37" s="14"/>
       <c r="B37" s="13" t="s">
         <v>59</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D37" s="15"/>
-      <c r="E37" s="22" t="s">
+      <c r="D37" s="10"/>
+      <c r="E37" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F37" s="23" t="s">
+      <c r="F37" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="G37" s="24" t="s">
+      <c r="G37" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H37" s="22" t="s">
+      <c r="H37" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="I37" s="31"/>
+      <c r="I37" s="29"/>
     </row>
     <row r="38" customFormat="1" spans="1:9">
-      <c r="A38" s="16"/>
+      <c r="A38" s="14"/>
       <c r="B38" s="13" t="s">
         <v>60</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D38" s="15"/>
-      <c r="E38" s="22" t="s">
+      <c r="D38" s="10"/>
+      <c r="E38" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F38" s="23" t="s">
+      <c r="F38" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="G38" s="24" t="s">
+      <c r="G38" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H38" s="22" t="s">
+      <c r="H38" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="I38" s="31"/>
+      <c r="I38" s="29"/>
     </row>
     <row r="39" customFormat="1" spans="1:9">
-      <c r="A39" s="16"/>
+      <c r="A39" s="14"/>
       <c r="B39" s="13" t="s">
         <v>61</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D39" s="15"/>
-      <c r="E39" s="22" t="s">
+      <c r="D39" s="10"/>
+      <c r="E39" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F39" s="23" t="s">
+      <c r="F39" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="G39" s="24" t="s">
+      <c r="G39" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H39" s="22" t="s">
+      <c r="H39" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="I39" s="31"/>
+      <c r="I39" s="29"/>
     </row>
     <row r="40" customFormat="1" spans="1:9">
-      <c r="A40" s="16"/>
+      <c r="A40" s="14"/>
       <c r="B40" s="13" t="s">
         <v>62</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D40" s="15"/>
-      <c r="E40" s="22" t="s">
+      <c r="D40" s="10"/>
+      <c r="E40" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F40" s="23" t="s">
+      <c r="F40" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="G40" s="24" t="s">
+      <c r="G40" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H40" s="22" t="s">
+      <c r="H40" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="I40" s="31"/>
+      <c r="I40" s="29"/>
     </row>
     <row r="41" customFormat="1" spans="1:9">
-      <c r="A41" s="17"/>
+      <c r="A41" s="15"/>
       <c r="B41" s="13" t="s">
         <v>63</v>
       </c>
       <c r="C41" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D41" s="15"/>
-      <c r="E41" s="22" t="s">
+      <c r="D41" s="10"/>
+      <c r="E41" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F41" s="23" t="s">
+      <c r="F41" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="G41" s="24" t="s">
+      <c r="G41" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H41" s="22" t="s">
+      <c r="H41" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="I41" s="31"/>
+      <c r="I41" s="29"/>
     </row>
     <row r="42" customFormat="1" spans="1:9">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="14" t="s">
         <v>64</v>
       </c>
       <c r="B42" s="13" t="s">
@@ -28879,1556 +28870,1556 @@
       <c r="C42" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D42" s="15" t="s">
+      <c r="D42" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E42" s="22" t="s">
+      <c r="E42" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="F42" s="23" t="s">
+      <c r="F42" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G42" s="24" t="s">
+      <c r="G42" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H42" s="22" t="s">
+      <c r="H42" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="I42" s="31"/>
+      <c r="I42" s="29"/>
     </row>
     <row r="43" customFormat="1" spans="1:9">
-      <c r="A43" s="16"/>
+      <c r="A43" s="14"/>
       <c r="B43" s="13" t="s">
         <v>68</v>
       </c>
       <c r="C43" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D43" s="15"/>
-      <c r="E43" s="22" t="s">
+      <c r="D43" s="10"/>
+      <c r="E43" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="F43" s="23" t="s">
+      <c r="F43" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G43" s="24" t="s">
+      <c r="G43" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H43" s="22" t="s">
+      <c r="H43" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="I43" s="31"/>
+      <c r="I43" s="29"/>
     </row>
     <row r="44" customFormat="1" spans="1:9">
-      <c r="A44" s="16"/>
+      <c r="A44" s="14"/>
       <c r="B44" s="13" t="s">
         <v>69</v>
       </c>
       <c r="C44" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D44" s="15"/>
-      <c r="E44" s="22" t="s">
+      <c r="D44" s="10"/>
+      <c r="E44" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="F44" s="23" t="s">
+      <c r="F44" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G44" s="24" t="s">
+      <c r="G44" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H44" s="22" t="s">
+      <c r="H44" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="I44" s="31"/>
+      <c r="I44" s="29"/>
     </row>
     <row r="45" customFormat="1" ht="30" spans="1:9">
-      <c r="A45" s="16"/>
-      <c r="B45" s="18" t="s">
+      <c r="A45" s="14"/>
+      <c r="B45" s="16" t="s">
         <v>70</v>
       </c>
       <c r="C45" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D45" s="15"/>
-      <c r="E45" s="22" t="s">
+      <c r="D45" s="10"/>
+      <c r="E45" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="F45" s="23" t="s">
+      <c r="F45" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G45" s="24" t="s">
+      <c r="G45" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H45" s="22" t="s">
+      <c r="H45" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="I45" s="31"/>
+      <c r="I45" s="29"/>
     </row>
     <row r="46" customFormat="1" spans="1:9">
-      <c r="A46" s="16"/>
-      <c r="B46" s="18" t="s">
+      <c r="A46" s="14"/>
+      <c r="B46" s="16" t="s">
         <v>71</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="15"/>
-      <c r="E46" s="22" t="s">
+      <c r="D46" s="10"/>
+      <c r="E46" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="F46" s="23" t="s">
+      <c r="F46" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G46" s="24" t="s">
+      <c r="G46" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H46" s="22" t="s">
+      <c r="H46" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="I46" s="31"/>
+      <c r="I46" s="29"/>
     </row>
     <row r="47" customFormat="1" spans="1:9">
-      <c r="A47" s="16"/>
-      <c r="B47" s="18" t="s">
+      <c r="A47" s="14"/>
+      <c r="B47" s="16" t="s">
         <v>72</v>
       </c>
       <c r="C47" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D47" s="15"/>
-      <c r="E47" s="22" t="s">
+      <c r="D47" s="10"/>
+      <c r="E47" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="F47" s="23" t="s">
+      <c r="F47" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G47" s="24" t="s">
+      <c r="G47" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H47" s="22" t="s">
+      <c r="H47" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="I47" s="31"/>
+      <c r="I47" s="29"/>
     </row>
     <row r="48" customFormat="1" spans="1:9">
-      <c r="A48" s="16"/>
-      <c r="B48" s="18" t="s">
+      <c r="A48" s="14"/>
+      <c r="B48" s="16" t="s">
         <v>73</v>
       </c>
       <c r="C48" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D48" s="15"/>
-      <c r="E48" s="22" t="s">
+      <c r="D48" s="10"/>
+      <c r="E48" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="F48" s="23" t="s">
+      <c r="F48" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G48" s="24" t="s">
+      <c r="G48" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H48" s="22" t="s">
+      <c r="H48" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="I48" s="31"/>
+      <c r="I48" s="29"/>
     </row>
     <row r="49" customFormat="1" spans="1:9">
-      <c r="A49" s="16"/>
+      <c r="A49" s="14"/>
       <c r="B49" s="13" t="s">
         <v>74</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D49" s="15"/>
-      <c r="E49" s="22" t="s">
+      <c r="D49" s="10"/>
+      <c r="E49" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="F49" s="23" t="s">
+      <c r="F49" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G49" s="24" t="s">
+      <c r="G49" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H49" s="22" t="s">
+      <c r="H49" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="I49" s="31"/>
+      <c r="I49" s="29"/>
     </row>
     <row r="50" customFormat="1" spans="1:9">
-      <c r="A50" s="16"/>
+      <c r="A50" s="14"/>
       <c r="B50" s="13" t="s">
         <v>75</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D50" s="15"/>
-      <c r="E50" s="22" t="s">
+      <c r="D50" s="10"/>
+      <c r="E50" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="F50" s="23" t="s">
+      <c r="F50" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G50" s="24" t="s">
+      <c r="G50" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H50" s="22" t="s">
+      <c r="H50" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="I50" s="31"/>
+      <c r="I50" s="29"/>
     </row>
     <row r="51" customFormat="1" spans="1:9">
-      <c r="A51" s="16"/>
+      <c r="A51" s="14"/>
       <c r="B51" s="13" t="s">
         <v>76</v>
       </c>
       <c r="C51" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D51" s="15"/>
-      <c r="E51" s="22" t="s">
+      <c r="D51" s="10"/>
+      <c r="E51" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="F51" s="23" t="s">
+      <c r="F51" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G51" s="24" t="s">
+      <c r="G51" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H51" s="22" t="s">
+      <c r="H51" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="I51" s="31"/>
+      <c r="I51" s="29"/>
     </row>
     <row r="52" customFormat="1" spans="1:9">
-      <c r="A52" s="16"/>
+      <c r="A52" s="14"/>
       <c r="B52" s="13" t="s">
         <v>77</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D52" s="15"/>
-      <c r="E52" s="22" t="s">
+      <c r="D52" s="10"/>
+      <c r="E52" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="F52" s="23" t="s">
+      <c r="F52" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G52" s="24" t="s">
+      <c r="G52" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H52" s="22" t="s">
+      <c r="H52" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="I52" s="31"/>
+      <c r="I52" s="29"/>
     </row>
     <row r="53" s="2" customFormat="1" ht="15" spans="1:9">
-      <c r="A53" s="17"/>
+      <c r="A53" s="15"/>
       <c r="B53" s="13" t="s">
         <v>78</v>
       </c>
       <c r="C53" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D53" s="15"/>
-      <c r="E53" s="22" t="s">
+      <c r="D53" s="10"/>
+      <c r="E53" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="F53" s="23" t="s">
+      <c r="F53" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G53" s="24" t="s">
+      <c r="G53" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H53" s="22" t="s">
+      <c r="H53" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="I53" s="31"/>
+      <c r="I53" s="29"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="19" t="s">
+      <c r="A54" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="B54" s="20" t="s">
+      <c r="B54" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="C54" s="21" t="s">
+      <c r="C54" s="19" t="s">
         <v>11</v>
       </c>
       <c r="D54" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="E54" s="26" t="s">
+      <c r="E54" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F54" s="27" t="s">
+      <c r="F54" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G54" s="28" t="s">
+      <c r="G54" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H54" s="29" t="s">
+      <c r="H54" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="I54" s="32"/>
+      <c r="I54" s="30"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="19"/>
-      <c r="B55" s="20" t="s">
+      <c r="A55" s="17"/>
+      <c r="B55" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="C55" s="21" t="s">
+      <c r="C55" s="19" t="s">
         <v>11</v>
       </c>
       <c r="D55" s="10"/>
-      <c r="E55" s="26" t="s">
+      <c r="E55" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F55" s="27" t="s">
+      <c r="F55" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G55" s="28" t="s">
+      <c r="G55" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H55" s="29" t="s">
+      <c r="H55" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="I55" s="32"/>
+      <c r="I55" s="30"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="19"/>
-      <c r="B56" s="20" t="s">
+      <c r="A56" s="17"/>
+      <c r="B56" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="C56" s="21" t="s">
+      <c r="C56" s="19" t="s">
         <v>11</v>
       </c>
       <c r="D56" s="10"/>
-      <c r="E56" s="26" t="s">
+      <c r="E56" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F56" s="27" t="s">
+      <c r="F56" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G56" s="28" t="s">
+      <c r="G56" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H56" s="29" t="s">
+      <c r="H56" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="I56" s="32"/>
+      <c r="I56" s="30"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="19"/>
-      <c r="B57" s="20" t="s">
+      <c r="A57" s="17"/>
+      <c r="B57" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="C57" s="21" t="s">
+      <c r="C57" s="19" t="s">
         <v>11</v>
       </c>
       <c r="D57" s="10"/>
-      <c r="E57" s="26" t="s">
+      <c r="E57" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F57" s="27" t="s">
+      <c r="F57" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G57" s="28" t="s">
+      <c r="G57" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H57" s="29" t="s">
+      <c r="H57" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="I57" s="32"/>
+      <c r="I57" s="30"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="19"/>
-      <c r="B58" s="20" t="s">
+      <c r="A58" s="17"/>
+      <c r="B58" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="C58" s="21" t="s">
+      <c r="C58" s="19" t="s">
         <v>11</v>
       </c>
       <c r="D58" s="10"/>
-      <c r="E58" s="26" t="s">
+      <c r="E58" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F58" s="27" t="s">
+      <c r="F58" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G58" s="28" t="s">
+      <c r="G58" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H58" s="29" t="s">
+      <c r="H58" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="I58" s="32"/>
+      <c r="I58" s="30"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="19"/>
-      <c r="B59" s="20" t="s">
+      <c r="A59" s="17"/>
+      <c r="B59" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="C59" s="21" t="s">
+      <c r="C59" s="19" t="s">
         <v>11</v>
       </c>
       <c r="D59" s="10"/>
-      <c r="E59" s="26" t="s">
+      <c r="E59" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F59" s="27" t="s">
+      <c r="F59" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G59" s="28" t="s">
+      <c r="G59" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H59" s="29" t="s">
+      <c r="H59" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="I59" s="32"/>
+      <c r="I59" s="30"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="19"/>
-      <c r="B60" s="20" t="s">
+      <c r="A60" s="17"/>
+      <c r="B60" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="C60" s="21" t="s">
+      <c r="C60" s="19" t="s">
         <v>11</v>
       </c>
       <c r="D60" s="10"/>
-      <c r="E60" s="26" t="s">
+      <c r="E60" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F60" s="27" t="s">
+      <c r="F60" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G60" s="28" t="s">
+      <c r="G60" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H60" s="29" t="s">
+      <c r="H60" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="I60" s="32"/>
+      <c r="I60" s="30"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="19"/>
-      <c r="B61" s="20" t="s">
+      <c r="A61" s="17"/>
+      <c r="B61" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="C61" s="21" t="s">
+      <c r="C61" s="19" t="s">
         <v>11</v>
       </c>
       <c r="D61" s="10"/>
-      <c r="E61" s="26" t="s">
+      <c r="E61" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F61" s="27" t="s">
+      <c r="F61" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G61" s="28" t="s">
+      <c r="G61" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H61" s="29" t="s">
+      <c r="H61" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="I61" s="32"/>
+      <c r="I61" s="30"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="19"/>
-      <c r="B62" s="20" t="s">
+      <c r="A62" s="17"/>
+      <c r="B62" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="C62" s="21" t="s">
+      <c r="C62" s="19" t="s">
         <v>11</v>
       </c>
       <c r="D62" s="10"/>
-      <c r="E62" s="26" t="s">
+      <c r="E62" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F62" s="27" t="s">
+      <c r="F62" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G62" s="28" t="s">
+      <c r="G62" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H62" s="29" t="s">
+      <c r="H62" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="I62" s="32"/>
+      <c r="I62" s="30"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="19"/>
-      <c r="B63" s="20" t="s">
+      <c r="A63" s="17"/>
+      <c r="B63" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="C63" s="21" t="s">
+      <c r="C63" s="19" t="s">
         <v>11</v>
       </c>
       <c r="D63" s="10"/>
-      <c r="E63" s="26" t="s">
+      <c r="E63" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F63" s="27" t="s">
+      <c r="F63" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G63" s="28" t="s">
+      <c r="G63" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H63" s="29" t="s">
+      <c r="H63" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="I63" s="32"/>
+      <c r="I63" s="30"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="19"/>
-      <c r="B64" s="20" t="s">
+      <c r="A64" s="17"/>
+      <c r="B64" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="C64" s="21" t="s">
+      <c r="C64" s="19" t="s">
         <v>11</v>
       </c>
       <c r="D64" s="10"/>
-      <c r="E64" s="26" t="s">
+      <c r="E64" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F64" s="27" t="s">
+      <c r="F64" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G64" s="28" t="s">
+      <c r="G64" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H64" s="29" t="s">
+      <c r="H64" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="I64" s="32"/>
+      <c r="I64" s="30"/>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="19"/>
-      <c r="B65" s="20" t="s">
+      <c r="A65" s="17"/>
+      <c r="B65" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="C65" s="21" t="s">
+      <c r="C65" s="19" t="s">
         <v>11</v>
       </c>
       <c r="D65" s="10"/>
-      <c r="E65" s="26" t="s">
+      <c r="E65" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F65" s="27" t="s">
+      <c r="F65" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G65" s="28" t="s">
+      <c r="G65" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H65" s="29" t="s">
+      <c r="H65" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="I65" s="32"/>
+      <c r="I65" s="30"/>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="19"/>
-      <c r="B66" s="20" t="s">
+      <c r="A66" s="17"/>
+      <c r="B66" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="C66" s="21" t="s">
+      <c r="C66" s="19" t="s">
         <v>11</v>
       </c>
       <c r="D66" s="10"/>
-      <c r="E66" s="26" t="s">
+      <c r="E66" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F66" s="27" t="s">
+      <c r="F66" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G66" s="28" t="s">
+      <c r="G66" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H66" s="29" t="s">
+      <c r="H66" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="I66" s="32"/>
+      <c r="I66" s="30"/>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="19"/>
-      <c r="B67" s="20" t="s">
+      <c r="A67" s="17"/>
+      <c r="B67" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C67" s="21" t="s">
+      <c r="C67" s="19" t="s">
         <v>11</v>
       </c>
       <c r="D67" s="10"/>
-      <c r="E67" s="26" t="s">
+      <c r="E67" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F67" s="27" t="s">
+      <c r="F67" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G67" s="28" t="s">
+      <c r="G67" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H67" s="29" t="s">
+      <c r="H67" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="I67" s="32"/>
+      <c r="I67" s="30"/>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="19"/>
-      <c r="B68" s="20" t="s">
+      <c r="A68" s="17"/>
+      <c r="B68" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="C68" s="21" t="s">
+      <c r="C68" s="19" t="s">
         <v>11</v>
       </c>
       <c r="D68" s="10"/>
-      <c r="E68" s="26" t="s">
+      <c r="E68" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F68" s="27" t="s">
+      <c r="F68" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G68" s="28" t="s">
+      <c r="G68" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H68" s="29" t="s">
+      <c r="H68" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="I68" s="32"/>
+      <c r="I68" s="30"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="33" t="s">
+      <c r="A69" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="B69" s="34" t="s">
+      <c r="B69" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="C69" s="35" t="s">
+      <c r="C69" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D69" s="36" t="s">
+      <c r="D69" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="E69" s="46" t="s">
+      <c r="E69" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="F69" s="27" t="s">
+      <c r="F69" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G69" s="28" t="s">
+      <c r="G69" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H69" s="29" t="s">
+      <c r="H69" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="I69" s="54"/>
+      <c r="I69" s="50"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="33"/>
-      <c r="B70" s="37" t="s">
+      <c r="A70" s="31"/>
+      <c r="B70" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="C70" s="35" t="s">
+      <c r="C70" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D70" s="36"/>
-      <c r="E70" s="46" t="s">
+      <c r="D70" s="34"/>
+      <c r="E70" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="F70" s="27" t="s">
+      <c r="F70" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G70" s="28" t="s">
+      <c r="G70" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H70" s="29" t="s">
+      <c r="H70" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="I70" s="54"/>
+      <c r="I70" s="50"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="33"/>
-      <c r="B71" s="37" t="s">
+      <c r="A71" s="31"/>
+      <c r="B71" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="C71" s="35" t="s">
+      <c r="C71" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D71" s="36"/>
-      <c r="E71" s="46" t="s">
+      <c r="D71" s="34"/>
+      <c r="E71" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="F71" s="27" t="s">
+      <c r="F71" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G71" s="28" t="s">
+      <c r="G71" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H71" s="29" t="s">
+      <c r="H71" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="I71" s="54"/>
+      <c r="I71" s="50"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="33"/>
-      <c r="B72" s="37" t="s">
+      <c r="A72" s="31"/>
+      <c r="B72" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="C72" s="35" t="s">
+      <c r="C72" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D72" s="36"/>
-      <c r="E72" s="46" t="s">
+      <c r="D72" s="34"/>
+      <c r="E72" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="F72" s="27" t="s">
+      <c r="F72" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G72" s="28" t="s">
+      <c r="G72" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H72" s="29" t="s">
+      <c r="H72" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="I72" s="54"/>
+      <c r="I72" s="50"/>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="33"/>
-      <c r="B73" s="37" t="s">
+      <c r="A73" s="31"/>
+      <c r="B73" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="C73" s="35" t="s">
+      <c r="C73" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D73" s="36"/>
-      <c r="E73" s="46" t="s">
+      <c r="D73" s="34"/>
+      <c r="E73" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="F73" s="27" t="s">
+      <c r="F73" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G73" s="28" t="s">
+      <c r="G73" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H73" s="29" t="s">
+      <c r="H73" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="I73" s="54"/>
+      <c r="I73" s="50"/>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="33"/>
-      <c r="B74" s="37" t="s">
+      <c r="A74" s="31"/>
+      <c r="B74" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="C74" s="35" t="s">
+      <c r="C74" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D74" s="36"/>
-      <c r="E74" s="46" t="s">
+      <c r="D74" s="34"/>
+      <c r="E74" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="F74" s="27" t="s">
+      <c r="F74" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G74" s="28" t="s">
+      <c r="G74" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H74" s="29" t="s">
+      <c r="H74" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="I74" s="54"/>
+      <c r="I74" s="50"/>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="33"/>
-      <c r="B75" s="37" t="s">
+      <c r="A75" s="31"/>
+      <c r="B75" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="C75" s="35" t="s">
+      <c r="C75" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D75" s="36"/>
-      <c r="E75" s="46" t="s">
+      <c r="D75" s="34"/>
+      <c r="E75" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="F75" s="27" t="s">
+      <c r="F75" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G75" s="28" t="s">
+      <c r="G75" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H75" s="29" t="s">
+      <c r="H75" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="I75" s="54"/>
+      <c r="I75" s="50"/>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="33"/>
-      <c r="B76" s="37" t="s">
+      <c r="A76" s="31"/>
+      <c r="B76" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="C76" s="35" t="s">
+      <c r="C76" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D76" s="36"/>
-      <c r="E76" s="46" t="s">
+      <c r="D76" s="34"/>
+      <c r="E76" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="F76" s="27" t="s">
+      <c r="F76" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G76" s="28" t="s">
+      <c r="G76" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H76" s="29" t="s">
+      <c r="H76" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="I76" s="54"/>
+      <c r="I76" s="50"/>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="33"/>
-      <c r="B77" s="37" t="s">
+      <c r="A77" s="31"/>
+      <c r="B77" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="C77" s="35" t="s">
+      <c r="C77" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D77" s="36"/>
-      <c r="E77" s="46" t="s">
+      <c r="D77" s="34"/>
+      <c r="E77" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="F77" s="27" t="s">
+      <c r="F77" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G77" s="28" t="s">
+      <c r="G77" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H77" s="29" t="s">
+      <c r="H77" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="I77" s="54"/>
+      <c r="I77" s="50"/>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="33"/>
-      <c r="B78" s="37" t="s">
+      <c r="A78" s="31"/>
+      <c r="B78" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="C78" s="35" t="s">
+      <c r="C78" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D78" s="36"/>
-      <c r="E78" s="46" t="s">
+      <c r="D78" s="34"/>
+      <c r="E78" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="F78" s="27" t="s">
+      <c r="F78" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G78" s="28" t="s">
+      <c r="G78" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H78" s="29" t="s">
+      <c r="H78" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="I78" s="54"/>
+      <c r="I78" s="50"/>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="33"/>
-      <c r="B79" s="38" t="s">
+      <c r="A79" s="31"/>
+      <c r="B79" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="C79" s="39" t="s">
+      <c r="C79" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="D79" s="36"/>
-      <c r="E79" s="47" t="s">
+      <c r="D79" s="34"/>
+      <c r="E79" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="F79" s="48" t="s">
+      <c r="F79" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="G79" s="49" t="s">
+      <c r="G79" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="H79" s="50" t="s">
+      <c r="H79" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="I79" s="55"/>
+      <c r="I79" s="51"/>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="40" t="s">
+      <c r="A80" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="B80" s="37" t="s">
+      <c r="B80" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="C80" s="21" t="s">
+      <c r="C80" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D80" s="41" t="s">
+      <c r="D80" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="E80" s="26" t="s">
+      <c r="E80" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F80" s="27" t="s">
+      <c r="F80" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G80" s="28" t="s">
+      <c r="G80" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H80" s="51" t="s">
+      <c r="H80" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="I80" s="56"/>
+      <c r="I80" s="52"/>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="40"/>
-      <c r="B81" s="42" t="s">
+      <c r="A81" s="38"/>
+      <c r="B81" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="C81" s="21" t="s">
+      <c r="C81" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D81" s="41"/>
-      <c r="E81" s="26" t="s">
+      <c r="D81" s="34"/>
+      <c r="E81" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F81" s="27" t="s">
+      <c r="F81" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G81" s="28" t="s">
+      <c r="G81" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H81" s="51" t="s">
+      <c r="H81" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="I81" s="56"/>
+      <c r="I81" s="52"/>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="40"/>
-      <c r="B82" s="42" t="s">
+      <c r="A82" s="38"/>
+      <c r="B82" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="C82" s="21" t="s">
+      <c r="C82" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D82" s="41"/>
-      <c r="E82" s="26" t="s">
+      <c r="D82" s="34"/>
+      <c r="E82" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F82" s="27" t="s">
+      <c r="F82" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G82" s="28" t="s">
+      <c r="G82" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H82" s="51" t="s">
+      <c r="H82" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="I82" s="56"/>
+      <c r="I82" s="52"/>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="40"/>
-      <c r="B83" s="42" t="s">
+      <c r="A83" s="38"/>
+      <c r="B83" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="C83" s="21" t="s">
+      <c r="C83" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D83" s="41"/>
-      <c r="E83" s="26" t="s">
+      <c r="D83" s="34"/>
+      <c r="E83" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F83" s="27" t="s">
+      <c r="F83" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G83" s="28" t="s">
+      <c r="G83" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H83" s="51" t="s">
+      <c r="H83" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="I83" s="56"/>
+      <c r="I83" s="52"/>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="40"/>
-      <c r="B84" s="42" t="s">
+      <c r="A84" s="38"/>
+      <c r="B84" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="C84" s="21" t="s">
+      <c r="C84" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D84" s="41"/>
-      <c r="E84" s="26" t="s">
+      <c r="D84" s="34"/>
+      <c r="E84" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F84" s="27" t="s">
+      <c r="F84" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G84" s="28" t="s">
+      <c r="G84" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H84" s="51" t="s">
+      <c r="H84" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="I84" s="56"/>
+      <c r="I84" s="52"/>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="40"/>
-      <c r="B85" s="42" t="s">
+      <c r="A85" s="38"/>
+      <c r="B85" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="C85" s="21" t="s">
+      <c r="C85" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D85" s="41"/>
-      <c r="E85" s="26" t="s">
+      <c r="D85" s="34"/>
+      <c r="E85" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F85" s="27" t="s">
+      <c r="F85" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G85" s="28" t="s">
+      <c r="G85" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H85" s="51" t="s">
+      <c r="H85" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="I85" s="56"/>
+      <c r="I85" s="52"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="40"/>
-      <c r="B86" s="42" t="s">
+      <c r="A86" s="38"/>
+      <c r="B86" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="C86" s="21" t="s">
+      <c r="C86" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D86" s="41"/>
-      <c r="E86" s="26" t="s">
+      <c r="D86" s="34"/>
+      <c r="E86" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F86" s="27" t="s">
+      <c r="F86" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G86" s="28" t="s">
+      <c r="G86" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H86" s="51" t="s">
+      <c r="H86" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="I86" s="56"/>
+      <c r="I86" s="52"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="40"/>
-      <c r="B87" s="42" t="s">
+      <c r="A87" s="38"/>
+      <c r="B87" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="C87" s="21" t="s">
+      <c r="C87" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D87" s="41"/>
-      <c r="E87" s="26" t="s">
+      <c r="D87" s="34"/>
+      <c r="E87" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F87" s="27" t="s">
+      <c r="F87" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G87" s="28" t="s">
+      <c r="G87" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H87" s="51" t="s">
+      <c r="H87" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="I87" s="56"/>
+      <c r="I87" s="52"/>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="40"/>
-      <c r="B88" s="42" t="s">
+      <c r="A88" s="38"/>
+      <c r="B88" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="C88" s="21" t="s">
+      <c r="C88" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D88" s="41"/>
-      <c r="E88" s="26" t="s">
+      <c r="D88" s="34"/>
+      <c r="E88" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F88" s="27" t="s">
+      <c r="F88" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G88" s="28" t="s">
+      <c r="G88" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H88" s="51" t="s">
+      <c r="H88" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="I88" s="56"/>
+      <c r="I88" s="52"/>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="40"/>
-      <c r="B89" s="42" t="s">
+      <c r="A89" s="38"/>
+      <c r="B89" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="C89" s="21" t="s">
+      <c r="C89" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D89" s="41"/>
-      <c r="E89" s="26" t="s">
+      <c r="D89" s="34"/>
+      <c r="E89" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F89" s="27" t="s">
+      <c r="F89" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G89" s="28" t="s">
+      <c r="G89" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H89" s="51" t="s">
+      <c r="H89" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="I89" s="56"/>
+      <c r="I89" s="52"/>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="40"/>
-      <c r="B90" s="42" t="s">
+      <c r="A90" s="38"/>
+      <c r="B90" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="C90" s="21" t="s">
+      <c r="C90" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D90" s="41"/>
-      <c r="E90" s="26" t="s">
+      <c r="D90" s="34"/>
+      <c r="E90" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F90" s="27" t="s">
+      <c r="F90" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G90" s="28" t="s">
+      <c r="G90" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H90" s="51" t="s">
+      <c r="H90" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="I90" s="56"/>
+      <c r="I90" s="52"/>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="40"/>
-      <c r="B91" s="42" t="s">
+      <c r="A91" s="38"/>
+      <c r="B91" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="C91" s="21" t="s">
+      <c r="C91" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D91" s="41"/>
-      <c r="E91" s="26" t="s">
+      <c r="D91" s="34"/>
+      <c r="E91" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F91" s="27" t="s">
+      <c r="F91" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G91" s="28" t="s">
+      <c r="G91" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H91" s="51" t="s">
+      <c r="H91" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="I91" s="56"/>
+      <c r="I91" s="52"/>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="40"/>
-      <c r="B92" s="42" t="s">
+      <c r="A92" s="38"/>
+      <c r="B92" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="C92" s="21" t="s">
+      <c r="C92" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D92" s="41"/>
-      <c r="E92" s="26" t="s">
+      <c r="D92" s="34"/>
+      <c r="E92" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F92" s="27" t="s">
+      <c r="F92" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G92" s="28" t="s">
+      <c r="G92" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H92" s="51" t="s">
+      <c r="H92" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="I92" s="56"/>
+      <c r="I92" s="52"/>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="40"/>
-      <c r="B93" s="42" t="s">
+      <c r="A93" s="38"/>
+      <c r="B93" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="C93" s="21" t="s">
+      <c r="C93" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D93" s="41"/>
-      <c r="E93" s="26" t="s">
+      <c r="D93" s="34"/>
+      <c r="E93" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F93" s="27" t="s">
+      <c r="F93" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G93" s="28" t="s">
+      <c r="G93" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H93" s="51" t="s">
+      <c r="H93" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="I93" s="56"/>
+      <c r="I93" s="52"/>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="40"/>
-      <c r="B94" s="42" t="s">
+      <c r="A94" s="38"/>
+      <c r="B94" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="C94" s="21" t="s">
+      <c r="C94" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D94" s="41"/>
-      <c r="E94" s="26" t="s">
+      <c r="D94" s="34"/>
+      <c r="E94" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F94" s="27" t="s">
+      <c r="F94" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G94" s="28" t="s">
+      <c r="G94" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H94" s="51" t="s">
+      <c r="H94" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="I94" s="56"/>
+      <c r="I94" s="52"/>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="40"/>
-      <c r="B95" s="42" t="s">
+      <c r="A95" s="38"/>
+      <c r="B95" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="C95" s="21" t="s">
+      <c r="C95" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D95" s="41"/>
-      <c r="E95" s="26" t="s">
+      <c r="D95" s="34"/>
+      <c r="E95" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F95" s="27" t="s">
+      <c r="F95" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G95" s="28" t="s">
+      <c r="G95" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H95" s="51" t="s">
+      <c r="H95" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="I95" s="56"/>
+      <c r="I95" s="52"/>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="40"/>
-      <c r="B96" s="42" t="s">
+      <c r="A96" s="38"/>
+      <c r="B96" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="C96" s="21" t="s">
+      <c r="C96" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D96" s="41"/>
-      <c r="E96" s="26" t="s">
+      <c r="D96" s="34"/>
+      <c r="E96" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F96" s="27" t="s">
+      <c r="F96" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G96" s="28" t="s">
+      <c r="G96" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H96" s="51" t="s">
+      <c r="H96" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="I96" s="56"/>
+      <c r="I96" s="52"/>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="40"/>
-      <c r="B97" s="42" t="s">
+      <c r="A97" s="38"/>
+      <c r="B97" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="C97" s="21" t="s">
+      <c r="C97" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D97" s="41"/>
-      <c r="E97" s="26" t="s">
+      <c r="D97" s="34"/>
+      <c r="E97" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F97" s="27" t="s">
+      <c r="F97" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G97" s="28" t="s">
+      <c r="G97" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H97" s="51" t="s">
+      <c r="H97" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="I97" s="56"/>
+      <c r="I97" s="52"/>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="40"/>
-      <c r="B98" s="42" t="s">
+      <c r="A98" s="38"/>
+      <c r="B98" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="C98" s="21" t="s">
+      <c r="C98" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D98" s="41"/>
-      <c r="E98" s="26" t="s">
+      <c r="D98" s="34"/>
+      <c r="E98" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F98" s="27" t="s">
+      <c r="F98" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G98" s="28" t="s">
+      <c r="G98" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H98" s="51" t="s">
+      <c r="H98" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="I98" s="56"/>
+      <c r="I98" s="52"/>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="40"/>
-      <c r="B99" s="42" t="s">
+      <c r="A99" s="38"/>
+      <c r="B99" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="C99" s="21" t="s">
+      <c r="C99" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D99" s="41"/>
-      <c r="E99" s="26" t="s">
+      <c r="D99" s="34"/>
+      <c r="E99" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F99" s="27" t="s">
+      <c r="F99" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G99" s="28" t="s">
+      <c r="G99" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H99" s="51" t="s">
+      <c r="H99" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="I99" s="56"/>
+      <c r="I99" s="52"/>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="40"/>
-      <c r="B100" s="42" t="s">
+      <c r="A100" s="38"/>
+      <c r="B100" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="C100" s="21" t="s">
+      <c r="C100" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D100" s="41"/>
-      <c r="E100" s="26" t="s">
+      <c r="D100" s="34"/>
+      <c r="E100" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F100" s="27" t="s">
+      <c r="F100" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G100" s="28" t="s">
+      <c r="G100" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H100" s="51" t="s">
+      <c r="H100" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="I100" s="56"/>
+      <c r="I100" s="52"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="40"/>
-      <c r="B101" s="42" t="s">
+      <c r="A101" s="38"/>
+      <c r="B101" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="C101" s="21" t="s">
+      <c r="C101" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D101" s="41"/>
-      <c r="E101" s="26" t="s">
+      <c r="D101" s="34"/>
+      <c r="E101" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F101" s="27" t="s">
+      <c r="F101" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G101" s="28" t="s">
+      <c r="G101" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H101" s="51" t="s">
+      <c r="H101" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="I101" s="56"/>
+      <c r="I101" s="52"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="40"/>
-      <c r="B102" s="42" t="s">
+      <c r="A102" s="38"/>
+      <c r="B102" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="C102" s="21" t="s">
+      <c r="C102" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D102" s="41"/>
-      <c r="E102" s="26" t="s">
+      <c r="D102" s="34"/>
+      <c r="E102" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F102" s="27" t="s">
+      <c r="F102" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G102" s="28" t="s">
+      <c r="G102" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H102" s="51" t="s">
+      <c r="H102" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="I102" s="56"/>
+      <c r="I102" s="52"/>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="40"/>
-      <c r="B103" s="42" t="s">
+      <c r="A103" s="38"/>
+      <c r="B103" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="C103" s="21" t="s">
+      <c r="C103" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D103" s="41"/>
-      <c r="E103" s="26" t="s">
+      <c r="D103" s="34"/>
+      <c r="E103" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F103" s="27" t="s">
+      <c r="F103" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G103" s="28" t="s">
+      <c r="G103" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H103" s="51" t="s">
+      <c r="H103" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="I103" s="56"/>
+      <c r="I103" s="52"/>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="40"/>
-      <c r="B104" s="42" t="s">
+      <c r="A104" s="38"/>
+      <c r="B104" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="C104" s="21" t="s">
+      <c r="C104" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D104" s="41"/>
-      <c r="E104" s="26" t="s">
+      <c r="D104" s="34"/>
+      <c r="E104" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F104" s="27" t="s">
+      <c r="F104" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G104" s="28" t="s">
+      <c r="G104" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H104" s="51" t="s">
+      <c r="H104" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="I104" s="56"/>
+      <c r="I104" s="52"/>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="40"/>
-      <c r="B105" s="42" t="s">
+      <c r="A105" s="38"/>
+      <c r="B105" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="C105" s="21" t="s">
+      <c r="C105" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D105" s="41"/>
-      <c r="E105" s="26" t="s">
+      <c r="D105" s="34"/>
+      <c r="E105" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F105" s="27" t="s">
+      <c r="F105" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G105" s="28" t="s">
+      <c r="G105" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H105" s="51" t="s">
+      <c r="H105" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="I105" s="56"/>
+      <c r="I105" s="52"/>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="40"/>
-      <c r="B106" s="42" t="s">
+      <c r="A106" s="38"/>
+      <c r="B106" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="C106" s="21" t="s">
+      <c r="C106" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D106" s="41"/>
-      <c r="E106" s="26" t="s">
+      <c r="D106" s="34"/>
+      <c r="E106" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F106" s="27" t="s">
+      <c r="F106" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G106" s="28" t="s">
+      <c r="G106" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H106" s="51" t="s">
+      <c r="H106" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="I106" s="56"/>
+      <c r="I106" s="52"/>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="40"/>
-      <c r="B107" s="43" t="s">
+      <c r="A107" s="38"/>
+      <c r="B107" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="C107" s="44" t="s">
+      <c r="C107" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D107" s="41"/>
-      <c r="E107" s="52" t="s">
+      <c r="D107" s="34"/>
+      <c r="E107" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="F107" s="48" t="s">
+      <c r="F107" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="G107" s="49" t="s">
+      <c r="G107" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="H107" s="53" t="s">
+      <c r="H107" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="I107" s="57"/>
+      <c r="I107" s="53"/>
     </row>
     <row r="108" spans="1:1034">
-      <c r="A108" s="40" t="s">
+      <c r="A108" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="B108" s="37" t="s">
+      <c r="B108" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="C108" s="21" t="s">
+      <c r="C108" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D108" s="45" t="s">
+      <c r="D108" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="E108" s="26" t="s">
+      <c r="E108" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F108" s="27" t="s">
+      <c r="F108" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G108" s="28" t="s">
+      <c r="G108" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H108" s="51" t="s">
+      <c r="H108" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="I108" s="56"/>
+      <c r="I108" s="52"/>
       <c r="J108" s="3"/>
       <c r="M108" s="3"/>
       <c r="N108" s="3"/>
@@ -30444,27 +30435,27 @@
       <c r="AMT108" s="4"/>
     </row>
     <row r="109" spans="1:1034">
-      <c r="A109" s="40"/>
-      <c r="B109" s="42" t="s">
+      <c r="A109" s="38"/>
+      <c r="B109" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="C109" s="21" t="s">
+      <c r="C109" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D109" s="45"/>
-      <c r="E109" s="26" t="s">
+      <c r="D109" s="34"/>
+      <c r="E109" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F109" s="27" t="s">
+      <c r="F109" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G109" s="28" t="s">
+      <c r="G109" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H109" s="51" t="s">
+      <c r="H109" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="I109" s="56"/>
+      <c r="I109" s="52"/>
       <c r="J109" s="3"/>
       <c r="M109" s="3"/>
       <c r="N109" s="3"/>
@@ -30480,27 +30471,27 @@
       <c r="AMT109" s="4"/>
     </row>
     <row r="110" spans="1:1034">
-      <c r="A110" s="40"/>
-      <c r="B110" s="42" t="s">
+      <c r="A110" s="38"/>
+      <c r="B110" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="C110" s="21" t="s">
+      <c r="C110" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D110" s="45"/>
-      <c r="E110" s="26" t="s">
+      <c r="D110" s="34"/>
+      <c r="E110" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F110" s="27" t="s">
+      <c r="F110" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G110" s="28" t="s">
+      <c r="G110" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H110" s="51" t="s">
+      <c r="H110" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="I110" s="56"/>
+      <c r="I110" s="52"/>
       <c r="J110" s="3"/>
       <c r="M110" s="3"/>
       <c r="N110" s="3"/>
@@ -30516,27 +30507,27 @@
       <c r="AMT110" s="4"/>
     </row>
     <row r="111" spans="1:1034">
-      <c r="A111" s="40"/>
-      <c r="B111" s="42" t="s">
+      <c r="A111" s="38"/>
+      <c r="B111" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="C111" s="21" t="s">
+      <c r="C111" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D111" s="45"/>
-      <c r="E111" s="26" t="s">
+      <c r="D111" s="34"/>
+      <c r="E111" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F111" s="27" t="s">
+      <c r="F111" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G111" s="28" t="s">
+      <c r="G111" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H111" s="51" t="s">
+      <c r="H111" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="I111" s="56"/>
+      <c r="I111" s="52"/>
       <c r="J111" s="3"/>
       <c r="M111" s="3"/>
       <c r="N111" s="3"/>
@@ -30552,27 +30543,27 @@
       <c r="AMT111" s="4"/>
     </row>
     <row r="112" spans="1:1034">
-      <c r="A112" s="40"/>
-      <c r="B112" s="42" t="s">
+      <c r="A112" s="38"/>
+      <c r="B112" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="C112" s="21" t="s">
+      <c r="C112" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D112" s="45"/>
-      <c r="E112" s="26" t="s">
+      <c r="D112" s="34"/>
+      <c r="E112" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F112" s="27" t="s">
+      <c r="F112" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G112" s="28" t="s">
+      <c r="G112" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H112" s="51" t="s">
+      <c r="H112" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="I112" s="56"/>
+      <c r="I112" s="52"/>
       <c r="J112" s="3"/>
       <c r="M112" s="3"/>
       <c r="N112" s="3"/>
@@ -30588,27 +30579,27 @@
       <c r="AMT112" s="4"/>
     </row>
     <row r="113" spans="1:1034">
-      <c r="A113" s="40"/>
-      <c r="B113" s="42" t="s">
+      <c r="A113" s="38"/>
+      <c r="B113" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="C113" s="21" t="s">
+      <c r="C113" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D113" s="45"/>
-      <c r="E113" s="26" t="s">
+      <c r="D113" s="34"/>
+      <c r="E113" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F113" s="27" t="s">
+      <c r="F113" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G113" s="28" t="s">
+      <c r="G113" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H113" s="51" t="s">
+      <c r="H113" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="I113" s="56"/>
+      <c r="I113" s="52"/>
       <c r="J113" s="3"/>
       <c r="M113" s="3"/>
       <c r="N113" s="3"/>
@@ -30624,27 +30615,27 @@
       <c r="AMT113" s="4"/>
     </row>
     <row r="114" spans="1:1034">
-      <c r="A114" s="40"/>
-      <c r="B114" s="42" t="s">
+      <c r="A114" s="38"/>
+      <c r="B114" s="39" t="s">
         <v>147</v>
       </c>
-      <c r="C114" s="21" t="s">
+      <c r="C114" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D114" s="45"/>
-      <c r="E114" s="26" t="s">
+      <c r="D114" s="34"/>
+      <c r="E114" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F114" s="27" t="s">
+      <c r="F114" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G114" s="28" t="s">
+      <c r="G114" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H114" s="51" t="s">
+      <c r="H114" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="I114" s="56"/>
+      <c r="I114" s="52"/>
       <c r="J114" s="3"/>
       <c r="M114" s="3"/>
       <c r="N114" s="3"/>
@@ -30660,27 +30651,27 @@
       <c r="AMT114" s="4"/>
     </row>
     <row r="115" spans="1:1034">
-      <c r="A115" s="40"/>
-      <c r="B115" s="42" t="s">
+      <c r="A115" s="38"/>
+      <c r="B115" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="C115" s="21" t="s">
+      <c r="C115" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D115" s="45"/>
-      <c r="E115" s="26" t="s">
+      <c r="D115" s="34"/>
+      <c r="E115" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F115" s="27" t="s">
+      <c r="F115" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G115" s="28" t="s">
+      <c r="G115" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H115" s="51" t="s">
+      <c r="H115" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="I115" s="56"/>
+      <c r="I115" s="52"/>
       <c r="J115" s="3"/>
       <c r="M115" s="3"/>
       <c r="N115" s="3"/>
@@ -30696,27 +30687,27 @@
       <c r="AMT115" s="4"/>
     </row>
     <row r="116" spans="1:1034">
-      <c r="A116" s="40"/>
-      <c r="B116" s="42" t="s">
+      <c r="A116" s="38"/>
+      <c r="B116" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="C116" s="21" t="s">
+      <c r="C116" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D116" s="45"/>
-      <c r="E116" s="26" t="s">
+      <c r="D116" s="34"/>
+      <c r="E116" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F116" s="27" t="s">
+      <c r="F116" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G116" s="28" t="s">
+      <c r="G116" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H116" s="51" t="s">
+      <c r="H116" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="I116" s="56"/>
+      <c r="I116" s="52"/>
       <c r="J116" s="3"/>
       <c r="M116" s="3"/>
       <c r="N116" s="3"/>
@@ -30732,27 +30723,27 @@
       <c r="AMT116" s="4"/>
     </row>
     <row r="117" spans="1:1034">
-      <c r="A117" s="40"/>
-      <c r="B117" s="42" t="s">
+      <c r="A117" s="38"/>
+      <c r="B117" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="C117" s="21" t="s">
+      <c r="C117" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D117" s="45"/>
-      <c r="E117" s="26" t="s">
+      <c r="D117" s="34"/>
+      <c r="E117" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F117" s="27" t="s">
+      <c r="F117" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G117" s="28" t="s">
+      <c r="G117" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H117" s="51" t="s">
+      <c r="H117" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="I117" s="56"/>
+      <c r="I117" s="52"/>
       <c r="J117" s="3"/>
       <c r="M117" s="3"/>
       <c r="N117" s="3"/>
@@ -30768,27 +30759,27 @@
       <c r="AMT117" s="4"/>
     </row>
     <row r="118" spans="1:1034">
-      <c r="A118" s="40"/>
-      <c r="B118" s="42" t="s">
+      <c r="A118" s="38"/>
+      <c r="B118" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="C118" s="21" t="s">
+      <c r="C118" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D118" s="45"/>
-      <c r="E118" s="26" t="s">
+      <c r="D118" s="34"/>
+      <c r="E118" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F118" s="27" t="s">
+      <c r="F118" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G118" s="28" t="s">
+      <c r="G118" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H118" s="51" t="s">
+      <c r="H118" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="I118" s="56"/>
+      <c r="I118" s="52"/>
       <c r="J118" s="3"/>
       <c r="M118" s="3"/>
       <c r="N118" s="3"/>
@@ -30804,27 +30795,27 @@
       <c r="AMT118" s="4"/>
     </row>
     <row r="119" spans="1:1034">
-      <c r="A119" s="40"/>
-      <c r="B119" s="42" t="s">
+      <c r="A119" s="38"/>
+      <c r="B119" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="C119" s="21" t="s">
+      <c r="C119" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D119" s="45"/>
-      <c r="E119" s="26" t="s">
+      <c r="D119" s="34"/>
+      <c r="E119" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F119" s="27" t="s">
+      <c r="F119" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G119" s="28" t="s">
+      <c r="G119" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H119" s="51" t="s">
+      <c r="H119" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="I119" s="56"/>
+      <c r="I119" s="52"/>
       <c r="J119" s="3"/>
       <c r="M119" s="3"/>
       <c r="N119" s="3"/>
@@ -30840,27 +30831,27 @@
       <c r="AMT119" s="4"/>
     </row>
     <row r="120" spans="1:1034">
-      <c r="A120" s="40"/>
-      <c r="B120" s="42" t="s">
+      <c r="A120" s="38"/>
+      <c r="B120" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="C120" s="21" t="s">
+      <c r="C120" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D120" s="45"/>
-      <c r="E120" s="26" t="s">
+      <c r="D120" s="34"/>
+      <c r="E120" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F120" s="27" t="s">
+      <c r="F120" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G120" s="28" t="s">
+      <c r="G120" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H120" s="51" t="s">
+      <c r="H120" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="I120" s="56"/>
+      <c r="I120" s="52"/>
       <c r="J120" s="3"/>
       <c r="M120" s="3"/>
       <c r="N120" s="3"/>
@@ -30876,27 +30867,27 @@
       <c r="AMT120" s="4"/>
     </row>
     <row r="121" spans="1:1034">
-      <c r="A121" s="40"/>
-      <c r="B121" s="42" t="s">
+      <c r="A121" s="38"/>
+      <c r="B121" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="C121" s="21" t="s">
+      <c r="C121" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D121" s="45"/>
-      <c r="E121" s="26" t="s">
+      <c r="D121" s="34"/>
+      <c r="E121" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F121" s="27" t="s">
+      <c r="F121" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G121" s="28" t="s">
+      <c r="G121" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H121" s="51" t="s">
+      <c r="H121" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="I121" s="56"/>
+      <c r="I121" s="52"/>
       <c r="J121" s="3"/>
       <c r="M121" s="3"/>
       <c r="N121" s="3"/>
@@ -30912,27 +30903,27 @@
       <c r="AMT121" s="4"/>
     </row>
     <row r="122" spans="1:1034">
-      <c r="A122" s="40"/>
-      <c r="B122" s="42" t="s">
+      <c r="A122" s="38"/>
+      <c r="B122" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="C122" s="21" t="s">
+      <c r="C122" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D122" s="45"/>
-      <c r="E122" s="26" t="s">
+      <c r="D122" s="34"/>
+      <c r="E122" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F122" s="27" t="s">
+      <c r="F122" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G122" s="28" t="s">
+      <c r="G122" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H122" s="51" t="s">
+      <c r="H122" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="I122" s="56"/>
+      <c r="I122" s="52"/>
       <c r="J122" s="3"/>
       <c r="M122" s="3"/>
       <c r="N122" s="3"/>
@@ -30948,27 +30939,27 @@
       <c r="AMT122" s="4"/>
     </row>
     <row r="123" spans="1:1034">
-      <c r="A123" s="40"/>
-      <c r="B123" s="42" t="s">
+      <c r="A123" s="38"/>
+      <c r="B123" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="C123" s="21" t="s">
+      <c r="C123" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D123" s="45"/>
-      <c r="E123" s="26" t="s">
+      <c r="D123" s="34"/>
+      <c r="E123" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F123" s="27" t="s">
+      <c r="F123" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G123" s="28" t="s">
+      <c r="G123" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H123" s="51" t="s">
+      <c r="H123" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="I123" s="56"/>
+      <c r="I123" s="52"/>
       <c r="J123" s="3"/>
       <c r="M123" s="3"/>
       <c r="N123" s="3"/>
@@ -30984,27 +30975,27 @@
       <c r="AMT123" s="4"/>
     </row>
     <row r="124" spans="1:1034">
-      <c r="A124" s="40"/>
-      <c r="B124" s="42" t="s">
+      <c r="A124" s="38"/>
+      <c r="B124" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="C124" s="21" t="s">
+      <c r="C124" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D124" s="45"/>
-      <c r="E124" s="26" t="s">
+      <c r="D124" s="34"/>
+      <c r="E124" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F124" s="27" t="s">
+      <c r="F124" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G124" s="28" t="s">
+      <c r="G124" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H124" s="51" t="s">
+      <c r="H124" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="I124" s="56"/>
+      <c r="I124" s="52"/>
       <c r="J124" s="3"/>
       <c r="M124" s="3"/>
       <c r="N124" s="3"/>
@@ -31020,27 +31011,27 @@
       <c r="AMT124" s="4"/>
     </row>
     <row r="125" spans="1:1034">
-      <c r="A125" s="40"/>
-      <c r="B125" s="42" t="s">
+      <c r="A125" s="38"/>
+      <c r="B125" s="39" t="s">
         <v>157</v>
       </c>
-      <c r="C125" s="21" t="s">
+      <c r="C125" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D125" s="45"/>
-      <c r="E125" s="26" t="s">
+      <c r="D125" s="34"/>
+      <c r="E125" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F125" s="27" t="s">
+      <c r="F125" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G125" s="28" t="s">
+      <c r="G125" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H125" s="51" t="s">
+      <c r="H125" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="I125" s="56"/>
+      <c r="I125" s="52"/>
       <c r="J125" s="3"/>
       <c r="M125" s="3"/>
       <c r="N125" s="3"/>
@@ -31056,27 +31047,27 @@
       <c r="AMT125" s="4"/>
     </row>
     <row r="126" spans="1:1034">
-      <c r="A126" s="40"/>
-      <c r="B126" s="42" t="s">
+      <c r="A126" s="38"/>
+      <c r="B126" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="C126" s="21" t="s">
+      <c r="C126" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D126" s="45"/>
-      <c r="E126" s="26" t="s">
+      <c r="D126" s="34"/>
+      <c r="E126" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F126" s="27" t="s">
+      <c r="F126" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G126" s="28" t="s">
+      <c r="G126" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H126" s="51" t="s">
+      <c r="H126" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="I126" s="56"/>
+      <c r="I126" s="52"/>
       <c r="J126" s="3"/>
       <c r="M126" s="3"/>
       <c r="N126" s="3"/>
@@ -31092,27 +31083,27 @@
       <c r="AMT126" s="4"/>
     </row>
     <row r="127" spans="1:1034">
-      <c r="A127" s="40"/>
-      <c r="B127" s="42" t="s">
+      <c r="A127" s="38"/>
+      <c r="B127" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="C127" s="21" t="s">
+      <c r="C127" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D127" s="45"/>
-      <c r="E127" s="26" t="s">
+      <c r="D127" s="34"/>
+      <c r="E127" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F127" s="27" t="s">
+      <c r="F127" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G127" s="28" t="s">
+      <c r="G127" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H127" s="51" t="s">
+      <c r="H127" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="I127" s="56"/>
+      <c r="I127" s="52"/>
       <c r="J127" s="3"/>
       <c r="M127" s="3"/>
       <c r="N127" s="3"/>
@@ -31128,27 +31119,27 @@
       <c r="AMT127" s="4"/>
     </row>
     <row r="128" spans="1:1034">
-      <c r="A128" s="40"/>
-      <c r="B128" s="42" t="s">
+      <c r="A128" s="38"/>
+      <c r="B128" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="C128" s="21" t="s">
+      <c r="C128" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D128" s="45"/>
-      <c r="E128" s="26" t="s">
+      <c r="D128" s="34"/>
+      <c r="E128" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F128" s="27" t="s">
+      <c r="F128" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G128" s="28" t="s">
+      <c r="G128" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H128" s="51" t="s">
+      <c r="H128" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="I128" s="56"/>
+      <c r="I128" s="52"/>
       <c r="J128" s="3"/>
       <c r="M128" s="3"/>
       <c r="N128" s="3"/>
@@ -31164,27 +31155,27 @@
       <c r="AMT128" s="4"/>
     </row>
     <row r="129" spans="1:1034">
-      <c r="A129" s="40"/>
-      <c r="B129" s="42" t="s">
+      <c r="A129" s="38"/>
+      <c r="B129" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="C129" s="21" t="s">
+      <c r="C129" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D129" s="45"/>
-      <c r="E129" s="26" t="s">
+      <c r="D129" s="34"/>
+      <c r="E129" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F129" s="27" t="s">
+      <c r="F129" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G129" s="28" t="s">
+      <c r="G129" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H129" s="51" t="s">
+      <c r="H129" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="I129" s="56"/>
+      <c r="I129" s="52"/>
       <c r="J129" s="3"/>
       <c r="M129" s="3"/>
       <c r="N129" s="3"/>
@@ -31200,27 +31191,27 @@
       <c r="AMT129" s="4"/>
     </row>
     <row r="130" spans="1:1034">
-      <c r="A130" s="40"/>
-      <c r="B130" s="42" t="s">
+      <c r="A130" s="38"/>
+      <c r="B130" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="C130" s="21" t="s">
+      <c r="C130" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D130" s="45"/>
-      <c r="E130" s="26" t="s">
+      <c r="D130" s="34"/>
+      <c r="E130" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F130" s="27" t="s">
+      <c r="F130" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G130" s="28" t="s">
+      <c r="G130" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H130" s="51" t="s">
+      <c r="H130" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="I130" s="56"/>
+      <c r="I130" s="52"/>
       <c r="J130" s="3"/>
       <c r="M130" s="3"/>
       <c r="N130" s="3"/>
@@ -31236,27 +31227,27 @@
       <c r="AMT130" s="4"/>
     </row>
     <row r="131" spans="1:1034">
-      <c r="A131" s="40"/>
-      <c r="B131" s="42" t="s">
+      <c r="A131" s="38"/>
+      <c r="B131" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="C131" s="21" t="s">
+      <c r="C131" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D131" s="45"/>
-      <c r="E131" s="26" t="s">
+      <c r="D131" s="34"/>
+      <c r="E131" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F131" s="27" t="s">
+      <c r="F131" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G131" s="28" t="s">
+      <c r="G131" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H131" s="51" t="s">
+      <c r="H131" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="I131" s="56"/>
+      <c r="I131" s="52"/>
       <c r="J131" s="3"/>
       <c r="M131" s="3"/>
       <c r="N131" s="3"/>
@@ -31272,27 +31263,27 @@
       <c r="AMT131" s="4"/>
     </row>
     <row r="132" spans="1:1034">
-      <c r="A132" s="40"/>
-      <c r="B132" s="42" t="s">
+      <c r="A132" s="38"/>
+      <c r="B132" s="39" t="s">
         <v>164</v>
       </c>
-      <c r="C132" s="21" t="s">
+      <c r="C132" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D132" s="45"/>
-      <c r="E132" s="26" t="s">
+      <c r="D132" s="34"/>
+      <c r="E132" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F132" s="27" t="s">
+      <c r="F132" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G132" s="28" t="s">
+      <c r="G132" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H132" s="51" t="s">
+      <c r="H132" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="I132" s="56"/>
+      <c r="I132" s="52"/>
       <c r="J132" s="3"/>
       <c r="M132" s="3"/>
       <c r="N132" s="3"/>
@@ -31308,27 +31299,27 @@
       <c r="AMT132" s="4"/>
     </row>
     <row r="133" spans="1:1034">
-      <c r="A133" s="40"/>
-      <c r="B133" s="42" t="s">
+      <c r="A133" s="38"/>
+      <c r="B133" s="39" t="s">
         <v>165</v>
       </c>
-      <c r="C133" s="21" t="s">
+      <c r="C133" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D133" s="45"/>
-      <c r="E133" s="26" t="s">
+      <c r="D133" s="34"/>
+      <c r="E133" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F133" s="27" t="s">
+      <c r="F133" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G133" s="28" t="s">
+      <c r="G133" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H133" s="51" t="s">
+      <c r="H133" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="I133" s="56"/>
+      <c r="I133" s="52"/>
       <c r="J133" s="3"/>
       <c r="M133" s="3"/>
       <c r="N133" s="3"/>
@@ -31344,27 +31335,27 @@
       <c r="AMT133" s="4"/>
     </row>
     <row r="134" spans="1:1034">
-      <c r="A134" s="40"/>
-      <c r="B134" s="42" t="s">
+      <c r="A134" s="38"/>
+      <c r="B134" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="C134" s="21" t="s">
+      <c r="C134" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D134" s="45"/>
-      <c r="E134" s="26" t="s">
+      <c r="D134" s="34"/>
+      <c r="E134" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F134" s="27" t="s">
+      <c r="F134" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G134" s="28" t="s">
+      <c r="G134" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H134" s="51" t="s">
+      <c r="H134" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="I134" s="56"/>
+      <c r="I134" s="52"/>
       <c r="J134" s="3"/>
       <c r="M134" s="3"/>
       <c r="N134" s="3"/>
@@ -31380,27 +31371,27 @@
       <c r="AMT134" s="4"/>
     </row>
     <row r="135" spans="1:1034">
-      <c r="A135" s="40"/>
-      <c r="B135" s="58" t="s">
+      <c r="A135" s="38"/>
+      <c r="B135" s="54" t="s">
         <v>167</v>
       </c>
-      <c r="C135" s="21" t="s">
+      <c r="C135" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D135" s="45"/>
-      <c r="E135" s="26" t="s">
+      <c r="D135" s="34"/>
+      <c r="E135" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F135" s="27" t="s">
+      <c r="F135" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G135" s="28" t="s">
+      <c r="G135" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H135" s="51" t="s">
+      <c r="H135" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="I135" s="61"/>
+      <c r="I135" s="57"/>
       <c r="J135" s="3"/>
       <c r="M135" s="3"/>
       <c r="N135" s="3"/>
@@ -31416,27 +31407,27 @@
       <c r="AMT135" s="4"/>
     </row>
     <row r="136" spans="1:1034">
-      <c r="A136" s="59"/>
-      <c r="B136" s="42" t="s">
+      <c r="A136" s="55"/>
+      <c r="B136" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="C136" s="21" t="s">
+      <c r="C136" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D136" s="45"/>
-      <c r="E136" s="26" t="s">
+      <c r="D136" s="34"/>
+      <c r="E136" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F136" s="27" t="s">
+      <c r="F136" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G136" s="28" t="s">
+      <c r="G136" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H136" s="51" t="s">
+      <c r="H136" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="I136" s="61"/>
+      <c r="I136" s="57"/>
       <c r="J136" s="3"/>
       <c r="M136" s="3"/>
       <c r="N136" s="3"/>
@@ -31452,27 +31443,27 @@
       <c r="AMT136" s="4"/>
     </row>
     <row r="137" spans="1:1034">
-      <c r="A137" s="59"/>
-      <c r="B137" s="42" t="s">
+      <c r="A137" s="55"/>
+      <c r="B137" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="C137" s="21" t="s">
+      <c r="C137" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D137" s="45"/>
-      <c r="E137" s="26" t="s">
+      <c r="D137" s="34"/>
+      <c r="E137" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F137" s="27" t="s">
+      <c r="F137" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G137" s="28" t="s">
+      <c r="G137" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H137" s="51" t="s">
+      <c r="H137" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="I137" s="61"/>
+      <c r="I137" s="57"/>
       <c r="J137" s="3"/>
       <c r="M137" s="3"/>
       <c r="N137" s="3"/>
@@ -31488,27 +31479,27 @@
       <c r="AMT137" s="4"/>
     </row>
     <row r="138" spans="1:1034">
-      <c r="A138" s="59"/>
-      <c r="B138" s="42" t="s">
+      <c r="A138" s="55"/>
+      <c r="B138" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="C138" s="21" t="s">
+      <c r="C138" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D138" s="45"/>
-      <c r="E138" s="26" t="s">
+      <c r="D138" s="34"/>
+      <c r="E138" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F138" s="27" t="s">
+      <c r="F138" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G138" s="28" t="s">
+      <c r="G138" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H138" s="51" t="s">
+      <c r="H138" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="I138" s="61"/>
+      <c r="I138" s="57"/>
       <c r="J138" s="3"/>
       <c r="M138" s="3"/>
       <c r="N138" s="3"/>
@@ -31524,27 +31515,27 @@
       <c r="AMT138" s="4"/>
     </row>
     <row r="139" spans="1:1034">
-      <c r="A139" s="40"/>
-      <c r="B139" s="60" t="s">
+      <c r="A139" s="38"/>
+      <c r="B139" s="56" t="s">
         <v>171</v>
       </c>
-      <c r="C139" s="44" t="s">
+      <c r="C139" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D139" s="45"/>
-      <c r="E139" s="52" t="s">
+      <c r="D139" s="34"/>
+      <c r="E139" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="F139" s="48" t="s">
+      <c r="F139" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="G139" s="49" t="s">
+      <c r="G139" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="H139" s="53" t="s">
+      <c r="H139" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="I139" s="57"/>
+      <c r="I139" s="53"/>
       <c r="J139" s="3"/>
       <c r="M139" s="3"/>
       <c r="N139" s="3"/>
@@ -31565,7 +31556,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I53"/>
+  <autoFilter ref="A1:I139"/>
   <mergeCells count="18">
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A7:A25"/>
@@ -31586,7 +31577,7 @@
     <mergeCell ref="D80:D107"/>
     <mergeCell ref="D108:D139"/>
   </mergeCells>
-  <conditionalFormatting sqref="G134:G139 G2:G133">
+  <conditionalFormatting sqref="G2:G139">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
@@ -31609,7 +31600,7 @@
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="openjdk-smoke.sh"/>
     <hyperlink ref="D7" r:id="rId2" display="nodejs.sh"/>
-    <hyperlink ref="D26" r:id="rId3" display="findbugs.yaml"/>
+    <hyperlink ref="D26" r:id="rId3" display="findbugs.sh"/>
     <hyperlink ref="D42:D53" r:id="rId4" display="jmeter.sh"/>
     <hyperlink ref="D31:D41" r:id="rId5" display="javapackages-tools.md"/>
     <hyperlink ref="D54" r:id="rId6" display="golang.sh"/>
@@ -31617,6 +31608,12 @@
     <hyperlink ref="D80" r:id="rId8" display="python.sh"/>
     <hyperlink ref="D108" r:id="rId8" display="php.sh"/>
     <hyperlink ref="D108:D139" r:id="rId9" display="php.sh"/>
+    <hyperlink ref="D2:D6" r:id="rId10" display="openjdk-smoke.sh"/>
+    <hyperlink ref="D7:D25" r:id="rId11" display="nodejs.sh"/>
+    <hyperlink ref="D26:D30" r:id="rId12" display="findbugs.sh"/>
+    <hyperlink ref="D54:D68" r:id="rId13" display="golang.sh"/>
+    <hyperlink ref="D69:D79" r:id="rId14" display="go-bindata.sh"/>
+    <hyperlink ref="D80:D107" r:id="rId15" display="python.sh"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
